--- a/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
+++ b/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\grellets\OneDrive - BRGM\OGC\GeoScienceDWG\BoreholeIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\grellets\Travail\GitHub\Boreholeie\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="359">
   <si>
     <t>Concept</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Borehole logS (driller, …)</t>
   </si>
   <si>
-    <t>? AGS Format ?</t>
-  </si>
-  <si>
     <t>Geological Structure</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
   </si>
   <si>
     <t>? Correlation ?</t>
-  </si>
-  <si>
-    <t>Spectral Scan (Dataset)</t>
   </si>
   <si>
     <t>Downhole Log</t>
@@ -916,6 +910,228 @@
   </si>
   <si>
     <t>Sampling Points (count)</t>
+  </si>
+  <si>
+    <t>The beginning point of a shaft or drill hole, the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position </t>
+  </si>
+  <si>
+    <t>Position (3D Point) of the hole on the surface of the ground.</t>
+  </si>
+  <si>
+    <t>fr: orifice ?</t>
+  </si>
+  <si>
+    <t>Tridimensional path of the hole in the ground. Geometric shape (Curve or tube) representing this path. Geometry can also be represented as a series of distance measurements from the origin and orientation vectors (taken with a tropari for example) from which the positions can be calculated.
+syn: borehole path.</t>
+  </si>
+  <si>
+    <t>fr: trajectoire du forage</t>
+  </si>
+  <si>
+    <t>fr: Profondeur mesurée</t>
+  </si>
+  <si>
+    <t>Depth measured along the borehole trajectory. https://en.wikipedia.org/wiki/Depth_in_a_well</t>
+  </si>
+  <si>
+    <t>fr: Profondeur verticale réelle</t>
+  </si>
+  <si>
+    <t>measurement of a straight line perpendicularly downwards from a horizontal plane. https://en.wikipedia.org/wiki/True_vertical_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth </t>
+  </si>
+  <si>
+    <t>fr: Profondeur</t>
+  </si>
+  <si>
+    <t>Vertical (or "parallel to gravity line") distance from a datum.
+Note: depth from Ellipsoid if normally called "Elevation" (fr: Altitude ?) Note: depth is often expressed using a positive number downward, while elevation is upward</t>
+  </si>
+  <si>
+    <t>fr: Intervalle</t>
+  </si>
+  <si>
+    <t>Linear section of a trajectory , bounded by a start depth and a end depth. Intervals are arbitrary subdivision of a trajectory that may or may not correspond to discontinuities in the bored material or drilling operations. Intervals can be overlap if they are created to group different phenomenons along the trajectories.</t>
+  </si>
+  <si>
+    <t>Origin of a local datum for a borehole. Depth, but also relative position, are often expressed relative to an construction element of the borehole or the local elevation (ground level).
+Driller use different datum (most of the list of from wikipedia : https://en.wikipedia.org/wiki/Depth_in_a_well)
+ground level (GL) - or Othographic,
+drilling rig floor (DF),
+rotary table (RT),
+kelly bushing (KB)
+curb-stone (fr: margelle) or top of casing (fr: sommet du tubage) - often use for water wells as position of the ground is not precise (or not always apparent, ie: during winter), similar to GL, but with a local offset.
+To compare position of features from one borehole to another, they must be converted to a common datum, such as mean sea level (MSL)- or Ellipsoidal datum. Note that, while often called "absolute" elevations, there are not since they are based on a defined datum.</t>
+  </si>
+  <si>
+    <t>"Properties of" / "Attached to" which concept ? Borehole Trajectory ?</t>
+  </si>
+  <si>
+    <t>Borehole Logs can be used to verify or adapt existing 3D-Models of a specific structure. If for example a significant amount of Iridium is measured in a geophysical log at certain depth interval, the according unit can be identified as belonging to a geological horizon, which in turn has been observed (modelled) as a geological structure and classified (categorized) as K-T boundary. If the depth information of the both samples differ from each other the model can be adapted according to the depth information from the borehole log.</t>
+  </si>
+  <si>
+    <t>"three-dimensional distribution of rock units" (Wikipedia)
+"Geological structures are structures in the Earth's crust that have geological causes. There are many types of geological structures and these can have several causes. For example, tectonics caused widespread deformation of the crust like fractures and folds. Volcanism can also cause various geological structures such as volcanoes or intrusions."(fossil.net)
+An example is a geological horizon like "The Cretaceous–Paleogene (K–Pg) boundary, formerly known as the Cretaceous–Tertiary (K-T) boundary, a geological signature, usually a thin band of rock", (Wikipedia).</t>
+  </si>
+  <si>
+    <t>A Digital Model is the approximation of a geological structure by either explicite (manually with appropriate tools) or implicite modelling (application of Numerical Models to observations and measurements</t>
+  </si>
+  <si>
+    <t>"In geology, numerical modeling is a widely applied technique to tackle complex geological problems by computational simulation of geological scenarios." (Wikipedia)</t>
+  </si>
+  <si>
+    <t>Seismic Profile</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>"... is any statistical relationship, whether causal or not, between two random variables or bivariate data. In the broadest sense correlation is any statistical association, though in common usage it most often refers to how close two variables are to having a linear relationship with each other.", (Wikipedia).
+A correlation in the proposed use cases could be provided by comparing the depth information of a geological horizon, which was numerically modelled with information from a borehole (lithology) log.</t>
+  </si>
+  <si>
+    <t>Spectral Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The collection of data generated by the Scan. http://geology.data.nt.gov.au/NVCLDataServices/getDatasetCollection.html?holeidentifier=1113664_ECD11 </t>
+  </si>
+  <si>
+    <t>Scanner ID</t>
+  </si>
+  <si>
+    <t>Available products</t>
+  </si>
+  <si>
+    <t>"Properties of" / "Attached to" which concept ? Borehole Trajectory ?
+Linked to the 'Reference Z' Feature discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A continuous time period of drilling and related scientific work. The expedition (or project) can span multiple boreholes and also multiple sites. It includes the scientific work that is required for basic documentation of the drill core and boreholes and, thus, can span a much longer time than the actual drilling.
+IODP/ICDP naming example: 5054 (Expedition number)</t>
+  </si>
+  <si>
+    <t>Number of the expedition/project (According to IODP/ICDP convention).</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Designation of the drilling program to which the expedition/project belongs to.</t>
+  </si>
+  <si>
+    <t>Name of the expedition/project.</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>Acronym of the expedition/project.</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Start date of the expedition/project.</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>End date of the expedition/project.</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>1 character according to IODP/ICDP encoding (for the used drill ship or alternative platform). =&gt; Duplicated in/from concept/feature Site!)</t>
+  </si>
+  <si>
+    <t>Chief scientist</t>
+  </si>
+  <si>
+    <t>Name of the chief scientist/project leader.</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Name of the area where the expedition/project operates/operated.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Comment on the expedition/project.</t>
+  </si>
+  <si>
+    <t>Definition: An area of limited extension where one or several (often topically related) boreholes are located.
+IODP/ICDP naming example: 5054-1 (Expedition number-Drill site number)</t>
+  </si>
+  <si>
+    <t>Number of the expedition under which this site was created/used.(see concept/feature Expedition).</t>
+  </si>
+  <si>
+    <t>Site number (within expedition; 1,2,...). According to IODP/ICDP convention.</t>
+  </si>
+  <si>
+    <t>Site or locality name.</t>
+  </si>
+  <si>
+    <t>1 character according to IODP/ICDP encoding (for the used drill ship or alternative platform).</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Latitude of the drill site.</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Longitude of the drill site.</t>
+  </si>
+  <si>
+    <t>An Observation ?</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>"Positionning along a borehole" toolbox</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Elevation of the drill site.</t>
+  </si>
+  <si>
+    <t>Date start</t>
+  </si>
+  <si>
+    <t>Start date of drilling operations at the site.</t>
+  </si>
+  <si>
+    <t>Date ends</t>
+  </si>
+  <si>
+    <t>End date of drilling operations at the site.</t>
+  </si>
+  <si>
+    <t>Remarks about the drill site.</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
 </sst>
 </file>
@@ -956,13 +1172,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,14 +1257,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,9 +1299,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1095,6 +1307,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1376,57 +1601,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4">
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3">
         <v>11</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>13</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1460,10 +1685,10 @@
       <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="5"/>
+      <c r="M2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1482,7 +1707,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1503,7 +1728,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1524,191 +1749,191 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>54</v>
+      <c r="M6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="M8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8" t="s">
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1723,13 +1948,13 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1742,15 +1967,15 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="8" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1765,13 +1990,13 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1786,20 +2011,20 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1807,20 +2032,20 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1828,52 +2053,55 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>55</v>
+      <c r="A20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1888,27 +2116,30 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="M23" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1927,9 +2158,12 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
+      <c r="M24" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1"/>
@@ -1945,9 +2179,12 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
+      <c r="M25" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="1"/>
@@ -1963,9 +2200,12 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
+      <c r="M26" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="1"/>
@@ -1981,9 +2221,12 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
+      <c r="M27" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="1"/>
@@ -1999,28 +2242,34 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
+      <c r="M28" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2028,17 +2277,20 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
+      <c r="M30" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2053,10 +2305,13 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+      <c r="M31" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2071,10 +2326,13 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
+      <c r="M32" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2084,29 +2342,37 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L33" s="1"/>
+      <c r="M33" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -2121,20 +2387,21 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2145,7 +2412,7 @@
       <c r="L36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2166,6 +2433,9 @@
       <c r="L37" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M37" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -2184,6 +2454,9 @@
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M38" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -2202,6 +2475,9 @@
       <c r="L39" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M39" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -2220,6 +2496,9 @@
       <c r="L40" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M40" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -2238,10 +2517,13 @@
       <c r="L41" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M41" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2249,31 +2531,13 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="L42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:A144"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2300,120 +2564,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="7" t="s">
-        <v>80</v>
+      <c r="E7" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2422,54 +2686,54 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
-        <v>88</v>
+      <c r="E11" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2478,12 +2742,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2492,12 +2756,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2506,40 +2770,40 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2548,9 +2812,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2560,9 +2824,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2572,9 +2836,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2584,9 +2848,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2596,9 +2860,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2608,9 +2872,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2620,9 +2884,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2632,9 +2896,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2644,9 +2908,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2656,9 +2920,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2668,9 +2932,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2680,24 +2944,24 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="6" t="s">
-        <v>117</v>
+      <c r="C29" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2706,12 +2970,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2720,40 +2984,40 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="6" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2762,12 +3026,12 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2776,12 +3040,12 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2790,12 +3054,12 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2804,12 +3068,12 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2818,12 +3082,12 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2832,12 +3096,12 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2846,12 +3110,12 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2860,12 +3124,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2874,12 +3138,12 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2888,12 +3152,12 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2902,26 +3166,26 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2930,12 +3194,12 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2944,12 +3208,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2958,12 +3222,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2972,12 +3236,12 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2986,12 +3250,12 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3000,12 +3264,12 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3014,12 +3278,12 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3028,12 +3292,12 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3042,1427 +3306,2071 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="9" t="s">
-        <v>177</v>
+      <c r="C55" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="9">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="6" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="19"/>
+      <c r="B64" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="9">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="6" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="9">
+      <c r="C65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="9">
+    <row r="66" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="9">
+    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="16"/>
+      <c r="B73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="16"/>
+      <c r="B75" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="16"/>
+      <c r="B80" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="16"/>
+      <c r="B81" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="8">
         <v>6</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="9">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="15"/>
+      <c r="B83" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="9">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="20"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
-      <c r="B76" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
-      <c r="B80" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="9" t="s">
-        <v>213</v>
+    <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="20"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
-        <v>287</v>
-      </c>
+      <c r="A87" s="20"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="6" t="s">
-        <v>214</v>
+      <c r="C87" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
+      <c r="F87" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="20"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="6" t="s">
-        <v>221</v>
+      <c r="C88" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F88" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="20"/>
+      <c r="B89" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="6" t="s">
-        <v>284</v>
-      </c>
+      <c r="F89" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="20"/>
+      <c r="B90" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="F90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="20"/>
+      <c r="B91" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
-      <c r="B92" s="6" t="s">
-        <v>182</v>
+      <c r="F91" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="9">
-        <v>1</v>
+      <c r="E92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="B93" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="1"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="1"/>
+      <c r="F93" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="20"/>
+      <c r="B94" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="9">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="12" t="s">
-        <v>220</v>
+      <c r="F94" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="20"/>
+      <c r="B95" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F95" s="9">
+      <c r="E95" s="1"/>
+      <c r="F95" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="6" t="s">
-        <v>9</v>
+      <c r="A96" s="20"/>
+      <c r="B96" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="9">
-        <v>2</v>
+      <c r="F96" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="6" t="s">
-        <v>217</v>
+      <c r="A97" s="20"/>
+      <c r="B97" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="9">
-        <v>2</v>
+      <c r="F97" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="1"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="9">
-        <v>2</v>
+      <c r="F98" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="6" t="s">
-        <v>223</v>
+      <c r="A99" s="20"/>
+      <c r="B99" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="9">
+      <c r="F99" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>226</v>
-      </c>
+    <row r="100" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="9">
-        <v>3</v>
+      <c r="F100" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="6" t="s">
-        <v>227</v>
-      </c>
+      <c r="A101" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="9">
-        <v>3</v>
+      <c r="F101" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A102" s="14"/>
+      <c r="B102" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>285</v>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="9">
-        <v>4</v>
-      </c>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="A104" s="15"/>
+      <c r="B104" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="15"/>
-      <c r="B105" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="9"/>
+      <c r="F105" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="15"/>
-      <c r="B106" s="6" t="s">
-        <v>290</v>
+      <c r="A106" s="20"/>
+      <c r="B106" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="9"/>
+      <c r="F106" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
-      <c r="B107" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C107" s="1"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
-        <v>10</v>
+      <c r="F107" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="C108" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="9">
+      <c r="F108" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" s="1"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="9">
+      <c r="F109" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
-      <c r="B110" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="9">
+    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F110" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="6" t="s">
-        <v>239</v>
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="20"/>
+      <c r="B111" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="9">
+      <c r="F111" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D112" s="1"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="9">
+      <c r="F112" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F113" s="9">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="20"/>
+      <c r="B113" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
-      <c r="B114" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D114" s="1"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="20"/>
+      <c r="B114" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="9">
+      <c r="F114" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
-      <c r="B115" s="1" t="s">
-        <v>247</v>
+      <c r="A115" s="20"/>
+      <c r="B115" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="9">
+      <c r="F115" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="13"/>
-      <c r="B116" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C116" s="1"/>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="9">
+      <c r="F116" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
-      <c r="B117" s="1" t="s">
-        <v>250</v>
+      <c r="A117" s="20"/>
+      <c r="B117" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="C117" s="1"/>
-      <c r="D117" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="9">
+      <c r="F117" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="A118" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="9">
+      <c r="F118" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="6" t="s">
-        <v>254</v>
-      </c>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="20"/>
+      <c r="B119" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="9">
+      <c r="F119" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
-      <c r="B120" s="6" t="s">
-        <v>255</v>
+      <c r="A120" s="20"/>
+      <c r="B120" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="9">
+      <c r="F120" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="1"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="9">
+      <c r="F121" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
-      <c r="B122" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" s="1"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="9">
+      <c r="F122" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
-      <c r="B123" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C123" s="1"/>
+      <c r="A123" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="9">
+      <c r="F123" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
-      <c r="B124" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="A124" s="20"/>
+      <c r="B124" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="9">
+      <c r="F124" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="13"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="9">
+      <c r="F125" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="1"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="C126" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="9">
+      <c r="F126" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="9">
+      <c r="F127" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="9">
+      <c r="F128" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-      <c r="B129" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>266</v>
+    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="9">
-        <v>3</v>
+      <c r="E129" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F129" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="9">
-        <v>3</v>
+      <c r="F130" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="13"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="6" t="s">
-        <v>270</v>
-      </c>
+      <c r="F131" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="14"/>
+      <c r="B132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F132" s="9">
+      <c r="E132" s="1"/>
+      <c r="F132" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="15"/>
+      <c r="A133" s="14"/>
       <c r="B133" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" s="10" t="s">
         <v>273</v>
       </c>
+      <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="9">
+      <c r="F133" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="15"/>
+      <c r="A134" s="14"/>
       <c r="B134" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="9">
+      <c r="F134" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="15"/>
+      <c r="A135" s="14"/>
       <c r="B135" s="1" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="9">
+      <c r="F135" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="15"/>
+      <c r="A136" s="14"/>
       <c r="B136" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="9">
+      <c r="F136" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="15"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="9">
+      <c r="F137" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="15"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="9">
+      <c r="F138" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="15"/>
       <c r="B139" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="9">
+      <c r="F139" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="15"/>
-      <c r="B140" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C140" s="1"/>
+    <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="9">
+      <c r="F140" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="15"/>
+      <c r="A141" s="18"/>
       <c r="B141" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="9">
+      <c r="F141" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="16"/>
-      <c r="B142" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="9">
-        <v>4</v>
+      <c r="A142" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="14"/>
+      <c r="B143" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="20"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="1" t="s">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="9">
-        <v>4</v>
+      <c r="F144" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
       <c r="F145" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="15"/>
-      <c r="B146" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="14"/>
+      <c r="B146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="15"/>
+      <c r="A147" s="14"/>
       <c r="B147" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="15"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="15"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="15"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="15"/>
+      <c r="A151" s="14"/>
       <c r="B151" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="15"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="15"/>
+      <c r="A153" s="14"/>
       <c r="B153" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="15"/>
-      <c r="B154" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="F154" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="15"/>
-      <c r="B155" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="A155" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="15"/>
+      <c r="A156" s="14"/>
       <c r="B156" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="16"/>
-      <c r="B157" s="1"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
       <c r="F158" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="15"/>
+      <c r="A159" s="14"/>
       <c r="B159" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C159" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="15"/>
+      <c r="A160" s="14"/>
       <c r="B160" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C160" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="15"/>
-      <c r="B162" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F161" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A162" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F162" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
       <c r="B163" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D163" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="F163" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="16"/>
-      <c r="B164" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="A164" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F164" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="22"/>
+      <c r="B165" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F165" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="22"/>
+      <c r="B166" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F166" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="18"/>
+      <c r="B167" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F167" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F168" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="12"/>
+      <c r="B171" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="14"/>
+      <c r="B174" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="14"/>
+      <c r="B175" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="14"/>
+      <c r="B176" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="14"/>
+      <c r="B177" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="15"/>
+      <c r="B178" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="16"/>
+      <c r="B180" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="16"/>
+      <c r="B181" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="16"/>
+      <c r="B182" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="16"/>
+      <c r="B183" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="16"/>
+      <c r="B184" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A185" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="14"/>
+      <c r="B186" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="14"/>
+      <c r="B187" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="14"/>
+      <c r="B188" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="14"/>
+      <c r="B189" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="14"/>
+      <c r="B190" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="14"/>
+      <c r="B191" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="14"/>
+      <c r="B192" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="14"/>
+      <c r="B193" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="14"/>
+      <c r="B194" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="15"/>
+      <c r="B195" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A196" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="14"/>
+      <c r="B197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="14"/>
+      <c r="B198" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="14"/>
+      <c r="B199" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="14"/>
+      <c r="B200" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="14"/>
+      <c r="B201" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="14"/>
+      <c r="B202" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="14"/>
+      <c r="B203" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="14"/>
+      <c r="B204" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="14"/>
+      <c r="B205" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="15"/>
+      <c r="B206" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="8">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A132:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A157"/>
+  <mergeCells count="24">
+    <mergeCell ref="A185:A195"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A167"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A54"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="A87:A102"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A67:A81"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A154"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A82:A83"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>

--- a/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
+++ b/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="486">
   <si>
     <t>Concept</t>
   </si>
@@ -1132,6 +1132,390 @@
   </si>
   <si>
     <t>todo</t>
+  </si>
+  <si>
+    <t>A core run is defined by the drilling that happens during the time in which one core barrel is in the borehole. It starts when drilling succeeds with the empty core barrel and ends when the core barrel is full or has to be retrieved from the borehole for other reasons. The entire drill core retrieved from a borehole is the sum of drill core from all core runs in this borehole. It is also called the sampling material.
+IODP/ICDP naming example: 5054-1-A-178Z (Expedition number-Drill site number-Borehole character-Core run number and coring type designation)</t>
+  </si>
+  <si>
+    <t>Number of the expedition to which this core run belongs to (see concept/feature Expedition).</t>
+  </si>
+  <si>
+    <t>Number of the site to which this core run belongs to (see concept/feature Site).</t>
+  </si>
+  <si>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>Character code of the borehole from which this core run was retrieved (see concept/feature Borehole).</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Core run number (within borehole; 1,2,...). IODP/ICDP convention.</t>
+  </si>
+  <si>
+    <t>Core type</t>
+  </si>
+  <si>
+    <t>1 character code for the core type according to IODP/ICDP convention (stands for e.g. piston, gravity, diamond core).</t>
+  </si>
+  <si>
+    <t>Top depth</t>
+  </si>
+  <si>
+    <t>Driller's depth at the top of the core (i.e. when drilling of the core run commences).</t>
+  </si>
+  <si>
+    <t>Bottom depth</t>
+  </si>
+  <si>
+    <t>Driller's depth at the bottom of the core (i.e. when the core barrel is pulled out of the hole).</t>
+  </si>
+  <si>
+    <t>Drilled length</t>
+  </si>
+  <si>
+    <t>Drilled length (calculated from top and bottom depths).</t>
+  </si>
+  <si>
+    <t>MCD offset</t>
+  </si>
+  <si>
+    <t>Offset between driller's depth and MCD (mean corrected depth, which is the depth after corrections by the scientists (e.g. after logging)).</t>
+  </si>
+  <si>
+    <t>MCD top</t>
+  </si>
+  <si>
+    <t>Corrected top depth (calculated as Top depth + MCD offset).</t>
+  </si>
+  <si>
+    <t>MCD bottom</t>
+  </si>
+  <si>
+    <t>Corrected bottom depth (calculated as Bottom depth + MCD offset).</t>
+  </si>
+  <si>
+    <t>Core recovery</t>
+  </si>
+  <si>
+    <t>Length of the recovered core as measured by the scientists.</t>
+  </si>
+  <si>
+    <t>Core recovery PC</t>
+  </si>
+  <si>
+    <t>Core recovery in percentage (calculated as Core recovery / Drilled length).</t>
+  </si>
+  <si>
+    <t>Core on deck</t>
+  </si>
+  <si>
+    <t>Time and date when the core arrived on the drill deck.</t>
+  </si>
+  <si>
+    <t>Oriented</t>
+  </si>
+  <si>
+    <t>Boolean value to indicate whether the core run is oriented, i.e. orientation measured by a dedicated device. The values are stored in a different table (need to be included).</t>
+  </si>
+  <si>
+    <t>Last section</t>
+  </si>
+  <si>
+    <t>Number of last section of the core, i.e number of sections in which the core run was subdivided (see definition of section below).</t>
+  </si>
+  <si>
+    <t>Core catcher</t>
+  </si>
+  <si>
+    <t>Boolean value that indicates whether a core catcher section exists or not. Mainly important for unconsolidated sediment cores, where the core catcher might contain additional material.</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Initials of the data operator.</t>
+  </si>
+  <si>
+    <t>Remarks on the core run.</t>
+  </si>
+  <si>
+    <t>IGSN</t>
+  </si>
+  <si>
+    <t>The International GeoSample Number of the core run.</t>
+  </si>
+  <si>
+    <t>Number of the expedition to which this core section belongs to (see concept/feature Expedition).</t>
+  </si>
+  <si>
+    <t>Number of the site to which this core section belongs to (see concept/feature Site).</t>
+  </si>
+  <si>
+    <t>Character code of the borehole from which this core section was retrieved (see concept/feature Borehole).</t>
+  </si>
+  <si>
+    <t>Core run number to which this core section belongs to (see concept/feature Core run).</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Section number within the core run.</t>
+  </si>
+  <si>
+    <t>Init length</t>
+  </si>
+  <si>
+    <t>Length of the core section as measured by the scientist.</t>
+  </si>
+  <si>
+    <t>Curated length</t>
+  </si>
+  <si>
+    <t>The length of the curated core section.</t>
+  </si>
+  <si>
+    <t>Driller's depth at the top of the core section (calculated from values of the core run and the other sections in this core run).</t>
+  </si>
+  <si>
+    <t>Driller's depth at the bottom of the core section (calculated from Top depth and Init length).</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Boolean value that indicates whether this section is the core catcher section or not.</t>
+  </si>
+  <si>
+    <t>Corrected top depth (calculated as Top depth + MCD offset of the core run).</t>
+  </si>
+  <si>
+    <t>Corrected bottom depth (calculated as Bottom depth + MCD offset of the core run).</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Number of the core box in which this core section is stored (see concept/feature Core box).</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Number of the core box slot in which this core section is stored (see concept/feature Core box).</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Position of the section in the core box slot (several core sections can be stored in one slot; top, middle, bottom, full).</t>
+  </si>
+  <si>
+    <t>Remarks on the core section.</t>
+  </si>
+  <si>
+    <t>The International GeoSample Number of the core section.</t>
+  </si>
+  <si>
+    <t>A core run consists of one to many core sections. This subdivision is defined by the scientists who handle the core and the ways to do this may vary from project to project.
+IODP/ICDP naming example: 5054-1-A-178Z-3WR (Expedition number-Drill site number-Borehole character-Core run number and coring type designation-Section number and character code for part of section)</t>
+  </si>
+  <si>
+    <t>Part of a core section with common descriptive attributes, used e.g. for visual core description.
+IODP/ICDP naming example: 5054-1-A-178Z-3WR-54 (Expedition number-Drill site number-Borehole character-Core run number and coring type designation-Section number and character code for part of section-cm from top of the section)</t>
+  </si>
+  <si>
+    <t>Number of the expedition to which this core unit belongs to (see concept/feature Expedition).</t>
+  </si>
+  <si>
+    <t>Number of the site to which this core unit belongs to (see concept/feature Site).</t>
+  </si>
+  <si>
+    <t>Character code of the borehole to which this core unit belongs to (see concept/feature Borehole).</t>
+  </si>
+  <si>
+    <t>Core run number to which this core unit belongs to (see concept/feature Core run).</t>
+  </si>
+  <si>
+    <t>Number of the section of which this unit is part of (see concept/feature Core section).</t>
+  </si>
+  <si>
+    <t>Section unit</t>
+  </si>
+  <si>
+    <t>Number of this section unit on the core section.</t>
+  </si>
+  <si>
+    <t>Top interval</t>
+  </si>
+  <si>
+    <t>Distance from the top of the section to the top of the section unit.</t>
+  </si>
+  <si>
+    <t>Driller's depth at the top of the section unit (calculated and stored in the database).</t>
+  </si>
+  <si>
+    <t>Top depth MCD</t>
+  </si>
+  <si>
+    <t>Corrected depth at the top of the section unit (calculated and stored in the database). Should be "MCD Top" in accordance with the naming on core run and core section</t>
+  </si>
+  <si>
+    <t>Various fields to describe the section unit</t>
+  </si>
+  <si>
+    <t>not harmonised (based on requirements from the expedition</t>
+  </si>
+  <si>
+    <t>A core sample is a piece of drill core that is taken from the sampling material in order to perform detailed studies. Afterwards, a sample may be returned to the sampling material or lost (destructive investigations). Hierarchically, the core sample is a part of a core section.</t>
+  </si>
+  <si>
+    <t>Number of the expedition to which this core sample belongs to (see concept/feature Expedition).</t>
+  </si>
+  <si>
+    <t>Number of the site to which this core sample belongs to (see concept/feature Site).</t>
+  </si>
+  <si>
+    <t>Character code of the borehole to which this core sample belongs to (see concept/feature Borehole).</t>
+  </si>
+  <si>
+    <t>Core run number to which the sampled core section belongs to (see concept/feature Core run).</t>
+  </si>
+  <si>
+    <t>Section number of the sampled section (see concept/feature Core section).</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Indicates which part of section is sampled (archive or working half, whole round; IODP/ICDP convention).</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sample code (if present, the type codes are defined by the expedition, i.e. are unregulated).</t>
+  </si>
+  <si>
+    <t>Relative top depth of the sample (on the section).</t>
+  </si>
+  <si>
+    <t>Relative bottom depth of the sample (on the section)</t>
+  </si>
+  <si>
+    <t>Corrected depth for the top of the sample (calculated as Top depth + MCD offset of the core run).</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Volume of the sample.</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location identifier, which is a shortcut for the core repository (according to IODP/ICDP convention).</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Identifier of the sample request for this sample.</t>
+  </si>
+  <si>
+    <t>Request part</t>
+  </si>
+  <si>
+    <t>Identifier of the part of the sample request.</t>
+  </si>
+  <si>
+    <t>Sample date</t>
+  </si>
+  <si>
+    <t>Date and time when the sample was taken.</t>
+  </si>
+  <si>
+    <t>Remarks on the sample/sampling procedure.</t>
+  </si>
+  <si>
+    <t>The International GeoSample Number of the sample.</t>
+  </si>
+  <si>
+    <t>A box with subdivisions for storing core sections. This concept describes the layout and content of a core box, which in reverse describes the location of each core section.</t>
+  </si>
+  <si>
+    <t>Number of the expedition (see concept/feature Expedition).</t>
+  </si>
+  <si>
+    <t>Number of the site to which this core box belongs to (see concept/feature Site).</t>
+  </si>
+  <si>
+    <t>Character code of the borehole from which the drill core in this box was retrieved (see concept/feature Borehole).</t>
+  </si>
+  <si>
+    <t>Number of the core box.</t>
+  </si>
+  <si>
+    <t>Top slot</t>
+  </si>
+  <si>
+    <t>Number of the first slot of the box.</t>
+  </si>
+  <si>
+    <t>Bottom slot</t>
+  </si>
+  <si>
+    <t>Number of the last slot of the box.</t>
+  </si>
+  <si>
+    <t>Driller's depth for the top of the top section in the core box. It is assumed that the boxes are filled consecutively, though not necessarily with continuous core (gaps occur, either due to core loss or uncored drilling intervals).</t>
+  </si>
+  <si>
+    <t>Driller's depth of the bottom of the bottom core section of the core box.</t>
+  </si>
+  <si>
+    <t>Corrected depth for the top of the top section in the core box (calculated as Top depth + MCD offset of the respective core run).</t>
+  </si>
+  <si>
+    <t>MCD Bottom</t>
+  </si>
+  <si>
+    <t>Corrected depth for the bottom of the bottom core section of the core box (calculated as Bottom depth + MCD offset of the respective core run).</t>
+  </si>
+  <si>
+    <t>Top core</t>
+  </si>
+  <si>
+    <t>Core run number for the top section of the core box.</t>
+  </si>
+  <si>
+    <t>Top section</t>
+  </si>
+  <si>
+    <t>Section number for the top section of the core box.</t>
+  </si>
+  <si>
+    <t>Bottom core</t>
+  </si>
+  <si>
+    <t>Core run number for the bottom section of the core box.</t>
+  </si>
+  <si>
+    <t>Bottom section</t>
+  </si>
+  <si>
+    <t>Section number for the bottom section of the core box.</t>
+  </si>
+  <si>
+    <t>Archiving date</t>
+  </si>
+  <si>
+    <t>Archiving date of the core box.</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1289,6 +1673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1301,7 +1686,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1310,16 +1698,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1604,8 +1991,8 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,7 +2207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -2163,7 +2550,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1"/>
@@ -2184,7 +2571,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="1"/>
@@ -2205,7 +2592,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="1"/>
@@ -2226,7 +2613,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="1"/>
@@ -2434,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>358</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2455,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>358</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2476,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>358</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2497,7 +2884,7 @@
         <v>8</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>358</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2518,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>358</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2538,6 +2925,9 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
+      <c r="M42" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:A206"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,7 +2974,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
@@ -2600,7 +2990,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -2616,7 +3006,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2628,7 +3018,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -2642,7 +3032,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -2658,7 +3048,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2672,7 +3062,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2686,7 +3076,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2700,7 +3090,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -2714,7 +3104,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2728,7 +3118,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
@@ -2742,7 +3132,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
@@ -2756,7 +3146,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
@@ -2770,7 +3160,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2784,7 +3174,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2798,7 +3188,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
@@ -2812,7 +3202,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -2824,7 +3214,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -2836,7 +3226,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
@@ -2848,7 +3238,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
@@ -2860,7 +3250,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
@@ -2872,7 +3262,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
@@ -2884,7 +3274,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
@@ -2896,7 +3286,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -2908,7 +3298,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
@@ -2920,7 +3310,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
@@ -2932,7 +3322,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
@@ -2944,7 +3334,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
@@ -2956,7 +3346,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,7 +3360,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2984,7 +3374,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
@@ -2998,7 +3388,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="5" t="s">
         <v>120</v>
       </c>
@@ -3012,7 +3402,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -3026,7 +3416,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
@@ -3040,7 +3430,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
@@ -3054,7 +3444,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
@@ -3068,7 +3458,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="1" t="s">
         <v>129</v>
       </c>
@@ -3082,7 +3472,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="1" t="s">
         <v>131</v>
       </c>
@@ -3096,7 +3486,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="1" t="s">
         <v>133</v>
       </c>
@@ -3110,7 +3500,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
@@ -3124,7 +3514,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3138,7 +3528,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3152,7 +3542,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3166,7 +3556,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
@@ -3180,7 +3570,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
@@ -3194,7 +3584,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="1" t="s">
         <v>147</v>
       </c>
@@ -3208,7 +3598,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="1" t="s">
         <v>149</v>
       </c>
@@ -3222,7 +3612,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3236,7 +3626,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="1" t="s">
         <v>153</v>
       </c>
@@ -3250,7 +3640,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
@@ -3264,7 +3654,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
@@ -3278,7 +3668,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3292,7 +3682,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
@@ -3306,7 +3696,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
@@ -3320,7 +3710,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
       </c>
@@ -3332,7 +3722,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="1" t="s">
         <v>164</v>
       </c>
@@ -3344,7 +3734,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="1" t="s">
         <v>165</v>
       </c>
@@ -3356,7 +3746,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
       </c>
@@ -3368,7 +3758,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="1" t="s">
         <v>167</v>
       </c>
@@ -3380,7 +3770,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="5"/>
@@ -3394,7 +3784,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="5" t="s">
         <v>169</v>
       </c>
@@ -3406,7 +3796,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="5" t="s">
         <v>170</v>
       </c>
@@ -3418,7 +3808,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="5" t="s">
         <v>171</v>
       </c>
@@ -3430,7 +3820,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="5" t="s">
         <v>172</v>
       </c>
@@ -3460,7 +3850,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="5"/>
@@ -3476,7 +3866,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
         <v>185</v>
@@ -3488,7 +3878,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="5" t="s">
         <v>180</v>
       </c>
@@ -3500,7 +3890,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="5" t="s">
         <v>181</v>
       </c>
@@ -3512,7 +3902,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="5" t="s">
         <v>182</v>
       </c>
@@ -3526,7 +3916,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="5" t="s">
         <v>186</v>
       </c>
@@ -3540,7 +3930,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="5" t="s">
         <v>188</v>
       </c>
@@ -3552,7 +3942,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="5" t="s">
         <v>189</v>
       </c>
@@ -3568,7 +3958,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="5" t="s">
         <v>192</v>
       </c>
@@ -3584,7 +3974,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="5" t="s">
         <v>195</v>
       </c>
@@ -3600,7 +3990,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="5" t="s">
         <v>198</v>
       </c>
@@ -3614,7 +4004,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="5" t="s">
         <v>200</v>
       </c>
@@ -3630,7 +4020,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="5" t="s">
         <v>202</v>
       </c>
@@ -3646,7 +4036,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="5" t="s">
         <v>205</v>
       </c>
@@ -3662,7 +4052,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="5" t="s">
         <v>208</v>
       </c>
@@ -3678,7 +4068,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="5"/>
@@ -3694,7 +4084,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="5" t="s">
         <v>291</v>
       </c>
@@ -3706,7 +4096,7 @@
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B84" s="1"/>
@@ -3720,7 +4110,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
         <v>219</v>
@@ -3734,7 +4124,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="1"/>
       <c r="C86" s="5" t="s">
         <v>229</v>
@@ -3746,7 +4136,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="20"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="1"/>
       <c r="C87" s="5" t="s">
         <v>282</v>
@@ -3758,7 +4148,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="20"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>284</v>
@@ -3770,7 +4160,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="20"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="5" t="s">
         <v>180</v>
       </c>
@@ -3782,7 +4172,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="20"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="5" t="s">
         <v>181</v>
       </c>
@@ -3794,7 +4184,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="20"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -3806,7 +4196,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="20"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="11" t="s">
         <v>218</v>
       </c>
@@ -3820,7 +4210,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="20"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="5" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +4224,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="5" t="s">
         <v>215</v>
       </c>
@@ -3848,7 +4238,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="20"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="5" t="s">
         <v>216</v>
       </c>
@@ -3860,7 +4250,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="5" t="s">
         <v>221</v>
       </c>
@@ -3874,7 +4264,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="20"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="5" t="s">
         <v>223</v>
       </c>
@@ -3888,7 +4278,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="20"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="5" t="s">
         <v>225</v>
       </c>
@@ -3902,7 +4292,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="20"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="5" t="s">
         <v>227</v>
       </c>
@@ -3930,7 +4320,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B101" s="5"/>
@@ -3944,7 +4334,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="14"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="5" t="s">
         <v>287</v>
       </c>
@@ -3954,7 +4344,7 @@
       <c r="F102" s="8"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="5" t="s">
         <v>288</v>
       </c>
@@ -3964,7 +4354,7 @@
       <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="15"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="5" t="s">
         <v>289</v>
       </c>
@@ -3974,7 +4364,7 @@
       <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="1"/>
@@ -3990,7 +4380,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="20"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="5" t="s">
         <v>233</v>
       </c>
@@ -4002,7 +4392,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="20"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="5" t="s">
         <v>234</v>
       </c>
@@ -4016,7 +4406,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="1"/>
@@ -4030,7 +4420,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="20"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="5" t="s">
         <v>236</v>
       </c>
@@ -4044,7 +4434,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="23" t="s">
         <v>239</v>
       </c>
       <c r="B110" s="1"/>
@@ -4062,7 +4452,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="20"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="5" t="s">
         <v>243</v>
       </c>
@@ -4076,7 +4466,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="20"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="1" t="s">
         <v>245</v>
       </c>
@@ -4090,7 +4480,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="20"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="5" t="s">
         <v>247</v>
       </c>
@@ -4102,7 +4492,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="20"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="1" t="s">
         <v>248</v>
       </c>
@@ -4116,7 +4506,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="20"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="5" t="s">
         <v>250</v>
       </c>
@@ -4130,7 +4520,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="1"/>
@@ -4144,7 +4534,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="20"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="5" t="s">
         <v>253</v>
       </c>
@@ -4156,7 +4546,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B118" s="1"/>
@@ -4170,7 +4560,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="20"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="5" t="s">
         <v>255</v>
       </c>
@@ -4182,7 +4572,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="20"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="1" t="s">
         <v>256</v>
       </c>
@@ -4194,7 +4584,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="20"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="5" t="s">
         <v>257</v>
       </c>
@@ -4208,7 +4598,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="20"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="1" t="s">
         <v>259</v>
       </c>
@@ -4222,7 +4612,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="1"/>
@@ -4236,7 +4626,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="20"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="1" t="s">
         <v>262</v>
       </c>
@@ -4248,7 +4638,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="20"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="1" t="s">
         <v>256</v>
       </c>
@@ -4262,7 +4652,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="20"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="1" t="s">
         <v>257</v>
       </c>
@@ -4276,7 +4666,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="20"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="1" t="s">
         <v>259</v>
       </c>
@@ -4290,7 +4680,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="20"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="1" t="s">
         <v>266</v>
       </c>
@@ -4304,7 +4694,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="1"/>
@@ -4320,7 +4710,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="14"/>
+      <c r="A130" s="15"/>
       <c r="B130" s="1" t="s">
         <v>270</v>
       </c>
@@ -4334,7 +4724,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
+      <c r="A131" s="15"/>
       <c r="B131" s="1" t="s">
         <v>272</v>
       </c>
@@ -4346,7 +4736,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="14"/>
+      <c r="A132" s="15"/>
       <c r="B132" s="1" t="s">
         <v>125</v>
       </c>
@@ -4358,7 +4748,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="14"/>
+      <c r="A133" s="15"/>
       <c r="B133" s="1" t="s">
         <v>273</v>
       </c>
@@ -4370,7 +4760,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="14"/>
+      <c r="A134" s="15"/>
       <c r="B134" s="1" t="s">
         <v>274</v>
       </c>
@@ -4382,7 +4772,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="14"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="1" t="s">
         <v>275</v>
       </c>
@@ -4394,7 +4784,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="14"/>
+      <c r="A136" s="15"/>
       <c r="B136" s="1" t="s">
         <v>276</v>
       </c>
@@ -4406,7 +4796,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="1" t="s">
         <v>277</v>
       </c>
@@ -4418,7 +4808,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="14"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="1" t="s">
         <v>278</v>
       </c>
@@ -4430,7 +4820,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="15"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="1" t="s">
         <v>279</v>
       </c>
@@ -4442,7 +4832,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="1"/>
@@ -4456,7 +4846,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="18"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="1" t="s">
         <v>281</v>
       </c>
@@ -4468,7 +4858,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="1"/>
@@ -4482,7 +4872,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
+      <c r="A143" s="15"/>
       <c r="B143" s="5" t="s">
         <v>20</v>
       </c>
@@ -4494,7 +4884,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="14"/>
+      <c r="A144" s="15"/>
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -4506,7 +4896,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="14"/>
+      <c r="A145" s="15"/>
       <c r="B145" s="1" t="s">
         <v>22</v>
       </c>
@@ -4518,7 +4908,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="14"/>
+      <c r="A146" s="15"/>
       <c r="B146" s="1" t="s">
         <v>23</v>
       </c>
@@ -4530,7 +4920,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="14"/>
+      <c r="A147" s="15"/>
       <c r="B147" s="1" t="s">
         <v>24</v>
       </c>
@@ -4542,7 +4932,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="14"/>
+      <c r="A148" s="15"/>
       <c r="B148" s="1" t="s">
         <v>25</v>
       </c>
@@ -4554,7 +4944,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="14"/>
+      <c r="A149" s="15"/>
       <c r="B149" s="1" t="s">
         <v>26</v>
       </c>
@@ -4566,7 +4956,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="14"/>
+      <c r="A150" s="15"/>
       <c r="B150" s="1" t="s">
         <v>32</v>
       </c>
@@ -4578,7 +4968,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="14"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="1" t="s">
         <v>33</v>
       </c>
@@ -4590,7 +4980,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="14"/>
+      <c r="A152" s="15"/>
       <c r="B152" s="1" t="s">
         <v>35</v>
       </c>
@@ -4602,7 +4992,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="14"/>
+      <c r="A153" s="15"/>
       <c r="B153" s="1" t="s">
         <v>36</v>
       </c>
@@ -4614,7 +5004,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="15"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4624,7 +5014,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B155" s="1"/>
@@ -4638,7 +5028,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="14"/>
+      <c r="A156" s="15"/>
       <c r="B156" s="1" t="s">
         <v>30</v>
       </c>
@@ -4650,7 +5040,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="14"/>
+      <c r="A157" s="15"/>
       <c r="B157" s="1" t="s">
         <v>37</v>
       </c>
@@ -4662,7 +5052,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="14"/>
+      <c r="A158" s="15"/>
       <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
@@ -4674,7 +5064,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="14"/>
+      <c r="A159" s="15"/>
       <c r="B159" s="1" t="s">
         <v>41</v>
       </c>
@@ -4688,7 +5078,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="14"/>
+      <c r="A160" s="15"/>
       <c r="B160" s="1" t="s">
         <v>39</v>
       </c>
@@ -4702,7 +5092,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="15"/>
+      <c r="A161" s="16"/>
       <c r="B161" s="1" t="s">
         <v>43</v>
       </c>
@@ -4714,7 +5104,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B162" s="1"/>
@@ -4732,7 +5122,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="15"/>
+      <c r="A163" s="16"/>
       <c r="B163" s="1" t="s">
         <v>349</v>
       </c>
@@ -4744,7 +5134,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="18" t="s">
         <v>350</v>
       </c>
       <c r="B164" s="9" t="s">
@@ -4764,7 +5154,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="22"/>
+      <c r="A165" s="19"/>
       <c r="B165" s="9" t="s">
         <v>47</v>
       </c>
@@ -4782,7 +5172,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="22"/>
+      <c r="A166" s="19"/>
       <c r="B166" s="9" t="s">
         <v>300</v>
       </c>
@@ -4800,7 +5190,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="18"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="9" t="s">
         <v>49</v>
       </c>
@@ -4890,7 +5280,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B173" s="1"/>
@@ -4904,7 +5294,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="14"/>
+      <c r="A174" s="15"/>
       <c r="B174" s="1" t="s">
         <v>287</v>
       </c>
@@ -4916,7 +5306,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="14"/>
+      <c r="A175" s="15"/>
       <c r="B175" s="1" t="s">
         <v>288</v>
       </c>
@@ -4928,7 +5318,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="14"/>
+      <c r="A176" s="15"/>
       <c r="B176" s="1" t="s">
         <v>256</v>
       </c>
@@ -4940,7 +5330,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="14"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="1" t="s">
         <v>317</v>
       </c>
@@ -4952,7 +5342,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="15"/>
+      <c r="A178" s="16"/>
       <c r="B178" s="1" t="s">
         <v>318</v>
       </c>
@@ -4964,7 +5354,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B179" s="5"/>
@@ -4978,7 +5368,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="16"/>
+      <c r="A180" s="17"/>
       <c r="B180" s="5" t="s">
         <v>69</v>
       </c>
@@ -4990,7 +5380,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="16"/>
+      <c r="A181" s="17"/>
       <c r="B181" s="5" t="s">
         <v>72</v>
       </c>
@@ -5002,7 +5392,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="16"/>
+      <c r="A182" s="17"/>
       <c r="B182" s="5" t="s">
         <v>176</v>
       </c>
@@ -5014,7 +5404,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="16"/>
+      <c r="A183" s="17"/>
       <c r="B183" s="5" t="s">
         <v>177</v>
       </c>
@@ -5026,7 +5416,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="16"/>
+      <c r="A184" s="17"/>
       <c r="B184" s="5" t="s">
         <v>178</v>
       </c>
@@ -5038,7 +5428,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B185" s="1"/>
@@ -5052,7 +5442,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="14"/>
+      <c r="A186" s="15"/>
       <c r="B186" s="8" t="s">
         <v>60</v>
       </c>
@@ -5066,7 +5456,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="14"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="8" t="s">
         <v>322</v>
       </c>
@@ -5080,7 +5470,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="14"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="8" t="s">
         <v>288</v>
       </c>
@@ -5094,7 +5484,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="14"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="8" t="s">
         <v>325</v>
       </c>
@@ -5108,7 +5498,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="14"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="8" t="s">
         <v>327</v>
       </c>
@@ -5122,7 +5512,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="14"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="8" t="s">
         <v>329</v>
       </c>
@@ -5136,7 +5526,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="14"/>
+      <c r="A192" s="15"/>
       <c r="B192" s="8" t="s">
         <v>331</v>
       </c>
@@ -5150,7 +5540,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="14"/>
+      <c r="A193" s="15"/>
       <c r="B193" s="8" t="s">
         <v>333</v>
       </c>
@@ -5164,7 +5554,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="14"/>
+      <c r="A194" s="15"/>
       <c r="B194" s="8" t="s">
         <v>335</v>
       </c>
@@ -5178,7 +5568,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="15"/>
+      <c r="A195" s="16"/>
       <c r="B195" s="8" t="s">
         <v>337</v>
       </c>
@@ -5192,7 +5582,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="13" t="s">
+      <c r="A196" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B196" s="1"/>
@@ -5206,7 +5596,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="14"/>
+      <c r="A197" s="15"/>
       <c r="B197" s="8" t="s">
         <v>60</v>
       </c>
@@ -5220,7 +5610,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="14"/>
+      <c r="A198" s="15"/>
       <c r="B198" s="8" t="s">
         <v>61</v>
       </c>
@@ -5234,7 +5624,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="14"/>
+      <c r="A199" s="15"/>
       <c r="B199" s="8" t="s">
         <v>288</v>
       </c>
@@ -5248,7 +5638,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="14"/>
+      <c r="A200" s="15"/>
       <c r="B200" s="8" t="s">
         <v>331</v>
       </c>
@@ -5262,7 +5652,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="14"/>
+      <c r="A201" s="15"/>
       <c r="B201" s="8" t="s">
         <v>344</v>
       </c>
@@ -5276,7 +5666,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="14"/>
+      <c r="A202" s="15"/>
       <c r="B202" s="8" t="s">
         <v>346</v>
       </c>
@@ -5290,7 +5680,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="14"/>
+      <c r="A203" s="15"/>
       <c r="B203" s="8" t="s">
         <v>351</v>
       </c>
@@ -5304,7 +5694,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="14"/>
+      <c r="A204" s="15"/>
       <c r="B204" s="8" t="s">
         <v>353</v>
       </c>
@@ -5318,7 +5708,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="14"/>
+      <c r="A205" s="15"/>
       <c r="B205" s="8" t="s">
         <v>355</v>
       </c>
@@ -5332,7 +5722,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="15"/>
+      <c r="A206" s="16"/>
       <c r="B206" s="8" t="s">
         <v>111</v>
       </c>
@@ -5345,14 +5735,1219 @@
         <v>14</v>
       </c>
     </row>
+    <row r="207" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="23"/>
+      <c r="B208" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="23"/>
+      <c r="B209" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="23"/>
+      <c r="B210" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="23"/>
+      <c r="B211" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="23"/>
+      <c r="B212" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="23"/>
+      <c r="B213" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="23"/>
+      <c r="B214" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="23"/>
+      <c r="B215" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="23"/>
+      <c r="B216" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="23"/>
+      <c r="B217" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="23"/>
+      <c r="B218" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="23"/>
+      <c r="B219" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="23"/>
+      <c r="B220" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="23"/>
+      <c r="B221" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="23"/>
+      <c r="B222" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="23"/>
+      <c r="B223" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="23"/>
+      <c r="B224" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="23"/>
+      <c r="B225" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="23"/>
+      <c r="B226" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="23"/>
+      <c r="B227" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="23"/>
+      <c r="B229" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="23"/>
+      <c r="B230" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="23"/>
+      <c r="B231" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="23"/>
+      <c r="B232" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="23"/>
+      <c r="B233" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="23"/>
+      <c r="B234" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="23"/>
+      <c r="B235" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="23"/>
+      <c r="B236" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="23"/>
+      <c r="B237" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="23"/>
+      <c r="B238" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="23"/>
+      <c r="B239" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="23"/>
+      <c r="B240" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="23"/>
+      <c r="B241" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="23"/>
+      <c r="B242" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="23"/>
+      <c r="B243" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="23"/>
+      <c r="B244" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="23"/>
+      <c r="B245" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="23"/>
+      <c r="B246" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="24"/>
+      <c r="B248" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="24"/>
+      <c r="B249" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="24"/>
+      <c r="B250" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="24"/>
+      <c r="B251" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="24"/>
+      <c r="B252" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="24"/>
+      <c r="B253" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="24"/>
+      <c r="B254" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="24"/>
+      <c r="B255" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A256" s="24"/>
+      <c r="B256" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="24"/>
+      <c r="B257" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="23"/>
+      <c r="B259" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="23"/>
+      <c r="B260" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="23"/>
+      <c r="B261" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="23"/>
+      <c r="B262" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="23"/>
+      <c r="B263" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A264" s="23"/>
+      <c r="B264" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="23"/>
+      <c r="B265" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="23"/>
+      <c r="B266" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="23"/>
+      <c r="B267" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A268" s="23"/>
+      <c r="B268" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="23"/>
+      <c r="B269" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="23"/>
+      <c r="B270" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="23"/>
+      <c r="B271" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="23"/>
+      <c r="B272" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="23"/>
+      <c r="B273" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="23"/>
+      <c r="B274" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="23"/>
+      <c r="B275" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="23"/>
+      <c r="B276" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A277" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="23"/>
+      <c r="B278" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="23"/>
+      <c r="B279" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="23"/>
+      <c r="B280" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="23"/>
+      <c r="B281" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="23"/>
+      <c r="B282" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="23"/>
+      <c r="B283" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="23"/>
+      <c r="B284" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="23"/>
+      <c r="B285" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A286" s="23"/>
+      <c r="B286" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A287" s="23"/>
+      <c r="B287" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="23"/>
+      <c r="B288" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="23"/>
+      <c r="B289" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="23"/>
+      <c r="B290" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="23"/>
+      <c r="B291" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="23"/>
+      <c r="B292" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="8">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A185:A195"/>
-    <mergeCell ref="A196:A206"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A167"/>
+  <mergeCells count="29">
+    <mergeCell ref="A258:A276"/>
+    <mergeCell ref="A277:A292"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A207:A227"/>
+    <mergeCell ref="A228:A246"/>
+    <mergeCell ref="A247:A257"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -5369,8 +6964,12 @@
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A185:A195"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>

--- a/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
+++ b/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\grellets\Travail\GitHub\Boreholeie\Vocabulary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ogc\boreholeie\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="503">
   <si>
     <t>Concept</t>
   </si>
@@ -735,16 +735,10 @@
     <t>fr:Productivité du puits</t>
   </si>
   <si>
-    <t>A measure of the volume of groundwater that can be extracted from the bore, in rate expressed as per . Includes information about the measurement of yield.</t>
-  </si>
-  <si>
     <t>Yield</t>
   </si>
   <si>
     <t>Method of determining</t>
-  </si>
-  <si>
-    <t>Could link to a pump test</t>
   </si>
   <si>
     <t>Method, Result,..</t>
@@ -754,9 +748,6 @@
 Strike Water : the water level you observed when you drill the hole
 Rest Water Level : when you come back on the field after it rests a bit.
 Pump Test : is another water level (but under human control)</t>
-  </si>
-  <si>
-    <t>O&amp;M...</t>
   </si>
   <si>
     <t>Pump test</t>
@@ -1517,12 +1508,75 @@
   <si>
     <t>Archiving date of the core box.</t>
   </si>
+  <si>
+    <t>Depth measured along the borehole trajectory.  By convention "from" is the distance closest to the beginning of the borehole. https://en.wikipedia.org/wiki/Depth_in_a_well</t>
+  </si>
+  <si>
+    <t>Depth measured along the borehole trajectory. By convention, "to" is the distance further from the borehole beginning. https://en.wikipedia.org/wiki/Depth_in_a_well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The angle between the vertical projection of a line of interest onto a horizontal surface and true north or magnetic north measured in a horizontal plane, typically measured clockwise from north. </t>
+  </si>
+  <si>
+    <t>https://www.glossary.oilfield.slb.com/en/Terms/a/azimuth.aspx</t>
+  </si>
+  <si>
+    <t>The angle at which a geological body or surface deviates from the horizontal or vertical; often used synonymously with dip.</t>
+  </si>
+  <si>
+    <t>https://encyclopedia2.thefreedictionary.com/inclination</t>
+  </si>
+  <si>
+    <t>synonymous from/to</t>
+  </si>
+  <si>
+    <t>fr: de/à</t>
+  </si>
+  <si>
+    <t>is a reference surface for vertical positions, such as the elevations of Earth features including terrain, bathymetry, water level, and man-made structures.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Geodetic_datum</t>
+  </si>
+  <si>
+    <t>Method used to perform a measurement (a device or procedure) - see O&amp;M procedure (method, algorithm or instrument, or system of these, which may be used in making an observation
+4.13
+observation)</t>
+  </si>
+  <si>
+    <t>OGC 10-004r3</t>
+  </si>
+  <si>
+    <t>A measure of the volume of groundwater (or any fluid) that can be extracted from the bore, in rate expressed as per . Includes information about the measurement of yield.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method used to assess the yield. </t>
+  </si>
+  <si>
+    <t>fr: Méthode de détermination</t>
+  </si>
+  <si>
+    <t>See O&amp;M (OGC 10-004r3)</t>
+  </si>
+  <si>
+    <t>Storativity is the volume of water released from storage per unit decline in hydraulic head in the aquifer, per unit area of the aquifer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+The rate of groundwater flow laterally through an aquifer, determined by hydraulic conductivity and container thickness.</t>
+  </si>
+  <si>
+    <t>OGC 16-032r2</t>
+  </si>
+  <si>
+    <t>Yield is the rate of fluid withdrawal associated with a unit, well, etc. OGC 16-032r2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1545,6 +1599,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1641,7 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1674,16 +1746,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,24 +1779,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1726,7 +1801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1990,17 +2065,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -2041,7 +2116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2152,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2098,7 +2173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2119,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2186,7 +2261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -2234,7 +2309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2255,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -2276,7 +2351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2297,7 +2372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -2318,7 +2393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2339,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2360,7 +2435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2381,7 +2456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2402,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2423,7 +2498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2444,7 +2519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2465,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2528,7 +2603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -2549,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
@@ -2570,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>47</v>
       </c>
@@ -2591,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>48</v>
       </c>
@@ -2612,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -2633,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -2654,7 +2729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2675,7 +2750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,7 +2771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -2717,9 +2792,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2738,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +2836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2782,7 +2857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2803,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -2824,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2845,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -2866,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -2887,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -2908,7 +2983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2926,7 +3001,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2939,21 +3014,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:A163"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="58.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2973,8 +3048,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
@@ -2989,8 +3064,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,8 +3080,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3017,8 +3092,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3031,8 +3106,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -3047,8 +3122,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
@@ -3061,8 +3136,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -3075,8 +3150,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -3089,8 +3164,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3103,8 +3178,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3117,8 +3192,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
@@ -3131,8 +3206,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
@@ -3145,8 +3220,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3159,8 +3234,8 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -3173,8 +3248,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3187,8 +3262,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
@@ -3201,8 +3276,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -3213,8 +3288,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -3225,8 +3300,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
@@ -3237,8 +3312,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
@@ -3249,8 +3324,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
@@ -3261,8 +3336,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
@@ -3273,8 +3348,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3285,8 +3360,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -3297,8 +3372,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3309,8 +3384,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
       <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
@@ -3321,7 +3396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>112</v>
@@ -3333,8 +3408,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
@@ -3345,8 +3420,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3359,8 +3434,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
@@ -3373,8 +3448,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
@@ -3387,8 +3462,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
       <c r="B33" s="5" t="s">
         <v>120</v>
       </c>
@@ -3401,8 +3476,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -3415,8 +3490,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
       <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
@@ -3429,8 +3504,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
@@ -3443,8 +3518,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
       <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
@@ -3457,8 +3532,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
       <c r="B38" s="1" t="s">
         <v>129</v>
       </c>
@@ -3471,8 +3546,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>131</v>
       </c>
@@ -3485,8 +3560,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
       <c r="B40" s="1" t="s">
         <v>133</v>
       </c>
@@ -3499,8 +3574,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
       <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
@@ -3513,8 +3588,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3527,8 +3602,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3541,8 +3616,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3555,8 +3630,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
       <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
@@ -3569,8 +3644,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
       <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
@@ -3583,8 +3658,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
       <c r="B47" s="1" t="s">
         <v>147</v>
       </c>
@@ -3597,8 +3672,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
       <c r="B48" s="1" t="s">
         <v>149</v>
       </c>
@@ -3611,8 +3686,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3625,8 +3700,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
       <c r="B50" s="1" t="s">
         <v>153</v>
       </c>
@@ -3639,8 +3714,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
       <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
@@ -3653,8 +3728,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
       <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
@@ -3667,8 +3742,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3681,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="1" t="s">
         <v>161</v>
@@ -3695,8 +3770,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
@@ -3709,8 +3784,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
       </c>
@@ -3721,43 +3796,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
       <c r="B57" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="F57" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
       <c r="B58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="25" t="s">
+        <v>487</v>
+      </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="F58" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="1" t="s">
         <v>167</v>
@@ -3769,8 +3856,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="5"/>
@@ -3783,8 +3870,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
       <c r="B62" s="5" t="s">
         <v>169</v>
       </c>
@@ -3795,32 +3882,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
       <c r="B63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="26" t="s">
+        <v>491</v>
+      </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="F63" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
       <c r="B64" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>493</v>
+      </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="F64" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
       <c r="B65" s="5" t="s">
         <v>172</v>
       </c>
@@ -3833,24 +3928,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F66" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="5"/>
@@ -3865,8 +3960,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
         <v>185</v>
@@ -3877,32 +3972,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
       <c r="B69" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>483</v>
+      </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
       <c r="B70" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
       <c r="B71" s="5" t="s">
         <v>182</v>
       </c>
@@ -3915,8 +4014,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
       <c r="B72" s="5" t="s">
         <v>186</v>
       </c>
@@ -3929,8 +4028,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
       <c r="B73" s="5" t="s">
         <v>188</v>
       </c>
@@ -3941,8 +4040,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
       <c r="B74" s="5" t="s">
         <v>189</v>
       </c>
@@ -3957,8 +4056,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
+    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
       <c r="B75" s="5" t="s">
         <v>192</v>
       </c>
@@ -3973,8 +4072,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
+    <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
       <c r="B76" s="5" t="s">
         <v>195</v>
       </c>
@@ -3989,8 +4088,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
       <c r="B77" s="5" t="s">
         <v>198</v>
       </c>
@@ -4003,8 +4102,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
       <c r="B78" s="5" t="s">
         <v>200</v>
       </c>
@@ -4019,8 +4118,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
       <c r="B79" s="5" t="s">
         <v>202</v>
       </c>
@@ -4035,8 +4134,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
       <c r="B80" s="5" t="s">
         <v>205</v>
       </c>
@@ -4051,8 +4150,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
       <c r="B81" s="5" t="s">
         <v>208</v>
       </c>
@@ -4067,37 +4166,37 @@
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
-        <v>285</v>
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="5" t="s">
@@ -4109,8 +4208,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
         <v>219</v>
@@ -4123,8 +4222,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+    <row r="86" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
       <c r="B86" s="1"/>
       <c r="C86" s="5" t="s">
         <v>229</v>
@@ -4135,11 +4234,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
       <c r="B87" s="1"/>
       <c r="C87" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4147,11 +4246,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4159,8 +4258,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
       <c r="B89" s="5" t="s">
         <v>180</v>
       </c>
@@ -4171,8 +4270,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
       <c r="B90" s="5" t="s">
         <v>181</v>
       </c>
@@ -4183,8 +4282,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -4195,8 +4294,8 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
       <c r="B92" s="11" t="s">
         <v>218</v>
       </c>
@@ -4209,8 +4308,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
       <c r="B93" s="5" t="s">
         <v>9</v>
       </c>
@@ -4223,8 +4322,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
       <c r="B94" s="5" t="s">
         <v>215</v>
       </c>
@@ -4237,8 +4336,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
       <c r="B95" s="5" t="s">
         <v>216</v>
       </c>
@@ -4249,8 +4348,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
       <c r="B96" s="5" t="s">
         <v>221</v>
       </c>
@@ -4263,8 +4362,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
       <c r="B97" s="5" t="s">
         <v>223</v>
       </c>
@@ -4277,8 +4376,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
       <c r="B98" s="5" t="s">
         <v>225</v>
       </c>
@@ -4291,8 +4390,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
       <c r="B99" s="5" t="s">
         <v>227</v>
       </c>
@@ -4305,12 +4404,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4319,13 +4418,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4333,43 +4432,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="15"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
       <c r="B102" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="15"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
       <c r="B103" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="23" t="s">
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="5" t="s">
-        <v>232</v>
+        <v>495</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>231</v>
@@ -4379,39 +4478,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
       <c r="B106" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
       <c r="B107" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="23" t="s">
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4419,13 +4522,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
       <c r="B109" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>238</v>
+        <v>498</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4433,31 +4536,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="23" t="s">
-        <v>239</v>
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F110" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
       <c r="B111" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4465,67 +4568,77 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
       <c r="B112" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="D112" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
       <c r="B113" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>499</v>
+      </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="F113" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
       <c r="B114" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>500</v>
+      </c>
       <c r="D114" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E114" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="F114" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
       <c r="B115" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="23" t="s">
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4533,10 +4646,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
       <c r="B117" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4545,13 +4658,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="23" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4559,10 +4672,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="23"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
       <c r="B119" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4571,10 +4684,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="23"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
       <c r="B120" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4583,13 +4696,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="23"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
       <c r="B121" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4597,13 +4710,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="23"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
       <c r="B122" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4611,13 +4724,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="23" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4625,10 +4738,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="23"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
       <c r="B124" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4637,13 +4750,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="23"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
       <c r="B125" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4651,13 +4764,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
       <c r="B126" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4665,13 +4778,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="23"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
       <c r="B127" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4679,13 +4792,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="23"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
       <c r="B128" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4693,29 +4806,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="14" t="s">
+    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F129" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="15"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="18"/>
       <c r="B130" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4723,10 +4836,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="15"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
       <c r="B131" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4735,8 +4848,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="15"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="18"/>
       <c r="B132" s="1" t="s">
         <v>125</v>
       </c>
@@ -4747,10 +4860,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="15"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
       <c r="B133" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4759,10 +4872,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="15"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="18"/>
       <c r="B134" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4771,10 +4884,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="15"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="18"/>
       <c r="B135" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4783,10 +4896,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="15"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="18"/>
       <c r="B136" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4795,10 +4908,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="15"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
       <c r="B137" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4807,10 +4920,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="15"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
       <c r="B138" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4819,10 +4932,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4831,13 +4944,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="22" t="s">
+    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4845,10 +4958,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="20"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="22"/>
       <c r="B141" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4857,8 +4970,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="14" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="1"/>
@@ -4871,8 +4984,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="15"/>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
       <c r="B143" s="5" t="s">
         <v>20</v>
       </c>
@@ -4883,8 +4996,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="15"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -4895,8 +5008,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="15"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
       <c r="B145" s="1" t="s">
         <v>22</v>
       </c>
@@ -4907,8 +5020,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="15"/>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
       <c r="B146" s="1" t="s">
         <v>23</v>
       </c>
@@ -4919,8 +5032,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="15"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
       <c r="B147" s="1" t="s">
         <v>24</v>
       </c>
@@ -4931,8 +5044,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="15"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
       <c r="B148" s="1" t="s">
         <v>25</v>
       </c>
@@ -4943,8 +5056,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="15"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
       <c r="B149" s="1" t="s">
         <v>26</v>
       </c>
@@ -4955,8 +5068,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="15"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
       <c r="B150" s="1" t="s">
         <v>32</v>
       </c>
@@ -4967,8 +5080,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="15"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
       <c r="B151" s="1" t="s">
         <v>33</v>
       </c>
@@ -4979,8 +5092,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="15"/>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
       <c r="B152" s="1" t="s">
         <v>35</v>
       </c>
@@ -4991,8 +5104,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="15"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
       <c r="B153" s="1" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +5116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5013,8 +5126,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="14" t="s">
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B155" s="1"/>
@@ -5027,8 +5140,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="15"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="18"/>
       <c r="B156" s="1" t="s">
         <v>30</v>
       </c>
@@ -5039,8 +5152,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="15"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="18"/>
       <c r="B157" s="1" t="s">
         <v>37</v>
       </c>
@@ -5051,8 +5164,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="15"/>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="18"/>
       <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
@@ -5063,8 +5176,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="15"/>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="18"/>
       <c r="B159" s="1" t="s">
         <v>41</v>
       </c>
@@ -5077,8 +5190,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="15"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
       <c r="B160" s="1" t="s">
         <v>39</v>
       </c>
@@ -5091,7 +5204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="1" t="s">
         <v>43</v>
@@ -5103,28 +5216,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A162" s="14" t="s">
+    <row r="162" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F162" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5133,103 +5246,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="18" t="s">
-        <v>350</v>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F164" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="19"/>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="24"/>
       <c r="B165" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F165" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="19"/>
+    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A166" s="24"/>
       <c r="B166" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F166" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="20"/>
+    <row r="167" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="22"/>
       <c r="B167" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="F167" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F168" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5237,13 +5350,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5251,13 +5364,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5265,13 +5378,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5279,13 +5392,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="14" t="s">
-        <v>315</v>
+    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5293,10 +5406,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="15"/>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="18"/>
       <c r="B174" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5305,10 +5418,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="15"/>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="18"/>
       <c r="B175" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5317,10 +5430,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="15"/>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="18"/>
       <c r="B176" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5329,10 +5442,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="15"/>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="18"/>
       <c r="B177" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5341,10 +5454,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="16"/>
       <c r="B178" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5353,8 +5466,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="17" t="s">
+    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B179" s="5"/>
@@ -5367,8 +5480,8 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="17"/>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="20"/>
       <c r="B180" s="5" t="s">
         <v>69</v>
       </c>
@@ -5379,8 +5492,8 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="17"/>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="20"/>
       <c r="B181" s="5" t="s">
         <v>72</v>
       </c>
@@ -5391,8 +5504,8 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="17"/>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
       <c r="B182" s="5" t="s">
         <v>176</v>
       </c>
@@ -5403,8 +5516,8 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="17"/>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="20"/>
       <c r="B183" s="5" t="s">
         <v>177</v>
       </c>
@@ -5415,8 +5528,8 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="17"/>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="20"/>
       <c r="B184" s="5" t="s">
         <v>178</v>
       </c>
@@ -5427,13 +5540,13 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A185" s="14" t="s">
+    <row r="185" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5441,13 +5554,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="15"/>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="18"/>
       <c r="B186" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5455,13 +5568,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="15"/>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="18"/>
       <c r="B187" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5469,13 +5582,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="15"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="18"/>
       <c r="B188" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5483,13 +5596,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="15"/>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="18"/>
       <c r="B189" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5497,13 +5610,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="15"/>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="18"/>
       <c r="B190" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5511,13 +5624,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="15"/>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="18"/>
       <c r="B191" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5525,13 +5638,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="15"/>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="18"/>
       <c r="B192" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5539,13 +5652,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="15"/>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="18"/>
       <c r="B193" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5553,13 +5666,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="15"/>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="18"/>
       <c r="B194" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5567,13 +5680,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5581,13 +5694,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="14" t="s">
+    <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5595,13 +5708,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="15"/>
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="18"/>
       <c r="B197" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5609,13 +5722,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="15"/>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="18"/>
       <c r="B198" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5623,13 +5736,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="15"/>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="18"/>
       <c r="B199" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5637,13 +5750,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="15"/>
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="18"/>
       <c r="B200" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5651,13 +5764,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="15"/>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
       <c r="B201" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5665,13 +5778,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="15"/>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="18"/>
       <c r="B202" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5679,13 +5792,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="15"/>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="18"/>
       <c r="B203" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5693,13 +5806,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="15"/>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="18"/>
       <c r="B204" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5707,13 +5820,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="15"/>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="18"/>
       <c r="B205" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5721,13 +5834,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="16"/>
       <c r="B206" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5735,13 +5848,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="23" t="s">
+    <row r="207" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A207" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5749,13 +5862,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="23"/>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="14"/>
       <c r="B208" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5763,13 +5876,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="23"/>
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="14"/>
       <c r="B209" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5777,13 +5890,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="23"/>
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="14"/>
       <c r="B210" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5791,13 +5904,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="23"/>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="14"/>
       <c r="B211" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5805,13 +5918,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="23"/>
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="14"/>
       <c r="B212" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5819,13 +5932,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="23"/>
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="14"/>
       <c r="B213" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5833,13 +5946,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="23"/>
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="14"/>
       <c r="B214" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5847,13 +5960,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="23"/>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="14"/>
       <c r="B215" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5861,13 +5974,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="23"/>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="14"/>
       <c r="B216" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5875,13 +5988,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="23"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="14"/>
       <c r="B217" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5889,13 +6002,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="23"/>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="14"/>
       <c r="B218" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5903,13 +6016,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="23"/>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="14"/>
       <c r="B219" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5917,13 +6030,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="23"/>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="14"/>
       <c r="B220" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5931,13 +6044,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="23"/>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="14"/>
       <c r="B221" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5945,13 +6058,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="23"/>
+    <row r="222" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="14"/>
       <c r="B222" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5959,13 +6072,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="23"/>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="14"/>
       <c r="B223" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -5973,13 +6086,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="23"/>
+    <row r="224" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="14"/>
       <c r="B224" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -5987,13 +6100,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="23"/>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="14"/>
       <c r="B225" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6001,13 +6114,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="23"/>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="14"/>
       <c r="B226" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6015,13 +6128,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="23"/>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="14"/>
       <c r="B227" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6029,13 +6142,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="23" t="s">
+    <row r="228" spans="1:6" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6043,13 +6156,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="23"/>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="14"/>
       <c r="B229" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6057,13 +6170,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="23"/>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="14"/>
       <c r="B230" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6071,13 +6184,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="23"/>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="14"/>
       <c r="B231" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6085,13 +6198,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="23"/>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="14"/>
       <c r="B232" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6099,13 +6212,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="23"/>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="14"/>
       <c r="B233" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6113,13 +6226,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="23"/>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="14"/>
       <c r="B234" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6127,13 +6240,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="23"/>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="14"/>
       <c r="B235" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6141,13 +6254,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="23"/>
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="14"/>
       <c r="B236" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6155,13 +6268,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="23"/>
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="14"/>
       <c r="B237" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6169,13 +6282,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="23"/>
+    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="14"/>
       <c r="B238" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6183,13 +6296,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="23"/>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="14"/>
       <c r="B239" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6197,13 +6310,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="23"/>
+    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="14"/>
       <c r="B240" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6211,13 +6324,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="23"/>
+    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="14"/>
       <c r="B241" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6225,13 +6338,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="23"/>
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
       <c r="B242" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6239,13 +6352,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="23"/>
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="14"/>
       <c r="B243" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6253,13 +6366,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="23"/>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
       <c r="B244" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6267,13 +6380,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="23"/>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
       <c r="B245" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6281,13 +6394,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="23"/>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="14"/>
       <c r="B246" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6295,13 +6408,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="24" t="s">
+    <row r="247" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A247" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6309,13 +6422,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="24"/>
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="17"/>
       <c r="B248" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6323,13 +6436,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="24"/>
+    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="17"/>
       <c r="B249" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6337,13 +6450,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="24"/>
+    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="17"/>
       <c r="B250" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6351,13 +6464,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="24"/>
+    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="17"/>
       <c r="B251" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6365,13 +6478,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="24"/>
+    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="17"/>
       <c r="B252" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6379,13 +6492,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="24"/>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="17"/>
       <c r="B253" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6393,13 +6506,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="24"/>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="17"/>
       <c r="B254" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6407,13 +6520,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="24"/>
+    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="17"/>
       <c r="B255" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6421,13 +6534,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="24"/>
+    <row r="256" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="17"/>
       <c r="B256" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6435,13 +6548,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="24"/>
+    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="17"/>
       <c r="B257" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6449,13 +6562,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A258" s="23" t="s">
+    <row r="258" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6463,13 +6576,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A259" s="23"/>
+    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="14"/>
       <c r="B259" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6477,13 +6590,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="23"/>
+    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="14"/>
       <c r="B260" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6491,13 +6604,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="23"/>
+    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="14"/>
       <c r="B261" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6505,13 +6618,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="23"/>
+    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="14"/>
       <c r="B262" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6519,13 +6632,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="23"/>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="14"/>
       <c r="B263" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6533,13 +6646,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="23"/>
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="14"/>
       <c r="B264" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6547,13 +6660,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="23"/>
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="14"/>
       <c r="B265" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6561,13 +6674,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="23"/>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="14"/>
       <c r="B266" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6575,13 +6688,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="23"/>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="14"/>
       <c r="B267" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6589,13 +6702,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A268" s="23"/>
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="14"/>
       <c r="B268" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6603,13 +6716,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="23"/>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="14"/>
       <c r="B269" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6617,13 +6730,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="23"/>
+    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="14"/>
       <c r="B270" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -6631,13 +6744,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="23"/>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="14"/>
       <c r="B271" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -6645,13 +6758,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="23"/>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="14"/>
       <c r="B272" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -6659,13 +6772,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="23"/>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="14"/>
       <c r="B273" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -6673,13 +6786,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="23"/>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="14"/>
       <c r="B274" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -6687,13 +6800,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="23"/>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="14"/>
       <c r="B275" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -6701,13 +6814,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="23"/>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="14"/>
       <c r="B276" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -6715,13 +6828,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="23" t="s">
+    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B277" s="1"/>
       <c r="C277" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -6729,13 +6842,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="23"/>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="14"/>
       <c r="B278" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -6743,13 +6856,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="23"/>
+    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="14"/>
       <c r="B279" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -6757,13 +6870,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A280" s="23"/>
+    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="14"/>
       <c r="B280" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -6771,13 +6884,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="23"/>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="14"/>
       <c r="B281" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -6785,13 +6898,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="23"/>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="14"/>
       <c r="B282" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -6799,13 +6912,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="23"/>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="14"/>
       <c r="B283" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -6813,13 +6926,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="23"/>
+    <row r="284" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A284" s="14"/>
       <c r="B284" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -6827,13 +6940,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="23"/>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="14"/>
       <c r="B285" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -6841,13 +6954,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="23"/>
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="14"/>
       <c r="B286" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -6855,13 +6968,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="23"/>
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="14"/>
       <c r="B287" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -6869,13 +6982,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="23"/>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="14"/>
       <c r="B288" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -6883,13 +6996,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="23"/>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="14"/>
       <c r="B289" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -6897,13 +7010,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="23"/>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="14"/>
       <c r="B290" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -6911,13 +7024,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="23"/>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="14"/>
       <c r="B291" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -6925,13 +7038,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="23"/>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="14"/>
       <c r="B292" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -6941,13 +7054,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A258:A276"/>
-    <mergeCell ref="A277:A292"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A207:A227"/>
-    <mergeCell ref="A228:A246"/>
-    <mergeCell ref="A247:A257"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -6964,6 +7070,13 @@
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A258:A276"/>
+    <mergeCell ref="A277:A292"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A207:A227"/>
+    <mergeCell ref="A228:A246"/>
+    <mergeCell ref="A247:A257"/>
     <mergeCell ref="A185:A195"/>
     <mergeCell ref="A196:A206"/>
     <mergeCell ref="A173:A178"/>

--- a/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
+++ b/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ogc\boreholeie\Vocabulary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\grellets\Travail\GitHub\Boreholeie\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Entities" sheetId="1" r:id="rId1"/>
-    <sheet name="Entities_details" sheetId="2" r:id="rId2"/>
+    <sheet name="Spreadsheet_Metadata" sheetId="3" r:id="rId1"/>
+    <sheet name="Entities" sheetId="1" r:id="rId2"/>
+    <sheet name="Entities_details" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="534">
   <si>
     <t>Concept</t>
   </si>
@@ -1570,6 +1571,104 @@
   </si>
   <si>
     <t>Yield is the rate of fluid withdrawal associated with a unit, well, etc. OGC 16-032r2</t>
+  </si>
+  <si>
+    <t>Encoding/Serialization</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>BoreholeCollar ?</t>
+  </si>
+  <si>
+    <t>VS BhML revision:6 concepts</t>
+  </si>
+  <si>
+    <t>Difference with reference Z ?</t>
+  </si>
+  <si>
+    <t>BoreholeCollar:collarLocation</t>
+  </si>
+  <si>
+    <t>latest update</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>Sylvain Grellet</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>light orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BhML rev:6 (EPOS) rationale on logs is the following so far:
+- GeologyLog / LogResult / LogResultElement for discrete logs (where we can identify intervals) building on GWML2 (logical model)
+- for continuous observations or 'outOfBand' situations (large, binary files) the idea is to have an 'OutOfBandResult' type of result </t>
+  </si>
+  <si>
+    <t>Already discussed in GWML2 : Easily done using O&amp;M -&gt; just need an instance diagram to explain the how-to + a signature class
+But : this sentence is at logical level …</t>
+  </si>
+  <si>
+    <t>Building on 'Pump Test' solution in GWML2 we could do the same (already done withni BRGM)
+But : same but as for Pump Test, this is a logical level answer</t>
+  </si>
+  <si>
+    <t>via MonitoringFacility/hasObservation</t>
+  </si>
+  <si>
+    <t>via MonitoringFacility/hasObservation or through BoreholeGeoresource ?</t>
+  </si>
+  <si>
+    <t>&lt;&lt;draft&gt;&gt; Construction in BhML : in EPOS we build on GWML2 at the logical level but we don't have conceptual model on this in GWML2 (just logical as) -&gt; generate this VS having a generic approach
+What parts of construction are "universal". What part are domain specific. Maybe the BhML part is totally abstract ("BhConstructionElement" that have a position in the hole and that's it)</t>
+  </si>
+  <si>
+    <t>see Borehole_AdminUnit class diagram</t>
+  </si>
+  <si>
+    <t>BoreholeGeoresource and Licence class</t>
+  </si>
+  <si>
+    <t>Sample/relatedObservation</t>
+  </si>
+  <si>
+    <t>misses Borehole/relatedObservation (eventhough we have it at the logical level in EPOS specializing from SF_SamplingFeature)</t>
+  </si>
+  <si>
+    <t>"Positionning along a borehole" toolbox see 'Entities_details' tab</t>
+  </si>
+  <si>
+    <t>Borehole/boreholeShape</t>
+  </si>
+  <si>
+    <t>outerRim of BhML, more a reuse of standardized description of Borehole Logs</t>
+  </si>
+  <si>
+    <t>? O&amp;M on core (on Sample ?) or also on other features (Borehole) ?</t>
+  </si>
+  <si>
+    <t>DrillingCampaign and DrillingOperation</t>
+  </si>
+  <si>
+    <t>misses from the model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Core run VS BhML:Segment ?</t>
+  </si>
+  <si>
+    <t>20190319-1130</t>
+  </si>
+  <si>
+    <t>BhML:Sample</t>
+  </si>
+  <si>
+    <t>BhML:Sample as well with recursive link ?</t>
   </si>
 </sst>
 </file>
@@ -1634,12 +1733,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1660,15 +1759,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1713,7 +1803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1722,14 +1812,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,20 +1832,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1767,24 +1850,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1801,7 +1939,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2063,96 +2201,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="13" max="13" width="44.33203125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="38">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="38">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="38">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="38">
         <v>5</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="38">
         <v>6</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="38">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3">
+      <c r="I1" s="38">
+        <v>8</v>
+      </c>
+      <c r="J1" s="38">
         <v>11</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="38">
         <v>13</v>
       </c>
-      <c r="L1" s="3">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="38">
+        <v>14</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2169,11 +2357,14 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2190,11 +2381,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2211,11 +2405,14 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2232,11 +2429,14 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2257,11 +2457,14 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2278,122 +2481,132 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="M8" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2410,11 +2623,14 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2431,11 +2647,14 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2452,11 +2671,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2473,11 +2695,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2494,11 +2719,14 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2515,11 +2743,14 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2536,11 +2767,14 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2557,11 +2791,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="42"/>
+      <c r="N21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2578,11 +2813,14 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2590,20 +2828,21 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -2620,95 +2859,104 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="M24" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -2725,11 +2973,14 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2746,11 +2997,12 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="44"/>
+      <c r="N30" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2767,11 +3019,12 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="44"/>
+      <c r="N31" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -2788,11 +3041,12 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="45"/>
+      <c r="N32" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>312</v>
       </c>
@@ -2809,76 +3063,86 @@
         <v>8</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="M33" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="45"/>
+      <c r="N35" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -2895,11 +3159,14 @@
       <c r="L37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2916,11 +3183,14 @@
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -2937,11 +3207,12 @@
       <c r="L39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="45"/>
+      <c r="N39" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -2958,11 +3229,14 @@
       <c r="L40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -2979,11 +3253,14 @@
       <c r="L41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3000,35 +3277,44 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="2"/>
+      <c r="N42" s="6" t="s">
         <v>355</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="M34:M35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3048,24 +3334,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -3073,15 +3359,15 @@
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3092,8 +3378,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3106,8 +3392,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -3115,29 +3401,29 @@
         <v>82</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -3150,8 +3436,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -3164,8 +3450,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3178,22 +3464,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
@@ -3206,8 +3492,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
@@ -3220,8 +3506,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3234,8 +3520,8 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -3248,8 +3534,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3262,8 +3548,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
@@ -3276,8 +3562,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -3288,8 +3574,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -3300,8 +3586,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
@@ -3312,8 +3598,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
@@ -3324,8 +3610,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
@@ -3336,8 +3622,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
@@ -3348,8 +3634,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3360,8 +3646,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -3372,8 +3658,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
       <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3384,8 +3670,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
       <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
@@ -3396,8 +3682,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
@@ -3408,20 +3694,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3434,8 +3720,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
@@ -3448,36 +3734,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -3490,8 +3776,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
@@ -3504,8 +3790,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
       <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
@@ -3518,8 +3804,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
       <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
@@ -3532,8 +3818,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
         <v>129</v>
       </c>
@@ -3546,8 +3832,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
       <c r="B39" s="1" t="s">
         <v>131</v>
       </c>
@@ -3560,8 +3846,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
         <v>133</v>
       </c>
@@ -3574,8 +3860,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
@@ -3588,8 +3874,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3602,8 +3888,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3616,8 +3902,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3630,22 +3916,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
       <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
       <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
@@ -3658,8 +3944,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
       <c r="B47" s="1" t="s">
         <v>147</v>
       </c>
@@ -3672,8 +3958,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
       <c r="B48" s="1" t="s">
         <v>149</v>
       </c>
@@ -3686,8 +3972,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3700,8 +3986,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
         <v>153</v>
       </c>
@@ -3714,8 +4000,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
@@ -3728,8 +4014,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
@@ -3742,8 +4028,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3756,12 +4042,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+    <row r="54" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
       <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D54" s="1"/>
@@ -3770,34 +4056,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
       <c r="B57" s="1" t="s">
         <v>164</v>
       </c>
@@ -3808,28 +4094,28 @@
       <c r="E57" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
       <c r="B58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="16"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
       </c>
@@ -3840,477 +4126,477 @@
         <v>490</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
       <c r="B60" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="8">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="8">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="18"/>
+      <c r="B63" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="5" t="s">
+    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="8">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="8">
+      <c r="E67" s="4"/>
+      <c r="F67" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
+    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="19"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="8">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="8">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="5" t="s">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="8">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="8">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="8">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="5" t="s">
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="5" t="s">
+    <row r="76" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="8">
+      <c r="E76" s="4"/>
+      <c r="F76" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="8">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="8">
+      <c r="E78" s="4"/>
+      <c r="F78" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="5" t="s">
+    <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="8">
+      <c r="E79" s="4"/>
+      <c r="F79" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="5" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="4"/>
+      <c r="F80" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="5" t="s">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="4"/>
+      <c r="F81" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="8">
+      <c r="E82" s="4"/>
+      <c r="F82" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="5" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="17"/>
+      <c r="B83" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="22" t="s">
         <v>282</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="8">
+      <c r="F84" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+    <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="8">
+      <c r="F86" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="8">
+      <c r="F87" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>281</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="8">
+      <c r="F88" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="5" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
+      <c r="B89" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="8">
+      <c r="F89" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="5" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+      <c r="B90" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="8">
+      <c r="F90" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="5" t="s">
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="B91" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="8">
+      <c r="F91" s="7">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="11" t="s">
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="B92" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="5" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -4318,13 +4604,13 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="8">
+      <c r="F93" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="5" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="22"/>
+      <c r="B94" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -4332,25 +4618,25 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="8">
+      <c r="F94" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="5" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="22"/>
+      <c r="B95" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="8">
+      <c r="F95" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="5" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="22"/>
+      <c r="B96" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -4358,13 +4644,13 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="8">
+      <c r="F96" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="5" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="22"/>
+      <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -4372,13 +4658,13 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="8">
+      <c r="F97" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="5" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="22"/>
+      <c r="B98" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4386,13 +4672,13 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="8">
+      <c r="F98" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="5" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="22"/>
+      <c r="B99" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -4400,87 +4686,87 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="8">
+      <c r="F99" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+    <row r="100" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="8">
+      <c r="F100" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B101" s="5"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="1" t="s">
         <v>283</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="8">
+      <c r="F101" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="5" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="16"/>
+      <c r="B102" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="5" t="s">
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="16"/>
+      <c r="B103" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="5" t="s">
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="17"/>
+      <c r="B104" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="8"/>
-    </row>
-    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="4" t="s">
         <v>495</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="8">
+      <c r="F105" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="5" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="22"/>
+      <c r="B106" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -4488,13 +4774,13 @@
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="8">
+      <c r="F106" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="5" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="22"/>
+      <c r="B107" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -4504,27 +4790,27 @@
         <v>497</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="8">
+      <c r="F107" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+    <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="8">
+      <c r="F108" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="5" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="22"/>
+      <c r="B109" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -4532,44 +4818,44 @@
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="8">
+      <c r="F109" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="22" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F110" s="8">
+      <c r="F110" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="5" t="s">
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
+      <c r="B111" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="8">
+      <c r="F111" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
       <c r="B112" s="1" t="s">
         <v>242</v>
       </c>
@@ -4580,32 +4866,32 @@
         <v>243</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="8">
+      <c r="F112" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="5" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
+      <c r="B113" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="14" t="s">
         <v>499</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F113" s="8">
+      <c r="F113" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
+    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="22"/>
       <c r="B114" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>500</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -4614,13 +4900,13 @@
       <c r="E114" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="5" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="22"/>
+      <c r="B115" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C115" s="1"/>
@@ -4628,38 +4914,38 @@
         <v>248</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="8">
+      <c r="F115" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>249</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="8">
+      <c r="F116" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="5" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="22"/>
+      <c r="B117" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="8">
+      <c r="F117" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B118" s="1"/>
@@ -4668,37 +4954,37 @@
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="8">
+      <c r="F118" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="5" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="22"/>
+      <c r="B119" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="8">
+      <c r="F119" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="22"/>
       <c r="B120" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="8">
+      <c r="F120" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="5" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
+      <c r="B121" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -4706,12 +4992,12 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="8">
+      <c r="F121" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="22"/>
       <c r="B122" s="1" t="s">
         <v>256</v>
       </c>
@@ -4720,12 +5006,12 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="8">
+      <c r="F122" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="1"/>
@@ -4734,24 +5020,24 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="8">
+      <c r="F123" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="22"/>
       <c r="B124" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="8">
+      <c r="F124" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="22"/>
       <c r="B125" s="1" t="s">
         <v>253</v>
       </c>
@@ -4760,12 +5046,12 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="8">
+      <c r="F125" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="22"/>
       <c r="B126" s="1" t="s">
         <v>254</v>
       </c>
@@ -4774,12 +5060,12 @@
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="8">
+      <c r="F126" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="22"/>
       <c r="B127" s="1" t="s">
         <v>256</v>
       </c>
@@ -4788,12 +5074,12 @@
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="8">
+      <c r="F127" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="22"/>
       <c r="B128" s="1" t="s">
         <v>263</v>
       </c>
@@ -4802,202 +5088,202 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="8">
+      <c r="F128" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F129" s="8">
+      <c r="F129" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="18"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="16"/>
       <c r="B130" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="8" t="s">
         <v>268</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="8">
+      <c r="F130" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="18"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="16"/>
       <c r="B131" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="8">
+      <c r="F131" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="16"/>
       <c r="B132" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="8">
+      <c r="F132" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="16"/>
       <c r="B133" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="8">
+      <c r="F133" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="16"/>
       <c r="B134" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="8">
+      <c r="F134" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="16"/>
       <c r="B135" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="8">
+      <c r="F135" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="16"/>
       <c r="B136" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="8">
+      <c r="F136" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="16"/>
       <c r="B137" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="8">
+      <c r="F137" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="16"/>
       <c r="B138" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="8">
+      <c r="F138" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="17"/>
       <c r="B139" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="8">
+      <c r="F139" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
+    <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="8">
+      <c r="F140" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="21"/>
       <c r="B141" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="8">
+      <c r="F141" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
       <c r="F142" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
-      <c r="B143" s="5" t="s">
+    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="16"/>
+      <c r="B143" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
       <c r="F143" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="16"/>
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -5008,8 +5294,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="16"/>
       <c r="B145" s="1" t="s">
         <v>22</v>
       </c>
@@ -5020,8 +5306,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="16"/>
       <c r="B146" s="1" t="s">
         <v>23</v>
       </c>
@@ -5032,8 +5318,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="16"/>
       <c r="B147" s="1" t="s">
         <v>24</v>
       </c>
@@ -5044,8 +5330,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="16"/>
       <c r="B148" s="1" t="s">
         <v>25</v>
       </c>
@@ -5056,8 +5342,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="16"/>
       <c r="B149" s="1" t="s">
         <v>26</v>
       </c>
@@ -5068,8 +5354,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="16"/>
       <c r="B150" s="1" t="s">
         <v>32</v>
       </c>
@@ -5080,8 +5366,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="16"/>
       <c r="B151" s="1" t="s">
         <v>33</v>
       </c>
@@ -5092,8 +5378,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="16"/>
       <c r="B152" s="1" t="s">
         <v>35</v>
       </c>
@@ -5104,8 +5390,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="16"/>
       <c r="B153" s="1" t="s">
         <v>36</v>
       </c>
@@ -5116,8 +5402,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="17"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5126,22 +5412,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
       <c r="F155" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="16"/>
       <c r="B156" s="1" t="s">
         <v>30</v>
       </c>
@@ -5152,8 +5438,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="16"/>
       <c r="B157" s="1" t="s">
         <v>37</v>
       </c>
@@ -5164,8 +5450,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="16"/>
       <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
@@ -5176,8 +5462,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="16"/>
       <c r="B159" s="1" t="s">
         <v>41</v>
       </c>
@@ -5190,8 +5476,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="16"/>
       <c r="B160" s="1" t="s">
         <v>39</v>
       </c>
@@ -5204,8 +5490,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="17"/>
       <c r="B161" s="1" t="s">
         <v>43</v>
       </c>
@@ -5216,44 +5502,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B162" s="1"/>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F162" s="9">
+      <c r="F162" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="17"/>
       <c r="B163" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="9">
+      <c r="F163" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="23" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -5262,16 +5548,16 @@
       <c r="E164" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F164" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="24"/>
-      <c r="B165" s="9" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="25"/>
+      <c r="B165" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="8" t="s">
         <v>296</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -5280,16 +5566,16 @@
       <c r="E165" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F165" s="9">
+      <c r="F165" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A166" s="24"/>
-      <c r="B166" s="9" t="s">
+    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="25"/>
+      <c r="B166" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -5298,16 +5584,16 @@
       <c r="E166" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F166" s="9">
+      <c r="F166" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A167" s="22"/>
-      <c r="B167" s="9" t="s">
+    <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="21"/>
+      <c r="B167" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -5316,247 +5602,247 @@
       <c r="E167" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F167" s="9">
+      <c r="F167" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
+    <row r="168" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B168" s="1"/>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D168" s="1"/>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F168" s="9">
+      <c r="F168" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B169" s="1"/>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>306</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="9">
+      <c r="F169" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
+    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B170" s="1"/>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="9">
+      <c r="F170" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="11"/>
       <c r="B171" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="9">
+      <c r="F171" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="s">
         <v>310</v>
       </c>
       <c r="B172" s="1"/>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="9">
+      <c r="F172" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>312</v>
       </c>
       <c r="B173" s="1"/>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>313</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="9">
+      <c r="F173" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="18"/>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="16"/>
       <c r="B174" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="9">
+      <c r="F174" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="18"/>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="16"/>
       <c r="B175" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="9">
+      <c r="F175" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="16"/>
       <c r="B176" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="9">
+      <c r="F176" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="16"/>
       <c r="B177" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="9">
+      <c r="F177" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="17"/>
       <c r="B178" s="1" t="s">
         <v>315</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="9">
+      <c r="F178" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="20" t="s">
+    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5" t="s">
+      <c r="B179" s="4"/>
+      <c r="C179" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="8">
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="7">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
-      <c r="B180" s="5" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="19"/>
+      <c r="B180" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="8">
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="7">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
-      <c r="B181" s="5" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="19"/>
+      <c r="B181" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="8">
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="7">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-      <c r="B182" s="5" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="19"/>
+      <c r="B182" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="8">
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="7">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
-      <c r="B183" s="5" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="19"/>
+      <c r="B183" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="8">
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="7">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
-      <c r="B184" s="5" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="19"/>
+      <c r="B184" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="8">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="7">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B185" s="1"/>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="18"/>
-      <c r="B186" s="8" t="s">
+      <c r="F185" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="16"/>
+      <c r="B186" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -5564,13 +5850,13 @@
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="18"/>
-      <c r="B187" s="8" t="s">
+      <c r="F186" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="16"/>
+      <c r="B187" s="7" t="s">
         <v>319</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -5578,1482 +5864,1495 @@
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="18"/>
-      <c r="B188" s="8" t="s">
+      <c r="F187" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="16"/>
+      <c r="B188" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="18"/>
-      <c r="B189" s="8" t="s">
+      <c r="F188" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="16"/>
+      <c r="B189" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="7" t="s">
         <v>323</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
-      <c r="B190" s="8" t="s">
+      <c r="F189" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="16"/>
+      <c r="B190" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="7" t="s">
         <v>325</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="18"/>
-      <c r="B191" s="8" t="s">
+      <c r="F190" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="16"/>
+      <c r="B191" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="7" t="s">
         <v>327</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
-      <c r="B192" s="8" t="s">
+      <c r="F191" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="16"/>
+      <c r="B192" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="18"/>
-      <c r="B193" s="8" t="s">
+      <c r="F192" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="16"/>
+      <c r="B193" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>331</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="18"/>
-      <c r="B194" s="8" t="s">
+      <c r="F193" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="16"/>
+      <c r="B194" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
-      <c r="B195" s="8" t="s">
+      <c r="F194" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="17"/>
+      <c r="B195" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>335</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F195" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B196" s="1"/>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="18"/>
-      <c r="B197" s="8" t="s">
+      <c r="F196" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="16"/>
+      <c r="B197" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="4" t="s">
         <v>337</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="18"/>
-      <c r="B198" s="8" t="s">
+      <c r="F197" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="16"/>
+      <c r="B198" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="18"/>
-      <c r="B199" s="8" t="s">
+      <c r="F198" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="16"/>
+      <c r="B199" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
-      <c r="B200" s="8" t="s">
+      <c r="F199" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="16"/>
+      <c r="B200" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="18"/>
-      <c r="B201" s="8" t="s">
+      <c r="F200" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="16"/>
+      <c r="B201" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="18"/>
-      <c r="B202" s="8" t="s">
+      <c r="F201" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="16"/>
+      <c r="B202" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="18"/>
-      <c r="B203" s="8" t="s">
+      <c r="F202" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="16"/>
+      <c r="B203" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="18"/>
-      <c r="B204" s="8" t="s">
+      <c r="F203" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="16"/>
+      <c r="B204" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="18"/>
-      <c r="B205" s="8" t="s">
+      <c r="F204" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="16"/>
+      <c r="B205" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="16"/>
-      <c r="B206" s="8" t="s">
+      <c r="F205" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="17"/>
+      <c r="B206" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A207" s="14" t="s">
+      <c r="F206" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
-      <c r="B208" s="8" t="s">
+      <c r="F207" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="22"/>
+      <c r="B208" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="7" t="s">
         <v>357</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
-      <c r="B209" s="8" t="s">
+      <c r="F208" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="22"/>
+      <c r="B209" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>358</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
-      <c r="B210" s="8" t="s">
+      <c r="F209" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="22"/>
+      <c r="B210" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
-      <c r="B211" s="8" t="s">
+      <c r="F210" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="22"/>
+      <c r="B211" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="7" t="s">
         <v>362</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
-      <c r="B212" s="8" t="s">
+      <c r="F211" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="22"/>
+      <c r="B212" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="7" t="s">
         <v>364</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
-      <c r="B213" s="8" t="s">
+      <c r="F212" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="22"/>
+      <c r="B213" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>366</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
-      <c r="B214" s="8" t="s">
+      <c r="F213" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="22"/>
+      <c r="B214" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="14"/>
-      <c r="B215" s="8" t="s">
+      <c r="F214" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="22"/>
+      <c r="B215" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
-      <c r="B216" s="8" t="s">
+      <c r="F215" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="22"/>
+      <c r="B216" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="4" t="s">
         <v>372</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
-      <c r="B217" s="8" t="s">
+      <c r="F216" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="22"/>
+      <c r="B217" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
-      <c r="B218" s="8" t="s">
+      <c r="F217" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="22"/>
+      <c r="B218" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="4" t="s">
         <v>376</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
-      <c r="B219" s="8" t="s">
+      <c r="F218" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="22"/>
+      <c r="B219" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C219" s="4" t="s">
         <v>378</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
-      <c r="B220" s="8" t="s">
+      <c r="F219" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="22"/>
+      <c r="B220" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="14"/>
-      <c r="B221" s="8" t="s">
+      <c r="F220" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="22"/>
+      <c r="B221" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="4" t="s">
         <v>382</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="14"/>
-      <c r="B222" s="8" t="s">
+      <c r="F221" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="22"/>
+      <c r="B222" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="4" t="s">
         <v>384</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="14"/>
-      <c r="B223" s="8" t="s">
+      <c r="F222" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="22"/>
+      <c r="B223" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A224" s="14"/>
-      <c r="B224" s="8" t="s">
+      <c r="F223" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="22"/>
+      <c r="B224" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="14"/>
-      <c r="B225" s="8" t="s">
+      <c r="F224" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="22"/>
+      <c r="B225" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="14"/>
-      <c r="B226" s="8" t="s">
+      <c r="F225" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="22"/>
+      <c r="B226" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C226" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
-      <c r="B227" s="8" t="s">
+      <c r="F226" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="22"/>
+      <c r="B227" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C227" s="4" t="s">
         <v>393</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="14" t="s">
+      <c r="F227" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
-      <c r="B229" s="8" t="s">
+      <c r="F228" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="22"/>
+      <c r="B229" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C229" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
-      <c r="B230" s="8" t="s">
+      <c r="F229" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="22"/>
+      <c r="B230" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="14"/>
-      <c r="B231" s="8" t="s">
+      <c r="F230" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="22"/>
+      <c r="B231" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="4" t="s">
         <v>396</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
-      <c r="B232" s="8" t="s">
+      <c r="F231" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="22"/>
+      <c r="B232" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C232" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
-      <c r="B233" s="8" t="s">
+      <c r="F232" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="22"/>
+      <c r="B233" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" s="4" t="s">
         <v>399</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
-      <c r="B234" s="8" t="s">
+      <c r="F233" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="22"/>
+      <c r="B234" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C234" s="4" t="s">
         <v>401</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
-      <c r="B235" s="8" t="s">
+      <c r="F234" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="22"/>
+      <c r="B235" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C235" s="4" t="s">
         <v>403</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
-      <c r="B236" s="8" t="s">
+      <c r="F235" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="22"/>
+      <c r="B236" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C236" s="4" t="s">
         <v>404</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="14"/>
-      <c r="B237" s="8" t="s">
+      <c r="F236" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="22"/>
+      <c r="B237" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
-      <c r="B238" s="8" t="s">
+      <c r="F237" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="22"/>
+      <c r="B238" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="C238" s="4" t="s">
         <v>407</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
-      <c r="B239" s="8" t="s">
+      <c r="F238" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="22"/>
+      <c r="B239" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="C239" s="4" t="s">
         <v>408</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="14"/>
-      <c r="B240" s="8" t="s">
+      <c r="F239" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="22"/>
+      <c r="B240" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="4" t="s">
         <v>409</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
-      <c r="B241" s="8" t="s">
+      <c r="F240" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="22"/>
+      <c r="B241" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C241" s="4" t="s">
         <v>411</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="14"/>
-      <c r="B242" s="8" t="s">
+      <c r="F241" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="22"/>
+      <c r="B242" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="C242" s="4" t="s">
         <v>413</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
-      <c r="B243" s="8" t="s">
+      <c r="F242" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="22"/>
+      <c r="B243" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C243" s="4" t="s">
         <v>415</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
-      <c r="B244" s="8" t="s">
+      <c r="F243" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="22"/>
+      <c r="B244" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="C244" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
-      <c r="B245" s="8" t="s">
+      <c r="F244" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="22"/>
+      <c r="B245" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
-      <c r="B246" s="8" t="s">
+      <c r="F245" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="22"/>
+      <c r="B246" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C246" s="5" t="s">
+      <c r="C246" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A247" s="17" t="s">
+      <c r="F246" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B247" s="1"/>
-      <c r="C247" s="5" t="s">
+      <c r="C247" s="4" t="s">
         <v>419</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="17"/>
-      <c r="B248" s="8" t="s">
+      <c r="F247" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="23"/>
+      <c r="B248" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C248" s="5" t="s">
+      <c r="C248" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="17"/>
-      <c r="B249" s="8" t="s">
+      <c r="F248" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="23"/>
+      <c r="B249" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C249" s="5" t="s">
+      <c r="C249" s="4" t="s">
         <v>421</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="17"/>
-      <c r="B250" s="8" t="s">
+      <c r="F249" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="23"/>
+      <c r="B250" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C250" s="5" t="s">
+      <c r="C250" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="17"/>
-      <c r="B251" s="8" t="s">
+      <c r="F250" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="23"/>
+      <c r="B251" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C251" s="4" t="s">
         <v>423</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="17"/>
-      <c r="B252" s="8" t="s">
+      <c r="F251" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="23"/>
+      <c r="B252" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C252" s="4" t="s">
         <v>424</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="17"/>
-      <c r="B253" s="8" t="s">
+      <c r="F252" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="23"/>
+      <c r="B253" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" s="4" t="s">
         <v>426</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="17"/>
-      <c r="B254" s="8" t="s">
+      <c r="F253" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="23"/>
+      <c r="B254" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="C254" s="4" t="s">
         <v>428</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="17"/>
-      <c r="B255" s="8" t="s">
+      <c r="F254" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="23"/>
+      <c r="B255" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="C255" s="4" t="s">
         <v>429</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="17"/>
-      <c r="B256" s="8" t="s">
+      <c r="F255" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A256" s="23"/>
+      <c r="B256" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C256" s="4" t="s">
         <v>431</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="17"/>
-      <c r="B257" s="8" t="s">
+      <c r="F256" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="23"/>
+      <c r="B257" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C257" s="4" t="s">
         <v>433</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="14" t="s">
+      <c r="F257" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B258" s="1"/>
-      <c r="C258" s="5" t="s">
+      <c r="C258" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="14"/>
-      <c r="B259" s="8" t="s">
+      <c r="F258" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="22"/>
+      <c r="B259" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="4" t="s">
         <v>435</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
-      <c r="B260" s="8" t="s">
+      <c r="F259" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="22"/>
+      <c r="B260" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C260" s="5" t="s">
+      <c r="C260" s="4" t="s">
         <v>436</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
-      <c r="B261" s="8" t="s">
+      <c r="F260" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="22"/>
+      <c r="B261" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="C261" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
-      <c r="F261" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
-      <c r="B262" s="8" t="s">
+      <c r="F261" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="22"/>
+      <c r="B262" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C262" s="4" t="s">
         <v>438</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
-      <c r="F262" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
-      <c r="B263" s="8" t="s">
+      <c r="F262" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="22"/>
+      <c r="B263" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C263" s="5" t="s">
+      <c r="C263" s="4" t="s">
         <v>439</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
-      <c r="F263" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
-      <c r="B264" s="8" t="s">
+      <c r="F263" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A264" s="22"/>
+      <c r="B264" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" s="4" t="s">
         <v>441</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
-      <c r="F264" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="14"/>
-      <c r="B265" s="8" t="s">
+      <c r="F264" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="22"/>
+      <c r="B265" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C265" s="5" t="s">
+      <c r="C265" s="4" t="s">
         <v>443</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
-      <c r="F265" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
-      <c r="B266" s="8" t="s">
+      <c r="F265" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="22"/>
+      <c r="B266" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C266" s="5" t="s">
+      <c r="C266" s="4" t="s">
         <v>444</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
-      <c r="F266" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
-      <c r="B267" s="8" t="s">
+      <c r="F266" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="22"/>
+      <c r="B267" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C267" s="4" t="s">
         <v>445</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
-      <c r="F267" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
-      <c r="B268" s="8" t="s">
+      <c r="F267" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A268" s="22"/>
+      <c r="B268" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C268" s="4" t="s">
         <v>446</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
-      <c r="F268" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
-      <c r="B269" s="8" t="s">
+      <c r="F268" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="22"/>
+      <c r="B269" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C269" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
-      <c r="F269" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
-      <c r="B270" s="8" t="s">
+      <c r="F269" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="22"/>
+      <c r="B270" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C270" s="4" t="s">
         <v>450</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
-      <c r="F270" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
-      <c r="B271" s="8" t="s">
+      <c r="F270" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="22"/>
+      <c r="B271" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="C271" s="4" t="s">
         <v>452</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
-      <c r="F271" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
-      <c r="B272" s="8" t="s">
+      <c r="F271" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="22"/>
+      <c r="B272" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C272" s="5" t="s">
+      <c r="C272" s="4" t="s">
         <v>454</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
-      <c r="F272" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="14"/>
-      <c r="B273" s="8" t="s">
+      <c r="F272" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="22"/>
+      <c r="B273" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C273" s="5" t="s">
+      <c r="C273" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
-      <c r="F273" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
-      <c r="B274" s="8" t="s">
+      <c r="F273" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="22"/>
+      <c r="B274" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="C274" s="4" t="s">
         <v>456</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
-      <c r="F274" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
-      <c r="B275" s="8" t="s">
+      <c r="F274" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="22"/>
+      <c r="B275" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="C275" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
-      <c r="F275" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
-      <c r="B276" s="8" t="s">
+      <c r="F275" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="22"/>
+      <c r="B276" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C276" s="5" t="s">
+      <c r="C276" s="4" t="s">
         <v>458</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
-      <c r="F276" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A277" s="14" t="s">
+      <c r="F276" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A277" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B277" s="1"/>
-      <c r="C277" s="5" t="s">
+      <c r="C277" s="4" t="s">
         <v>459</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
-      <c r="F277" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
-      <c r="B278" s="8" t="s">
+      <c r="F277" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="22"/>
+      <c r="B278" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="C278" s="4" t="s">
         <v>460</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
-      <c r="F278" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="14"/>
-      <c r="B279" s="8" t="s">
+      <c r="F278" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="22"/>
+      <c r="B279" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" s="4" t="s">
         <v>461</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
-      <c r="F279" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="14"/>
-      <c r="B280" s="8" t="s">
+      <c r="F279" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="22"/>
+      <c r="B280" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C280" s="5" t="s">
+      <c r="C280" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
-      <c r="F280" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="14"/>
-      <c r="B281" s="8" t="s">
+      <c r="F280" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="22"/>
+      <c r="B281" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C281" s="5" t="s">
+      <c r="C281" s="4" t="s">
         <v>463</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
-      <c r="F281" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="14"/>
-      <c r="B282" s="8" t="s">
+      <c r="F281" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="22"/>
+      <c r="B282" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C282" s="5" t="s">
+      <c r="C282" s="4" t="s">
         <v>465</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
-      <c r="F282" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="14"/>
-      <c r="B283" s="8" t="s">
+      <c r="F282" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="22"/>
+      <c r="B283" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C283" s="5" t="s">
+      <c r="C283" s="4" t="s">
         <v>467</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
-      <c r="F283" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="14"/>
-      <c r="B284" s="8" t="s">
+      <c r="F283" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="22"/>
+      <c r="B284" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C284" s="5" t="s">
+      <c r="C284" s="4" t="s">
         <v>468</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
-      <c r="F284" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
-      <c r="B285" s="8" t="s">
+      <c r="F284" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="22"/>
+      <c r="B285" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C285" s="5" t="s">
+      <c r="C285" s="4" t="s">
         <v>469</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
-      <c r="F285" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="14"/>
-      <c r="B286" s="8" t="s">
+      <c r="F285" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A286" s="22"/>
+      <c r="B286" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C286" s="5" t="s">
+      <c r="C286" s="4" t="s">
         <v>470</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
-      <c r="F286" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
-      <c r="B287" s="8" t="s">
+      <c r="F286" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A287" s="22"/>
+      <c r="B287" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="C287" s="4" t="s">
         <v>472</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
-      <c r="F287" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
-      <c r="B288" s="8" t="s">
+      <c r="F287" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="22"/>
+      <c r="B288" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C288" s="5" t="s">
+      <c r="C288" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
-      <c r="F288" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="14"/>
-      <c r="B289" s="8" t="s">
+      <c r="F288" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="22"/>
+      <c r="B289" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C289" s="5" t="s">
+      <c r="C289" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
-      <c r="F289" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
-      <c r="B290" s="8" t="s">
+      <c r="F289" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="22"/>
+      <c r="B290" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C290" s="5" t="s">
+      <c r="C290" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
-      <c r="F290" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
-      <c r="B291" s="8" t="s">
+      <c r="F290" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="22"/>
+      <c r="B291" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C291" s="5" t="s">
+      <c r="C291" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
-      <c r="F291" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
-      <c r="B292" s="8" t="s">
+      <c r="F291" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="22"/>
+      <c r="B292" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C292" s="5" t="s">
+      <c r="C292" s="4" t="s">
         <v>482</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
-      <c r="F292" s="8">
+      <c r="F292" s="7">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A258:A276"/>
+    <mergeCell ref="A277:A292"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A207:A227"/>
+    <mergeCell ref="A228:A246"/>
+    <mergeCell ref="A247:A257"/>
+    <mergeCell ref="A185:A195"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A167"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -7070,19 +7369,6 @@
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A115"/>
-    <mergeCell ref="A258:A276"/>
-    <mergeCell ref="A277:A292"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A207:A227"/>
-    <mergeCell ref="A228:A246"/>
-    <mergeCell ref="A247:A257"/>
-    <mergeCell ref="A185:A195"/>
-    <mergeCell ref="A196:A206"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>

--- a/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
+++ b/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="535">
   <si>
     <t>Concept</t>
   </si>
@@ -1647,12 +1647,6 @@
     <t>Borehole/boreholeShape</t>
   </si>
   <si>
-    <t>outerRim of BhML, more a reuse of standardized description of Borehole Logs</t>
-  </si>
-  <si>
-    <t>? O&amp;M on core (on Sample ?) or also on other features (Borehole) ?</t>
-  </si>
-  <si>
     <t>DrillingCampaign and DrillingOperation</t>
   </si>
   <si>
@@ -1669,6 +1663,15 @@
   </si>
   <si>
     <t>BhML:Sample as well with recursive link ?</t>
+  </si>
+  <si>
+    <t>Feature observed in Borehole Log.</t>
+  </si>
+  <si>
+    <t>outerRim of BhML, more a reuse of standardized description of Borehole Logs -&gt; may need to create a GitHub issue on this</t>
+  </si>
+  <si>
+    <t>? O&amp;M on core (on Sample ?) or also on other features (Borehole) ? -&gt; clarified during webconf 15</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1835,39 +1838,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,9 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1906,18 +1873,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2204,7 +2216,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,7 +2226,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>509</v>
       </c>
       <c r="B1" t="s">
@@ -2222,18 +2234,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="19" t="s">
         <v>510</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="20" t="s">
         <v>513</v>
       </c>
     </row>
@@ -2247,93 +2259,93 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="13" max="13" width="44.33203125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="44.33203125" style="15" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="26">
         <v>2</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="26">
         <v>3</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="26">
         <v>4</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="26">
         <v>5</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="26">
         <v>6</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1" s="26">
         <v>7</v>
       </c>
-      <c r="I1" s="38">
-        <v>8</v>
-      </c>
-      <c r="J1" s="38">
+      <c r="I1" s="26">
+        <v>8</v>
+      </c>
+      <c r="J1" s="26">
         <v>11</v>
       </c>
-      <c r="K1" s="38">
+      <c r="K1" s="26">
         <v>13</v>
       </c>
-      <c r="L1" s="38">
-        <v>14</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="26">
+        <v>14</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>506</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="37" t="s">
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -2357,7 +2369,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="21" t="s">
         <v>503</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -2381,7 +2393,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="21" t="s">
         <v>504</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -2405,7 +2417,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="21" t="s">
         <v>505</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -2429,7 +2441,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="21" t="s">
         <v>507</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -2457,7 +2469,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="22" t="s">
         <v>519</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -2481,7 +2493,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="21" t="s">
         <v>508</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -2489,29 +2501,29 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="34" t="s">
+      <c r="B9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="32" t="s">
         <v>514</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -2519,89 +2531,89 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="34"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="34"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="34"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="34"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2623,7 +2635,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="21" t="s">
         <v>517</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -2647,7 +2659,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="21" t="s">
         <v>517</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -2671,7 +2683,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="22" t="s">
         <v>515</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -2695,7 +2707,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="22" t="s">
         <v>518</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -2719,7 +2731,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="21" t="s">
         <v>520</v>
       </c>
       <c r="N18" s="6" t="s">
@@ -2743,7 +2755,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="21" t="s">
         <v>521</v>
       </c>
       <c r="N19" s="6" t="s">
@@ -2767,7 +2779,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="33" t="s">
         <v>516</v>
       </c>
       <c r="N20" s="6" t="s">
@@ -2791,7 +2803,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="42"/>
+      <c r="M21" s="34"/>
       <c r="N21" s="6" t="s">
         <v>8</v>
       </c>
@@ -2813,7 +2825,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="33" t="s">
+      <c r="M22" s="22" t="s">
         <v>523</v>
       </c>
       <c r="N22" s="6" t="s">
@@ -2835,7 +2847,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="21" t="s">
         <v>522</v>
       </c>
       <c r="N23" s="6" t="s">
@@ -2859,7 +2871,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="21" t="s">
         <v>525</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -2867,23 +2879,23 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="43" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="30" t="s">
         <v>524</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -2891,67 +2903,67 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="44"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="44"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="45"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="31"/>
       <c r="N28" s="6" t="s">
         <v>8</v>
       </c>
@@ -2973,8 +2985,8 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="43" t="s">
-        <v>526</v>
+      <c r="M29" s="29" t="s">
+        <v>532</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>8</v>
@@ -2997,7 +3009,9 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="44"/>
+      <c r="M30" s="30" t="s">
+        <v>533</v>
+      </c>
       <c r="N30" s="6" t="s">
         <v>8</v>
       </c>
@@ -3019,7 +3033,7 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="44"/>
+      <c r="M31" s="47"/>
       <c r="N31" s="6" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3055,7 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="45"/>
+      <c r="M32" s="48"/>
       <c r="N32" s="6" t="s">
         <v>8</v>
       </c>
@@ -3063,80 +3077,80 @@
         <v>8</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="31"/>
+      <c r="N35" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="21" t="s">
         <v>527</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="43" t="s">
-        <v>528</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="45"/>
-      <c r="N35" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="32" t="s">
-        <v>529</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>8</v>
@@ -3159,8 +3173,8 @@
       <c r="L37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="32" t="s">
-        <v>530</v>
+      <c r="M37" s="21" t="s">
+        <v>528</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>8</v>
@@ -3183,8 +3197,8 @@
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="43" t="s">
-        <v>533</v>
+      <c r="M38" s="30" t="s">
+        <v>531</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>8</v>
@@ -3207,7 +3221,7 @@
       <c r="L39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="45"/>
+      <c r="M39" s="31"/>
       <c r="N39" s="6" t="s">
         <v>8</v>
       </c>
@@ -3229,8 +3243,8 @@
       <c r="L40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="32" t="s">
-        <v>532</v>
+      <c r="M40" s="21" t="s">
+        <v>530</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>8</v>
@@ -3253,8 +3267,8 @@
       <c r="L41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="32" t="s">
-        <v>529</v>
+      <c r="M41" s="21" t="s">
+        <v>527</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>8</v>
@@ -3288,8 +3302,8 @@
     <mergeCell ref="M9:M13"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M29:M32"/>
     <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M30:M32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3300,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3335,7 +3349,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
@@ -3351,7 +3365,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -3367,7 +3381,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3379,7 +3393,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3393,7 +3407,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -3409,7 +3423,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
@@ -3423,7 +3437,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -3437,7 +3451,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -3451,7 +3465,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3465,7 +3479,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,7 +3493,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
@@ -3493,7 +3507,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
@@ -3507,7 +3521,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3521,7 +3535,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -3535,7 +3549,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3549,7 +3563,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
@@ -3563,7 +3577,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -3575,7 +3589,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -3587,7 +3601,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
@@ -3599,7 +3613,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
@@ -3611,7 +3625,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
@@ -3623,7 +3637,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
@@ -3635,7 +3649,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3647,7 +3661,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -3659,7 +3673,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3671,7 +3685,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
@@ -3683,7 +3697,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
@@ -3695,7 +3709,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="37" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
@@ -3707,7 +3721,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3721,7 +3735,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
@@ -3735,7 +3749,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
@@ -3749,7 +3763,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="4" t="s">
         <v>120</v>
       </c>
@@ -3763,7 +3777,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -3777,7 +3791,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
@@ -3791,7 +3805,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
@@ -3805,7 +3819,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
@@ -3819,7 +3833,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="1" t="s">
         <v>129</v>
       </c>
@@ -3833,7 +3847,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="1" t="s">
         <v>131</v>
       </c>
@@ -3847,7 +3861,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="1" t="s">
         <v>133</v>
       </c>
@@ -3861,7 +3875,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
@@ -3875,7 +3889,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3889,7 +3903,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3903,7 +3917,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3917,7 +3931,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
@@ -3931,7 +3945,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
@@ -3945,7 +3959,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="1" t="s">
         <v>147</v>
       </c>
@@ -3959,7 +3973,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="1" t="s">
         <v>149</v>
       </c>
@@ -3973,7 +3987,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3987,7 +4001,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="1" t="s">
         <v>153</v>
       </c>
@@ -4001,7 +4015,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
@@ -4015,7 +4029,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4029,7 +4043,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4043,7 +4057,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
@@ -4057,7 +4071,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
@@ -4071,7 +4085,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
       </c>
@@ -4083,7 +4097,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="1" t="s">
         <v>164</v>
       </c>
@@ -4099,7 +4113,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="1" t="s">
         <v>165</v>
       </c>
@@ -4115,7 +4129,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
       </c>
@@ -4131,7 +4145,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="1" t="s">
         <v>167</v>
       </c>
@@ -4143,7 +4157,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="4"/>
@@ -4157,7 +4171,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="4" t="s">
         <v>169</v>
       </c>
@@ -4169,7 +4183,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="18"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="4" t="s">
         <v>170</v>
       </c>
@@ -4185,7 +4199,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="4" t="s">
         <v>171</v>
       </c>
@@ -4201,7 +4215,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="4" t="s">
         <v>172</v>
       </c>
@@ -4231,7 +4245,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="4"/>
@@ -4247,7 +4261,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
         <v>185</v>
@@ -4259,7 +4273,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="4" t="s">
         <v>180</v>
       </c>
@@ -4273,7 +4287,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="4" t="s">
         <v>181</v>
       </c>
@@ -4287,7 +4301,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>182</v>
       </c>
@@ -4301,7 +4315,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="4" t="s">
         <v>186</v>
       </c>
@@ -4315,7 +4329,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="4" t="s">
         <v>188</v>
       </c>
@@ -4327,7 +4341,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="4" t="s">
         <v>189</v>
       </c>
@@ -4343,7 +4357,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="4" t="s">
         <v>192</v>
       </c>
@@ -4359,7 +4373,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="4" t="s">
         <v>195</v>
       </c>
@@ -4375,7 +4389,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="4" t="s">
         <v>198</v>
       </c>
@@ -4389,7 +4403,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="4" t="s">
         <v>200</v>
       </c>
@@ -4405,7 +4419,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="4" t="s">
         <v>202</v>
       </c>
@@ -4421,7 +4435,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="4" t="s">
         <v>205</v>
       </c>
@@ -4437,7 +4451,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="4" t="s">
         <v>208</v>
       </c>
@@ -4453,7 +4467,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="4"/>
@@ -4469,7 +4483,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="4" t="s">
         <v>288</v>
       </c>
@@ -4481,7 +4495,7 @@
       <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="36" t="s">
         <v>282</v>
       </c>
       <c r="B84" s="1"/>
@@ -4495,7 +4509,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="1"/>
       <c r="C85" s="4" t="s">
         <v>219</v>
@@ -4509,7 +4523,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="1"/>
       <c r="C86" s="4" t="s">
         <v>229</v>
@@ -4521,7 +4535,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="1"/>
       <c r="C87" s="4" t="s">
         <v>279</v>
@@ -4533,7 +4547,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>281</v>
@@ -4545,7 +4559,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="4" t="s">
         <v>180</v>
       </c>
@@ -4557,7 +4571,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="4" t="s">
         <v>181</v>
       </c>
@@ -4569,7 +4583,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="4" t="s">
         <v>230</v>
       </c>
@@ -4581,7 +4595,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="10" t="s">
         <v>218</v>
       </c>
@@ -4595,7 +4609,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4609,7 +4623,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="4" t="s">
         <v>215</v>
       </c>
@@ -4623,7 +4637,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="4" t="s">
         <v>216</v>
       </c>
@@ -4635,7 +4649,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="4" t="s">
         <v>221</v>
       </c>
@@ -4649,7 +4663,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
@@ -4663,7 +4677,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="4" t="s">
         <v>225</v>
       </c>
@@ -4677,7 +4691,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="4" t="s">
         <v>227</v>
       </c>
@@ -4705,7 +4719,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B101" s="4"/>
@@ -4719,7 +4733,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="4" t="s">
         <v>284</v>
       </c>
@@ -4729,7 +4743,7 @@
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
+      <c r="A103" s="40"/>
       <c r="B103" s="4" t="s">
         <v>285</v>
       </c>
@@ -4739,7 +4753,7 @@
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="4" t="s">
         <v>286</v>
       </c>
@@ -4749,7 +4763,7 @@
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="1"/>
@@ -4765,7 +4779,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="22"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="4" t="s">
         <v>232</v>
       </c>
@@ -4779,7 +4793,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="22"/>
+      <c r="A107" s="36"/>
       <c r="B107" s="4" t="s">
         <v>233</v>
       </c>
@@ -4795,7 +4809,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="1"/>
@@ -4809,7 +4823,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="22"/>
+      <c r="A109" s="36"/>
       <c r="B109" s="4" t="s">
         <v>234</v>
       </c>
@@ -4823,7 +4837,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="36" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="1"/>
@@ -4841,7 +4855,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
+      <c r="A111" s="36"/>
       <c r="B111" s="4" t="s">
         <v>240</v>
       </c>
@@ -4855,7 +4869,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="1" t="s">
         <v>242</v>
       </c>
@@ -4871,7 +4885,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="22"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="4" t="s">
         <v>244</v>
       </c>
@@ -4887,7 +4901,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="22"/>
+      <c r="A114" s="36"/>
       <c r="B114" s="1" t="s">
         <v>245</v>
       </c>
@@ -4905,7 +4919,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
+      <c r="A115" s="36"/>
       <c r="B115" s="4" t="s">
         <v>247</v>
       </c>
@@ -4919,7 +4933,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="1"/>
@@ -4933,7 +4947,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="22"/>
+      <c r="A117" s="36"/>
       <c r="B117" s="4" t="s">
         <v>250</v>
       </c>
@@ -4945,7 +4959,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B118" s="1"/>
@@ -4959,7 +4973,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
+      <c r="A119" s="36"/>
       <c r="B119" s="4" t="s">
         <v>252</v>
       </c>
@@ -4971,7 +4985,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
+      <c r="A120" s="36"/>
       <c r="B120" s="1" t="s">
         <v>253</v>
       </c>
@@ -4983,7 +4997,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="4" t="s">
         <v>254</v>
       </c>
@@ -4997,7 +5011,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="22"/>
+      <c r="A122" s="36"/>
       <c r="B122" s="1" t="s">
         <v>256</v>
       </c>
@@ -5011,7 +5025,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="1"/>
@@ -5025,7 +5039,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="1" t="s">
         <v>259</v>
       </c>
@@ -5037,7 +5051,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="22"/>
+      <c r="A125" s="36"/>
       <c r="B125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5051,7 +5065,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="22"/>
+      <c r="A126" s="36"/>
       <c r="B126" s="1" t="s">
         <v>254</v>
       </c>
@@ -5065,7 +5079,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
+      <c r="A127" s="36"/>
       <c r="B127" s="1" t="s">
         <v>256</v>
       </c>
@@ -5079,7 +5093,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="22"/>
+      <c r="A128" s="36"/>
       <c r="B128" s="1" t="s">
         <v>263</v>
       </c>
@@ -5093,7 +5107,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="1"/>
@@ -5109,7 +5123,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="16"/>
+      <c r="A130" s="40"/>
       <c r="B130" s="1" t="s">
         <v>267</v>
       </c>
@@ -5123,7 +5137,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="16"/>
+      <c r="A131" s="40"/>
       <c r="B131" s="1" t="s">
         <v>269</v>
       </c>
@@ -5135,7 +5149,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="16"/>
+      <c r="A132" s="40"/>
       <c r="B132" s="1" t="s">
         <v>125</v>
       </c>
@@ -5147,7 +5161,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="16"/>
+      <c r="A133" s="40"/>
       <c r="B133" s="1" t="s">
         <v>270</v>
       </c>
@@ -5159,7 +5173,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="16"/>
+      <c r="A134" s="40"/>
       <c r="B134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5171,7 +5185,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="16"/>
+      <c r="A135" s="40"/>
       <c r="B135" s="1" t="s">
         <v>272</v>
       </c>
@@ -5183,7 +5197,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="16"/>
+      <c r="A136" s="40"/>
       <c r="B136" s="1" t="s">
         <v>273</v>
       </c>
@@ -5195,7 +5209,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="16"/>
+      <c r="A137" s="40"/>
       <c r="B137" s="1" t="s">
         <v>274</v>
       </c>
@@ -5207,7 +5221,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="16"/>
+      <c r="A138" s="40"/>
       <c r="B138" s="1" t="s">
         <v>275</v>
       </c>
@@ -5219,7 +5233,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
+      <c r="A139" s="38"/>
       <c r="B139" s="1" t="s">
         <v>276</v>
       </c>
@@ -5231,7 +5245,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="1"/>
@@ -5245,7 +5259,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="21"/>
+      <c r="A141" s="44"/>
       <c r="B141" s="1" t="s">
         <v>278</v>
       </c>
@@ -5257,7 +5271,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="1"/>
@@ -5271,7 +5285,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="16"/>
+      <c r="A143" s="40"/>
       <c r="B143" s="4" t="s">
         <v>20</v>
       </c>
@@ -5283,7 +5297,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="16"/>
+      <c r="A144" s="40"/>
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -5295,7 +5309,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="16"/>
+      <c r="A145" s="40"/>
       <c r="B145" s="1" t="s">
         <v>22</v>
       </c>
@@ -5307,7 +5321,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="16"/>
+      <c r="A146" s="40"/>
       <c r="B146" s="1" t="s">
         <v>23</v>
       </c>
@@ -5319,7 +5333,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="16"/>
+      <c r="A147" s="40"/>
       <c r="B147" s="1" t="s">
         <v>24</v>
       </c>
@@ -5331,7 +5345,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="16"/>
+      <c r="A148" s="40"/>
       <c r="B148" s="1" t="s">
         <v>25</v>
       </c>
@@ -5343,7 +5357,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="16"/>
+      <c r="A149" s="40"/>
       <c r="B149" s="1" t="s">
         <v>26</v>
       </c>
@@ -5355,7 +5369,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="16"/>
+      <c r="A150" s="40"/>
       <c r="B150" s="1" t="s">
         <v>32</v>
       </c>
@@ -5367,7 +5381,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="16"/>
+      <c r="A151" s="40"/>
       <c r="B151" s="1" t="s">
         <v>33</v>
       </c>
@@ -5379,7 +5393,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="16"/>
+      <c r="A152" s="40"/>
       <c r="B152" s="1" t="s">
         <v>35</v>
       </c>
@@ -5391,7 +5405,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="16"/>
+      <c r="A153" s="40"/>
       <c r="B153" s="1" t="s">
         <v>36</v>
       </c>
@@ -5403,7 +5417,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="17"/>
+      <c r="A154" s="38"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5413,7 +5427,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B155" s="1"/>
@@ -5427,7 +5441,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="16"/>
+      <c r="A156" s="40"/>
       <c r="B156" s="1" t="s">
         <v>30</v>
       </c>
@@ -5439,7 +5453,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="16"/>
+      <c r="A157" s="40"/>
       <c r="B157" s="1" t="s">
         <v>37</v>
       </c>
@@ -5451,7 +5465,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="16"/>
+      <c r="A158" s="40"/>
       <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
@@ -5463,7 +5477,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="16"/>
+      <c r="A159" s="40"/>
       <c r="B159" s="1" t="s">
         <v>41</v>
       </c>
@@ -5477,7 +5491,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="16"/>
+      <c r="A160" s="40"/>
       <c r="B160" s="1" t="s">
         <v>39</v>
       </c>
@@ -5491,7 +5505,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="17"/>
+      <c r="A161" s="38"/>
       <c r="B161" s="1" t="s">
         <v>43</v>
       </c>
@@ -5503,7 +5517,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B162" s="1"/>
@@ -5521,7 +5535,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="17"/>
+      <c r="A163" s="38"/>
       <c r="B163" s="1" t="s">
         <v>346</v>
       </c>
@@ -5533,7 +5547,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="42" t="s">
         <v>347</v>
       </c>
       <c r="B164" s="8" t="s">
@@ -5553,7 +5567,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="25"/>
+      <c r="A165" s="43"/>
       <c r="B165" s="8" t="s">
         <v>47</v>
       </c>
@@ -5571,7 +5585,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="25"/>
+      <c r="A166" s="43"/>
       <c r="B166" s="8" t="s">
         <v>297</v>
       </c>
@@ -5589,7 +5603,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="21"/>
+      <c r="A167" s="44"/>
       <c r="B167" s="8" t="s">
         <v>49</v>
       </c>
@@ -5679,7 +5693,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="37" t="s">
         <v>312</v>
       </c>
       <c r="B173" s="1"/>
@@ -5693,7 +5707,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="16"/>
+      <c r="A174" s="40"/>
       <c r="B174" s="1" t="s">
         <v>284</v>
       </c>
@@ -5705,7 +5719,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="16"/>
+      <c r="A175" s="40"/>
       <c r="B175" s="1" t="s">
         <v>285</v>
       </c>
@@ -5717,7 +5731,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="16"/>
+      <c r="A176" s="40"/>
       <c r="B176" s="1" t="s">
         <v>253</v>
       </c>
@@ -5729,7 +5743,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="16"/>
+      <c r="A177" s="40"/>
       <c r="B177" s="1" t="s">
         <v>314</v>
       </c>
@@ -5741,7 +5755,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="17"/>
+      <c r="A178" s="38"/>
       <c r="B178" s="1" t="s">
         <v>315</v>
       </c>
@@ -5753,7 +5767,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B179" s="4"/>
@@ -5767,7 +5781,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="19"/>
+      <c r="A180" s="41"/>
       <c r="B180" s="4" t="s">
         <v>69</v>
       </c>
@@ -5779,7 +5793,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="19"/>
+      <c r="A181" s="41"/>
       <c r="B181" s="4" t="s">
         <v>72</v>
       </c>
@@ -5791,7 +5805,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="19"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="4" t="s">
         <v>176</v>
       </c>
@@ -5803,7 +5817,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="19"/>
+      <c r="A183" s="41"/>
       <c r="B183" s="4" t="s">
         <v>177</v>
       </c>
@@ -5815,7 +5829,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="19"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="4" t="s">
         <v>178</v>
       </c>
@@ -5827,7 +5841,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B185" s="1"/>
@@ -5841,7 +5855,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="16"/>
+      <c r="A186" s="40"/>
       <c r="B186" s="7" t="s">
         <v>60</v>
       </c>
@@ -5855,7 +5869,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="16"/>
+      <c r="A187" s="40"/>
       <c r="B187" s="7" t="s">
         <v>319</v>
       </c>
@@ -5869,7 +5883,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="16"/>
+      <c r="A188" s="40"/>
       <c r="B188" s="7" t="s">
         <v>285</v>
       </c>
@@ -5883,7 +5897,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="16"/>
+      <c r="A189" s="40"/>
       <c r="B189" s="7" t="s">
         <v>322</v>
       </c>
@@ -5897,7 +5911,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="16"/>
+      <c r="A190" s="40"/>
       <c r="B190" s="7" t="s">
         <v>324</v>
       </c>
@@ -5911,7 +5925,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="16"/>
+      <c r="A191" s="40"/>
       <c r="B191" s="7" t="s">
         <v>326</v>
       </c>
@@ -5925,7 +5939,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="16"/>
+      <c r="A192" s="40"/>
       <c r="B192" s="7" t="s">
         <v>328</v>
       </c>
@@ -5939,7 +5953,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="16"/>
+      <c r="A193" s="40"/>
       <c r="B193" s="7" t="s">
         <v>330</v>
       </c>
@@ -5953,7 +5967,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="16"/>
+      <c r="A194" s="40"/>
       <c r="B194" s="7" t="s">
         <v>332</v>
       </c>
@@ -5967,7 +5981,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="17"/>
+      <c r="A195" s="38"/>
       <c r="B195" s="7" t="s">
         <v>334</v>
       </c>
@@ -5981,7 +5995,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B196" s="1"/>
@@ -5995,7 +6009,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="16"/>
+      <c r="A197" s="40"/>
       <c r="B197" s="7" t="s">
         <v>60</v>
       </c>
@@ -6009,7 +6023,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="16"/>
+      <c r="A198" s="40"/>
       <c r="B198" s="7" t="s">
         <v>61</v>
       </c>
@@ -6023,7 +6037,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="16"/>
+      <c r="A199" s="40"/>
       <c r="B199" s="7" t="s">
         <v>285</v>
       </c>
@@ -6037,7 +6051,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="16"/>
+      <c r="A200" s="40"/>
       <c r="B200" s="7" t="s">
         <v>328</v>
       </c>
@@ -6051,7 +6065,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="16"/>
+      <c r="A201" s="40"/>
       <c r="B201" s="7" t="s">
         <v>341</v>
       </c>
@@ -6065,7 +6079,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="16"/>
+      <c r="A202" s="40"/>
       <c r="B202" s="7" t="s">
         <v>343</v>
       </c>
@@ -6079,7 +6093,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="16"/>
+      <c r="A203" s="40"/>
       <c r="B203" s="7" t="s">
         <v>348</v>
       </c>
@@ -6093,7 +6107,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="16"/>
+      <c r="A204" s="40"/>
       <c r="B204" s="7" t="s">
         <v>350</v>
       </c>
@@ -6107,7 +6121,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="16"/>
+      <c r="A205" s="40"/>
       <c r="B205" s="7" t="s">
         <v>352</v>
       </c>
@@ -6121,7 +6135,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="17"/>
+      <c r="A206" s="38"/>
       <c r="B206" s="7" t="s">
         <v>111</v>
       </c>
@@ -6135,7 +6149,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="22" t="s">
+      <c r="A207" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B207" s="1"/>
@@ -6149,7 +6163,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="22"/>
+      <c r="A208" s="36"/>
       <c r="B208" s="7" t="s">
         <v>60</v>
       </c>
@@ -6163,7 +6177,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="22"/>
+      <c r="A209" s="36"/>
       <c r="B209" s="7" t="s">
         <v>61</v>
       </c>
@@ -6177,7 +6191,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="22"/>
+      <c r="A210" s="36"/>
       <c r="B210" s="7" t="s">
         <v>359</v>
       </c>
@@ -6191,7 +6205,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="22"/>
+      <c r="A211" s="36"/>
       <c r="B211" s="7" t="s">
         <v>361</v>
       </c>
@@ -6205,7 +6219,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="22"/>
+      <c r="A212" s="36"/>
       <c r="B212" s="7" t="s">
         <v>363</v>
       </c>
@@ -6219,7 +6233,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="22"/>
+      <c r="A213" s="36"/>
       <c r="B213" s="7" t="s">
         <v>365</v>
       </c>
@@ -6233,7 +6247,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="22"/>
+      <c r="A214" s="36"/>
       <c r="B214" s="7" t="s">
         <v>367</v>
       </c>
@@ -6247,7 +6261,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="22"/>
+      <c r="A215" s="36"/>
       <c r="B215" s="7" t="s">
         <v>369</v>
       </c>
@@ -6261,7 +6275,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="22"/>
+      <c r="A216" s="36"/>
       <c r="B216" s="7" t="s">
         <v>371</v>
       </c>
@@ -6275,7 +6289,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="22"/>
+      <c r="A217" s="36"/>
       <c r="B217" s="7" t="s">
         <v>373</v>
       </c>
@@ -6289,7 +6303,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="22"/>
+      <c r="A218" s="36"/>
       <c r="B218" s="7" t="s">
         <v>375</v>
       </c>
@@ -6303,7 +6317,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="22"/>
+      <c r="A219" s="36"/>
       <c r="B219" s="7" t="s">
         <v>377</v>
       </c>
@@ -6317,7 +6331,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="22"/>
+      <c r="A220" s="36"/>
       <c r="B220" s="7" t="s">
         <v>379</v>
       </c>
@@ -6331,7 +6345,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="22"/>
+      <c r="A221" s="36"/>
       <c r="B221" s="7" t="s">
         <v>381</v>
       </c>
@@ -6345,7 +6359,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="22"/>
+      <c r="A222" s="36"/>
       <c r="B222" s="7" t="s">
         <v>383</v>
       </c>
@@ -6359,7 +6373,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="22"/>
+      <c r="A223" s="36"/>
       <c r="B223" s="7" t="s">
         <v>385</v>
       </c>
@@ -6373,7 +6387,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="22"/>
+      <c r="A224" s="36"/>
       <c r="B224" s="7" t="s">
         <v>387</v>
       </c>
@@ -6387,7 +6401,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="22"/>
+      <c r="A225" s="36"/>
       <c r="B225" s="7" t="s">
         <v>389</v>
       </c>
@@ -6401,7 +6415,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="22"/>
+      <c r="A226" s="36"/>
       <c r="B226" s="7" t="s">
         <v>111</v>
       </c>
@@ -6415,7 +6429,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="22"/>
+      <c r="A227" s="36"/>
       <c r="B227" s="7" t="s">
         <v>392</v>
       </c>
@@ -6429,7 +6443,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="22" t="s">
+      <c r="A228" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B228" s="1"/>
@@ -6443,7 +6457,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="22"/>
+      <c r="A229" s="36"/>
       <c r="B229" s="7" t="s">
         <v>60</v>
       </c>
@@ -6457,7 +6471,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="22"/>
+      <c r="A230" s="36"/>
       <c r="B230" s="7" t="s">
         <v>61</v>
       </c>
@@ -6471,7 +6485,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="22"/>
+      <c r="A231" s="36"/>
       <c r="B231" s="7" t="s">
         <v>359</v>
       </c>
@@ -6485,7 +6499,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="22"/>
+      <c r="A232" s="36"/>
       <c r="B232" s="7" t="s">
         <v>361</v>
       </c>
@@ -6499,7 +6513,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="22"/>
+      <c r="A233" s="36"/>
       <c r="B233" s="7" t="s">
         <v>398</v>
       </c>
@@ -6513,7 +6527,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="22"/>
+      <c r="A234" s="36"/>
       <c r="B234" s="7" t="s">
         <v>400</v>
       </c>
@@ -6527,7 +6541,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="22"/>
+      <c r="A235" s="36"/>
       <c r="B235" s="7" t="s">
         <v>402</v>
       </c>
@@ -6541,7 +6555,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="22"/>
+      <c r="A236" s="36"/>
       <c r="B236" s="7" t="s">
         <v>365</v>
       </c>
@@ -6555,7 +6569,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="22"/>
+      <c r="A237" s="36"/>
       <c r="B237" s="7" t="s">
         <v>367</v>
       </c>
@@ -6569,7 +6583,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="22"/>
+      <c r="A238" s="36"/>
       <c r="B238" s="7" t="s">
         <v>406</v>
       </c>
@@ -6583,7 +6597,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="22"/>
+      <c r="A239" s="36"/>
       <c r="B239" s="7" t="s">
         <v>373</v>
       </c>
@@ -6597,7 +6611,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="22"/>
+      <c r="A240" s="36"/>
       <c r="B240" s="7" t="s">
         <v>375</v>
       </c>
@@ -6611,7 +6625,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="22"/>
+      <c r="A241" s="36"/>
       <c r="B241" s="7" t="s">
         <v>410</v>
       </c>
@@ -6625,7 +6639,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="22"/>
+      <c r="A242" s="36"/>
       <c r="B242" s="7" t="s">
         <v>412</v>
       </c>
@@ -6639,7 +6653,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="22"/>
+      <c r="A243" s="36"/>
       <c r="B243" s="7" t="s">
         <v>414</v>
       </c>
@@ -6653,7 +6667,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="22"/>
+      <c r="A244" s="36"/>
       <c r="B244" s="7" t="s">
         <v>389</v>
       </c>
@@ -6667,7 +6681,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="22"/>
+      <c r="A245" s="36"/>
       <c r="B245" s="7" t="s">
         <v>111</v>
       </c>
@@ -6681,7 +6695,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="22"/>
+      <c r="A246" s="36"/>
       <c r="B246" s="7" t="s">
         <v>392</v>
       </c>
@@ -6695,7 +6709,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="23" t="s">
+      <c r="A247" s="39" t="s">
         <v>64</v>
       </c>
       <c r="B247" s="1"/>
@@ -6709,7 +6723,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="23"/>
+      <c r="A248" s="39"/>
       <c r="B248" s="7" t="s">
         <v>60</v>
       </c>
@@ -6723,7 +6737,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="23"/>
+      <c r="A249" s="39"/>
       <c r="B249" s="7" t="s">
         <v>61</v>
       </c>
@@ -6737,7 +6751,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="23"/>
+      <c r="A250" s="39"/>
       <c r="B250" s="7" t="s">
         <v>359</v>
       </c>
@@ -6751,7 +6765,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="23"/>
+      <c r="A251" s="39"/>
       <c r="B251" s="7" t="s">
         <v>361</v>
       </c>
@@ -6765,7 +6779,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="23"/>
+      <c r="A252" s="39"/>
       <c r="B252" s="7" t="s">
         <v>398</v>
       </c>
@@ -6779,7 +6793,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="23"/>
+      <c r="A253" s="39"/>
       <c r="B253" s="7" t="s">
         <v>425</v>
       </c>
@@ -6793,7 +6807,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="23"/>
+      <c r="A254" s="39"/>
       <c r="B254" s="7" t="s">
         <v>427</v>
       </c>
@@ -6807,7 +6821,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="23"/>
+      <c r="A255" s="39"/>
       <c r="B255" s="7" t="s">
         <v>365</v>
       </c>
@@ -6821,7 +6835,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="23"/>
+      <c r="A256" s="39"/>
       <c r="B256" s="7" t="s">
         <v>430</v>
       </c>
@@ -6835,7 +6849,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="23"/>
+      <c r="A257" s="39"/>
       <c r="B257" s="7" t="s">
         <v>432</v>
       </c>
@@ -6849,7 +6863,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A258" s="22" t="s">
+      <c r="A258" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B258" s="1"/>
@@ -6863,7 +6877,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A259" s="22"/>
+      <c r="A259" s="36"/>
       <c r="B259" s="7" t="s">
         <v>60</v>
       </c>
@@ -6877,7 +6891,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="22"/>
+      <c r="A260" s="36"/>
       <c r="B260" s="7" t="s">
         <v>61</v>
       </c>
@@ -6891,7 +6905,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="22"/>
+      <c r="A261" s="36"/>
       <c r="B261" s="7" t="s">
         <v>359</v>
       </c>
@@ -6905,7 +6919,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="22"/>
+      <c r="A262" s="36"/>
       <c r="B262" s="7" t="s">
         <v>361</v>
       </c>
@@ -6919,7 +6933,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="22"/>
+      <c r="A263" s="36"/>
       <c r="B263" s="7" t="s">
         <v>398</v>
       </c>
@@ -6933,7 +6947,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="22"/>
+      <c r="A264" s="36"/>
       <c r="B264" s="7" t="s">
         <v>440</v>
       </c>
@@ -6947,7 +6961,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="22"/>
+      <c r="A265" s="36"/>
       <c r="B265" s="7" t="s">
         <v>442</v>
       </c>
@@ -6961,7 +6975,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="22"/>
+      <c r="A266" s="36"/>
       <c r="B266" s="7" t="s">
         <v>365</v>
       </c>
@@ -6975,7 +6989,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="22"/>
+      <c r="A267" s="36"/>
       <c r="B267" s="7" t="s">
         <v>367</v>
       </c>
@@ -6989,7 +7003,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A268" s="22"/>
+      <c r="A268" s="36"/>
       <c r="B268" s="7" t="s">
         <v>373</v>
       </c>
@@ -7003,7 +7017,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="22"/>
+      <c r="A269" s="36"/>
       <c r="B269" s="7" t="s">
         <v>447</v>
       </c>
@@ -7017,7 +7031,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="22"/>
+      <c r="A270" s="36"/>
       <c r="B270" s="7" t="s">
         <v>449</v>
       </c>
@@ -7031,7 +7045,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="22"/>
+      <c r="A271" s="36"/>
       <c r="B271" s="7" t="s">
         <v>451</v>
       </c>
@@ -7045,7 +7059,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="22"/>
+      <c r="A272" s="36"/>
       <c r="B272" s="7" t="s">
         <v>453</v>
       </c>
@@ -7059,7 +7073,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="22"/>
+      <c r="A273" s="36"/>
       <c r="B273" s="7" t="s">
         <v>389</v>
       </c>
@@ -7073,7 +7087,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="22"/>
+      <c r="A274" s="36"/>
       <c r="B274" s="7" t="s">
         <v>455</v>
       </c>
@@ -7087,7 +7101,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="22"/>
+      <c r="A275" s="36"/>
       <c r="B275" s="7" t="s">
         <v>111</v>
       </c>
@@ -7101,7 +7115,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="22"/>
+      <c r="A276" s="36"/>
       <c r="B276" s="7" t="s">
         <v>392</v>
       </c>
@@ -7115,7 +7129,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="22" t="s">
+      <c r="A277" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B277" s="1"/>
@@ -7129,7 +7143,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="22"/>
+      <c r="A278" s="36"/>
       <c r="B278" s="7" t="s">
         <v>60</v>
       </c>
@@ -7143,7 +7157,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="22"/>
+      <c r="A279" s="36"/>
       <c r="B279" s="7" t="s">
         <v>61</v>
       </c>
@@ -7157,7 +7171,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A280" s="22"/>
+      <c r="A280" s="36"/>
       <c r="B280" s="7" t="s">
         <v>359</v>
       </c>
@@ -7171,7 +7185,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="22"/>
+      <c r="A281" s="36"/>
       <c r="B281" s="7" t="s">
         <v>410</v>
       </c>
@@ -7185,7 +7199,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="22"/>
+      <c r="A282" s="36"/>
       <c r="B282" s="7" t="s">
         <v>464</v>
       </c>
@@ -7199,7 +7213,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="22"/>
+      <c r="A283" s="36"/>
       <c r="B283" s="7" t="s">
         <v>466</v>
       </c>
@@ -7213,7 +7227,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="22"/>
+      <c r="A284" s="36"/>
       <c r="B284" s="7" t="s">
         <v>365</v>
       </c>
@@ -7227,7 +7241,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="22"/>
+      <c r="A285" s="36"/>
       <c r="B285" s="7" t="s">
         <v>367</v>
       </c>
@@ -7241,7 +7255,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="22"/>
+      <c r="A286" s="36"/>
       <c r="B286" s="7" t="s">
         <v>373</v>
       </c>
@@ -7255,7 +7269,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="22"/>
+      <c r="A287" s="36"/>
       <c r="B287" s="7" t="s">
         <v>471</v>
       </c>
@@ -7269,7 +7283,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="22"/>
+      <c r="A288" s="36"/>
       <c r="B288" s="7" t="s">
         <v>473</v>
       </c>
@@ -7283,7 +7297,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="22"/>
+      <c r="A289" s="36"/>
       <c r="B289" s="7" t="s">
         <v>475</v>
       </c>
@@ -7297,7 +7311,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="22"/>
+      <c r="A290" s="36"/>
       <c r="B290" s="7" t="s">
         <v>477</v>
       </c>
@@ -7311,7 +7325,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="22"/>
+      <c r="A291" s="36"/>
       <c r="B291" s="7" t="s">
         <v>479</v>
       </c>
@@ -7325,7 +7339,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="22"/>
+      <c r="A292" s="36"/>
       <c r="B292" s="7" t="s">
         <v>481</v>
       </c>
@@ -7340,19 +7354,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A258:A276"/>
-    <mergeCell ref="A277:A292"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A207:A227"/>
-    <mergeCell ref="A228:A246"/>
-    <mergeCell ref="A247:A257"/>
-    <mergeCell ref="A185:A195"/>
-    <mergeCell ref="A196:A206"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A167"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -7369,6 +7370,19 @@
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A258:A276"/>
+    <mergeCell ref="A277:A292"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A207:A227"/>
+    <mergeCell ref="A228:A246"/>
+    <mergeCell ref="A247:A257"/>
+    <mergeCell ref="A185:A195"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>

--- a/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
+++ b/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="540">
   <si>
     <t>Concept</t>
   </si>
@@ -1573,16 +1573,10 @@
     <t>Yield is the rate of fluid withdrawal associated with a unit, well, etc. OGC 16-032r2</t>
   </si>
   <si>
-    <t>Encoding/Serialization</t>
-  </si>
-  <si>
     <t>Segment</t>
   </si>
   <si>
     <t>BoreholeCollar ?</t>
-  </si>
-  <si>
-    <t>VS BhML revision:6 concepts</t>
   </si>
   <si>
     <t>Difference with reference Z ?</t>
@@ -1638,9 +1632,6 @@
     <t>Sample/relatedObservation</t>
   </si>
   <si>
-    <t>misses Borehole/relatedObservation (eventhough we have it at the logical level in EPOS specializing from SF_SamplingFeature)</t>
-  </si>
-  <si>
     <t>"Positionning along a borehole" toolbox see 'Entities_details' tab</t>
   </si>
   <si>
@@ -1668,10 +1659,34 @@
     <t>Feature observed in Borehole Log.</t>
   </si>
   <si>
-    <t>outerRim of BhML, more a reuse of standardized description of Borehole Logs -&gt; may need to create a GitHub issue on this</t>
-  </si>
-  <si>
-    <t>? O&amp;M on core (on Sample ?) or also on other features (Borehole) ? -&gt; clarified during webconf 15</t>
+    <t>Borehole/relatedObservation</t>
+  </si>
+  <si>
+    <t>Borehole:relatedObservation</t>
+  </si>
+  <si>
+    <t>Sample:relatedObservation</t>
+  </si>
+  <si>
+    <t>20190401-1400</t>
+  </si>
+  <si>
+    <t>light green</t>
+  </si>
+  <si>
+    <t>outerRim of BhML, more a reuse of standardized description of Borehole Logs -&gt; out of BhML scope https://github.com/opengeospatial/boreholeie/issues/32</t>
+  </si>
+  <si>
+    <t>outerRim of BhML, more a reuse of standardized description of Borehole Logs -&gt;  out of BhML scope https://github.com/opengeospatial/boreholeie/issues/32</t>
+  </si>
+  <si>
+    <t>VS BhML revision:7 concepts</t>
+  </si>
+  <si>
+    <t>VS BhML revision:7 concepts and properties</t>
+  </si>
+  <si>
+    <t>Encoding/Serialization issue not modelling</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1736,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1737,6 +1752,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,13 +1827,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1893,23 +1911,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1917,20 +1944,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,28 +2266,34 @@
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" t="s">
         <v>509</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="B2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -2260,95 +2307,95 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="13" max="13" width="44.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="44.33203125" style="14" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="25">
         <v>2</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <v>3</v>
       </c>
-      <c r="E1" s="26">
+      <c r="E1" s="25">
         <v>4</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="25">
         <v>5</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="25">
         <v>6</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="25">
         <v>7</v>
       </c>
-      <c r="I1" s="26">
-        <v>8</v>
-      </c>
-      <c r="J1" s="26">
+      <c r="I1" s="25">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25">
         <v>11</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="25">
         <v>13</v>
       </c>
-      <c r="L1" s="26">
-        <v>14</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="25">
+        <v>14</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="B2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2369,10 +2416,10 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2393,10 +2440,10 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2417,10 +2464,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2441,10 +2488,10 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2469,10 +2516,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2493,128 +2540,128 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="6" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="6" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="6" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="6" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2635,10 +2682,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="N14" s="6" t="s">
+      <c r="M14" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2659,10 +2706,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="M15" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2683,10 +2730,10 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="M16" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2707,10 +2754,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="M17" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2731,10 +2778,10 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="M18" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2755,10 +2802,10 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="M19" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2779,10 +2826,10 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="N20" s="6" t="s">
+      <c r="M20" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2803,12 +2850,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M21" s="33"/>
+      <c r="N21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2825,10 +2872,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="N22" s="6" t="s">
+      <c r="M22" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2847,154 +2894,154 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="M23" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="N24" s="6" t="s">
+      <c r="M24" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3009,156 +3056,158 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="N30" s="6" t="s">
+      <c r="M30" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="6" t="s">
+      <c r="A31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="N33" s="6" t="s">
+      <c r="A32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="30"/>
+      <c r="N32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="N34" s="6" t="s">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="6" t="s">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="N36" s="6" t="s">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="30"/>
+      <c r="N36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3173,16 +3222,16 @@
       <c r="L37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="N37" s="6" t="s">
+      <c r="M37" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3197,16 +3246,16 @@
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="N38" s="6" t="s">
+      <c r="M38" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3214,21 +3263,21 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3238,21 +3287,21 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M40" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="N40" s="6" t="s">
+      <c r="L40" s="1"/>
+      <c r="M40" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3262,21 +3311,19 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L41" s="1"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3284,26 +3331,26 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="6" t="s">
-        <v>355</v>
+      <c r="M42" s="51"/>
+      <c r="N42" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M35:M36"/>
     <mergeCell ref="M9:M13"/>
     <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M40:M42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3312,10 +3359,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,46 +3374,51 @@
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="58.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="G1" s="46" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -3373,15 +3426,16 @@
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3391,9 +3445,10 @@
       <c r="F4" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3405,9 +3460,10 @@
       <c r="F5" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -3415,29 +3471,31 @@
         <v>82</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -3449,9 +3507,10 @@
       <c r="F8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -3463,9 +3522,10 @@
       <c r="F9" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3477,23 +3537,25 @@
       <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
@@ -3505,9 +3567,10 @@
       <c r="F12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
@@ -3519,9 +3582,10 @@
       <c r="F13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3533,9 +3597,10 @@
       <c r="F14" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -3547,9 +3612,10 @@
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3561,9 +3627,10 @@
       <c r="F16" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
@@ -3575,9 +3642,10 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -3587,9 +3655,10 @@
       <c r="F18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -3599,9 +3668,10 @@
       <c r="F19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
@@ -3611,9 +3681,10 @@
       <c r="F20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
@@ -3623,9 +3694,10 @@
       <c r="F21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
@@ -3635,9 +3707,10 @@
       <c r="F22" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
@@ -3647,9 +3720,10 @@
       <c r="F23" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3659,9 +3733,10 @@
       <c r="F24" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -3671,9 +3746,10 @@
       <c r="F25" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
       <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3683,9 +3759,10 @@
       <c r="F26" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
       <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
@@ -3695,9 +3772,10 @@
       <c r="F27" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
       <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
@@ -3707,21 +3785,23 @@
       <c r="F28" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3733,9 +3813,10 @@
       <c r="F30" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
@@ -3747,37 +3828,40 @@
       <c r="F31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="4" t="s">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -3789,9 +3873,10 @@
       <c r="F34" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
       <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
@@ -3803,9 +3888,10 @@
       <c r="F35" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
       <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
@@ -3817,9 +3903,10 @@
       <c r="F36" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
@@ -3831,9 +3918,10 @@
       <c r="F37" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="36"/>
       <c r="B38" s="1" t="s">
         <v>129</v>
       </c>
@@ -3845,9 +3933,10 @@
       <c r="F38" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="36"/>
       <c r="B39" s="1" t="s">
         <v>131</v>
       </c>
@@ -3859,9 +3948,10 @@
       <c r="F39" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
         <v>133</v>
       </c>
@@ -3873,9 +3963,10 @@
       <c r="F40" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
@@ -3887,9 +3978,10 @@
       <c r="F41" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3901,9 +3993,10 @@
       <c r="F42" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="36"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3915,9 +4008,10 @@
       <c r="F43" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3929,23 +4023,25 @@
       <c r="F44" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="36"/>
       <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
       <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
@@ -3957,9 +4053,10 @@
       <c r="F46" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="36"/>
       <c r="B47" s="1" t="s">
         <v>147</v>
       </c>
@@ -3971,9 +4068,10 @@
       <c r="F47" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
         <v>149</v>
       </c>
@@ -3985,9 +4083,10 @@
       <c r="F48" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
@@ -3999,9 +4098,10 @@
       <c r="F49" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
       <c r="B50" s="1" t="s">
         <v>153</v>
       </c>
@@ -4013,9 +4113,10 @@
       <c r="F50" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
       <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
@@ -4027,9 +4128,10 @@
       <c r="F51" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="36"/>
       <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4041,9 +4143,10 @@
       <c r="F52" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4055,13 +4158,14 @@
       <c r="F53" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="37"/>
       <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D54" s="1"/>
@@ -4069,35 +4173,38 @@
       <c r="F54" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
       <c r="B57" s="1" t="s">
         <v>164</v>
       </c>
@@ -4108,28 +4215,30 @@
       <c r="E57" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
       <c r="B58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>487</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
       </c>
@@ -4140,477 +4249,511 @@
         <v>490</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="8">
+      <c r="F59" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="37"/>
       <c r="B60" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="8">
+      <c r="F60" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="7">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
-      <c r="B62" s="4" t="s">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
+      <c r="B62" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="7">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="45"/>
-      <c r="B63" s="4" t="s">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="38"/>
+      <c r="B63" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="45"/>
-      <c r="B64" s="4" t="s">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
+      <c r="B64" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="45"/>
-      <c r="B65" s="4" t="s">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
+      <c r="B65" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="7">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>302</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="41" t="s">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="7">
+      <c r="E67" s="3"/>
+      <c r="F67" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="39"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="7">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="4" t="s">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="39"/>
+      <c r="B69" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="7">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="4" t="s">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+      <c r="B70" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="7">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="4" t="s">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
+      <c r="B71" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="7">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="4" t="s">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="39"/>
+      <c r="B72" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="4" t="s">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="39"/>
+      <c r="B73" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="7">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="4" t="s">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="39"/>
+      <c r="B74" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="4" t="s">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="39"/>
+      <c r="B75" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="4" t="s">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="39"/>
+      <c r="B76" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="7">
+      <c r="E76" s="3"/>
+      <c r="F76" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="4" t="s">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="39"/>
+      <c r="B77" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="7">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="4" t="s">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+      <c r="B78" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="7">
+      <c r="E78" s="3"/>
+      <c r="F78" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
-      <c r="B79" s="4" t="s">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="7">
+      <c r="E79" s="3"/>
+      <c r="F79" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="41"/>
-      <c r="B80" s="4" t="s">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="39"/>
+      <c r="B80" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="7" t="s">
+      <c r="E80" s="3"/>
+      <c r="F80" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="41"/>
-      <c r="B81" s="4" t="s">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="39"/>
+      <c r="B81" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="7" t="s">
+      <c r="E81" s="3"/>
+      <c r="F81" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="7">
+      <c r="E82" s="3"/>
+      <c r="F82" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="4" t="s">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="37"/>
+      <c r="B83" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="36" t="s">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="36"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="42"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="36"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="42"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="36"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="42"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>279</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="36"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="42"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>281</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
-      <c r="B89" s="4" t="s">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="42"/>
+      <c r="B89" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="36"/>
-      <c r="B90" s="4" t="s">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="42"/>
+      <c r="B90" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="36"/>
-      <c r="B91" s="4" t="s">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="42"/>
+      <c r="B91" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="10" t="s">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="42"/>
+      <c r="B92" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="36"/>
-      <c r="B93" s="4" t="s">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="42"/>
+      <c r="B93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -4618,13 +4761,14 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="36"/>
-      <c r="B94" s="4" t="s">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="42"/>
+      <c r="B94" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -4632,25 +4776,27 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="36"/>
-      <c r="B95" s="4" t="s">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="42"/>
+      <c r="B95" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
-      <c r="B96" s="4" t="s">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="42"/>
+      <c r="B96" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -4658,13 +4804,14 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="36"/>
-      <c r="B97" s="4" t="s">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="42"/>
+      <c r="B97" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -4672,13 +4819,14 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="36"/>
-      <c r="B98" s="4" t="s">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="42"/>
+      <c r="B98" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4686,13 +4834,14 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="36"/>
-      <c r="B99" s="4" t="s">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="42"/>
+      <c r="B99" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -4700,87 +4849,94 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="7">
+      <c r="F99" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="37" t="s">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
         <v>283</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="7">
+      <c r="F101" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="4" t="s">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="36"/>
+      <c r="B102" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="4" t="s">
+      <c r="F102" s="6"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="36"/>
+      <c r="B103" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="38"/>
-      <c r="B104" s="4" t="s">
+      <c r="F103" s="6"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="37"/>
+      <c r="B104" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="36" t="s">
+      <c r="F104" s="6"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>495</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="36"/>
-      <c r="B106" s="4" t="s">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="42"/>
+      <c r="B106" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -4788,13 +4944,14 @@
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="36"/>
-      <c r="B107" s="4" t="s">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="42"/>
+      <c r="B107" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -4804,27 +4961,29 @@
         <v>497</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="7">
+      <c r="F107" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="36" t="s">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="36"/>
-      <c r="B109" s="4" t="s">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="42"/>
+      <c r="B109" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -4832,44 +4991,47 @@
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="36" t="s">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="42" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>238</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="36"/>
-      <c r="B111" s="4" t="s">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="42"/>
+      <c r="B111" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="7">
+      <c r="F111" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="42"/>
       <c r="B112" s="1" t="s">
         <v>242</v>
       </c>
@@ -4880,32 +5042,34 @@
         <v>243</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="7">
+      <c r="F112" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="4" t="s">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="42"/>
+      <c r="B113" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="13" t="s">
         <v>499</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="36"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="42"/>
       <c r="B114" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>500</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -4914,13 +5078,14 @@
       <c r="E114" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="4" t="s">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="42"/>
+      <c r="B115" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C115" s="1"/>
@@ -4928,38 +5093,41 @@
         <v>248</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="7">
+      <c r="F115" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="36" t="s">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>249</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="7">
+      <c r="F116" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="4" t="s">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="42"/>
+      <c r="B117" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="7">
+      <c r="F117" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="36" t="s">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B118" s="1"/>
@@ -4968,37 +5136,40 @@
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="7">
+      <c r="F118" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
-      <c r="B119" s="4" t="s">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="42"/>
+      <c r="B119" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="7">
+      <c r="F119" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="42"/>
       <c r="B120" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="7">
+      <c r="F120" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="4" t="s">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="42"/>
+      <c r="B121" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -5006,12 +5177,13 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="7">
+      <c r="F121" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="36"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="42"/>
       <c r="B122" s="1" t="s">
         <v>256</v>
       </c>
@@ -5020,12 +5192,13 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="7">
+      <c r="F122" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="36" t="s">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="1"/>
@@ -5034,24 +5207,26 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="7">
+      <c r="F123" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="36"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="42"/>
       <c r="B124" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="7">
+      <c r="F124" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="36"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="42"/>
       <c r="B125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5060,12 +5235,13 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="7">
+      <c r="F125" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="36"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="42"/>
       <c r="B126" s="1" t="s">
         <v>254</v>
       </c>
@@ -5074,12 +5250,13 @@
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="7">
+      <c r="F126" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="36"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="42"/>
       <c r="B127" s="1" t="s">
         <v>256</v>
       </c>
@@ -5088,12 +5265,13 @@
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="7">
+      <c r="F127" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="36"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="42"/>
       <c r="B128" s="1" t="s">
         <v>263</v>
       </c>
@@ -5102,202 +5280,220 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="7">
+      <c r="F128" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="37" t="s">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>265</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="36"/>
       <c r="B130" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>268</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="7">
+      <c r="F130" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="36"/>
       <c r="B131" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="7">
+      <c r="F131" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="36"/>
       <c r="B132" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="7">
+      <c r="F132" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="36"/>
       <c r="B133" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="7">
+      <c r="F133" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="36"/>
       <c r="B134" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="7">
+      <c r="F134" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="36"/>
       <c r="B135" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="7">
+      <c r="F135" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="36"/>
       <c r="B136" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="7">
+      <c r="F136" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="36"/>
       <c r="B137" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="7">
+      <c r="F137" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="36"/>
       <c r="B138" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="7">
+      <c r="F138" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="38"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="37"/>
       <c r="B139" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="7">
+      <c r="F139" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="46" t="s">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>277</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="7">
+      <c r="F140" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="44"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="41"/>
       <c r="B141" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="7">
+      <c r="F141" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="37" t="s">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
       <c r="F142" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="40"/>
-      <c r="B143" s="4" t="s">
+      <c r="G142" s="55" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="36"/>
+      <c r="B143" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
       <c r="F143" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="40"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="36"/>
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -5307,9 +5503,10 @@
       <c r="F144" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="40"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="36"/>
       <c r="B145" s="1" t="s">
         <v>22</v>
       </c>
@@ -5319,9 +5516,10 @@
       <c r="F145" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="40"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="36"/>
       <c r="B146" s="1" t="s">
         <v>23</v>
       </c>
@@ -5331,9 +5529,10 @@
       <c r="F146" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="40"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="36"/>
       <c r="B147" s="1" t="s">
         <v>24</v>
       </c>
@@ -5343,9 +5542,10 @@
       <c r="F147" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="40"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="36"/>
       <c r="B148" s="1" t="s">
         <v>25</v>
       </c>
@@ -5355,9 +5555,10 @@
       <c r="F148" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="40"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="36"/>
       <c r="B149" s="1" t="s">
         <v>26</v>
       </c>
@@ -5367,9 +5568,10 @@
       <c r="F149" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="40"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="36"/>
       <c r="B150" s="1" t="s">
         <v>32</v>
       </c>
@@ -5379,9 +5581,10 @@
       <c r="F150" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="40"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="36"/>
       <c r="B151" s="1" t="s">
         <v>33</v>
       </c>
@@ -5391,9 +5594,10 @@
       <c r="F151" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="40"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="36"/>
       <c r="B152" s="1" t="s">
         <v>35</v>
       </c>
@@ -5403,9 +5607,10 @@
       <c r="F152" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="40"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="36"/>
       <c r="B153" s="1" t="s">
         <v>36</v>
       </c>
@@ -5415,9 +5620,10 @@
       <c r="F153" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="38"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="37"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5425,23 +5631,27 @@
       <c r="F154" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="37" t="s">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
       <c r="F155" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="40"/>
+      <c r="G155" s="55" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="36"/>
       <c r="B156" s="1" t="s">
         <v>30</v>
       </c>
@@ -5451,9 +5661,10 @@
       <c r="F156" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="40"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="36"/>
       <c r="B157" s="1" t="s">
         <v>37</v>
       </c>
@@ -5463,9 +5674,10 @@
       <c r="F157" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="40"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="36"/>
       <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
@@ -5475,9 +5687,10 @@
       <c r="F158" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="40"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="36"/>
       <c r="B159" s="1" t="s">
         <v>41</v>
       </c>
@@ -5489,9 +5702,10 @@
       <c r="F159" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="40"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="36"/>
       <c r="B160" s="1" t="s">
         <v>39</v>
       </c>
@@ -5503,9 +5717,10 @@
       <c r="F160" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="38"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="37"/>
       <c r="B161" s="1" t="s">
         <v>43</v>
       </c>
@@ -5515,1845 +5730,1995 @@
       <c r="F161" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A162" s="37" t="s">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="7">
+        <v>13</v>
+      </c>
+      <c r="G162" s="55" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="36"/>
+      <c r="B163" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="7">
+        <v>13</v>
+      </c>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="36"/>
+      <c r="B164" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="7">
+        <v>13</v>
+      </c>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="36"/>
+      <c r="B165" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="7">
+        <v>13</v>
+      </c>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="36"/>
+      <c r="B166" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="7">
+        <v>13</v>
+      </c>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="37"/>
+      <c r="B167" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="7">
+        <v>13</v>
+      </c>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A168" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="4" t="s">
+      <c r="B168" s="1"/>
+      <c r="C168" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D168" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F162" s="8">
+      <c r="F168" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="38"/>
-      <c r="B163" s="1" t="s">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="37"/>
+      <c r="B169" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="8">
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="42" t="s">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C170" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F164" s="8">
+      <c r="F170" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="43"/>
-      <c r="B165" s="8" t="s">
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="45"/>
+      <c r="B171" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F165" s="8">
+      <c r="F171" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="43"/>
-      <c r="B166" s="8" t="s">
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="45"/>
+      <c r="B172" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C172" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F166" s="8">
+      <c r="F172" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="44"/>
-      <c r="B167" s="8" t="s">
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="41"/>
+      <c r="B173" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C173" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F167" s="8">
+      <c r="F173" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A168" s="11" t="s">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="7" t="s">
+      <c r="B174" s="1"/>
+      <c r="C174" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="4" t="s">
+      <c r="D174" s="1"/>
+      <c r="E174" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F168" s="8">
+      <c r="F174" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A169" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
-      <c r="B171" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="40"/>
-      <c r="B174" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="40"/>
-      <c r="B175" s="1" t="s">
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="39"/>
+      <c r="B176" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="39"/>
+      <c r="B177" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="39"/>
+      <c r="B178" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="39"/>
+      <c r="B179" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="39"/>
+      <c r="B180" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A181" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="6">
+        <v>14</v>
+      </c>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="36"/>
+      <c r="B182" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="6">
+        <v>14</v>
+      </c>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="36"/>
+      <c r="B183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="6">
+        <v>14</v>
+      </c>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="36"/>
+      <c r="B184" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="40"/>
-      <c r="B176" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="40"/>
-      <c r="B177" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="38"/>
-      <c r="B178" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="41"/>
-      <c r="B180" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="41"/>
-      <c r="B181" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="41"/>
-      <c r="B182" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="41"/>
-      <c r="B183" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="41"/>
-      <c r="B184" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A185" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="4" t="s">
-        <v>317</v>
+      <c r="C184" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="6">
+        <v>14</v>
+      </c>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="36"/>
+      <c r="B185" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="40"/>
-      <c r="B186" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>318</v>
+      <c r="F185" s="6">
+        <v>14</v>
+      </c>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="36"/>
+      <c r="B186" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="40"/>
-      <c r="B187" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>320</v>
+      <c r="F186" s="6">
+        <v>14</v>
+      </c>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="36"/>
+      <c r="B187" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="40"/>
-      <c r="B188" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>321</v>
+      <c r="F187" s="6">
+        <v>14</v>
+      </c>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="36"/>
+      <c r="B188" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="40"/>
-      <c r="B189" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>323</v>
+      <c r="F188" s="6">
+        <v>14</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="36"/>
+      <c r="B189" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="40"/>
-      <c r="B190" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>325</v>
+      <c r="F189" s="6">
+        <v>14</v>
+      </c>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="36"/>
+      <c r="B190" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="40"/>
-      <c r="B191" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>327</v>
+      <c r="F190" s="6">
+        <v>14</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="37"/>
+      <c r="B191" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="40"/>
-      <c r="B192" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>329</v>
+      <c r="F191" s="6">
+        <v>14</v>
+      </c>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="40"/>
-      <c r="B193" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>331</v>
+      <c r="F192" s="6">
+        <v>14</v>
+      </c>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="36"/>
+      <c r="B193" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="40"/>
-      <c r="B194" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>333</v>
+      <c r="F193" s="6">
+        <v>14</v>
+      </c>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="36"/>
+      <c r="B194" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="38"/>
-      <c r="B195" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>335</v>
+      <c r="F194" s="6">
+        <v>14</v>
+      </c>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="36"/>
+      <c r="B195" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="4" t="s">
-        <v>336</v>
+      <c r="F195" s="6">
+        <v>14</v>
+      </c>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="36"/>
+      <c r="B196" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="40"/>
-      <c r="B197" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>337</v>
+      <c r="F196" s="6">
+        <v>14</v>
+      </c>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="36"/>
+      <c r="B197" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="40"/>
-      <c r="B198" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>338</v>
+      <c r="F197" s="6">
+        <v>14</v>
+      </c>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="36"/>
+      <c r="B198" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="40"/>
-      <c r="B199" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>339</v>
+      <c r="F198" s="6">
+        <v>14</v>
+      </c>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="36"/>
+      <c r="B199" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="40"/>
-      <c r="B200" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>340</v>
+      <c r="F199" s="6">
+        <v>14</v>
+      </c>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="36"/>
+      <c r="B200" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="40"/>
-      <c r="B201" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>342</v>
+      <c r="F200" s="6">
+        <v>14</v>
+      </c>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="36"/>
+      <c r="B201" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="40"/>
-      <c r="B202" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>344</v>
+      <c r="F201" s="6">
+        <v>14</v>
+      </c>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="37"/>
+      <c r="B202" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="40"/>
-      <c r="B203" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>349</v>
+      <c r="F202" s="6">
+        <v>14</v>
+      </c>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A203" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="40"/>
-      <c r="B204" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>351</v>
+      <c r="F203" s="6">
+        <v>14</v>
+      </c>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="42"/>
+      <c r="B204" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="40"/>
-      <c r="B205" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>353</v>
+      <c r="F204" s="6">
+        <v>14</v>
+      </c>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="42"/>
+      <c r="B205" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="38"/>
-      <c r="B206" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>354</v>
+      <c r="F205" s="6">
+        <v>14</v>
+      </c>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="42"/>
+      <c r="B206" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="4" t="s">
-        <v>356</v>
+      <c r="F206" s="6">
+        <v>14</v>
+      </c>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="42"/>
+      <c r="B207" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="36"/>
-      <c r="B208" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>357</v>
+      <c r="F207" s="6">
+        <v>14</v>
+      </c>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="42"/>
+      <c r="B208" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="36"/>
-      <c r="B209" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>358</v>
+      <c r="F208" s="6">
+        <v>14</v>
+      </c>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="42"/>
+      <c r="B209" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="36"/>
-      <c r="B210" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>360</v>
+      <c r="F209" s="6">
+        <v>14</v>
+      </c>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="42"/>
+      <c r="B210" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="36"/>
-      <c r="B211" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>362</v>
+      <c r="F210" s="6">
+        <v>14</v>
+      </c>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="42"/>
+      <c r="B211" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="36"/>
-      <c r="B212" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>364</v>
+      <c r="F211" s="6">
+        <v>14</v>
+      </c>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="42"/>
+      <c r="B212" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="36"/>
-      <c r="B213" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>366</v>
+      <c r="F212" s="6">
+        <v>14</v>
+      </c>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="42"/>
+      <c r="B213" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="36"/>
-      <c r="B214" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>368</v>
+      <c r="F213" s="6">
+        <v>14</v>
+      </c>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="42"/>
+      <c r="B214" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="36"/>
-      <c r="B215" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>370</v>
+      <c r="F214" s="6">
+        <v>14</v>
+      </c>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="42"/>
+      <c r="B215" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="36"/>
-      <c r="B216" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>372</v>
+      <c r="F215" s="6">
+        <v>14</v>
+      </c>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="42"/>
+      <c r="B216" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="36"/>
-      <c r="B217" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>374</v>
+      <c r="F216" s="6">
+        <v>14</v>
+      </c>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="42"/>
+      <c r="B217" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="36"/>
-      <c r="B218" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>376</v>
+      <c r="F217" s="6">
+        <v>14</v>
+      </c>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="42"/>
+      <c r="B218" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="36"/>
-      <c r="B219" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>378</v>
+      <c r="F218" s="6">
+        <v>14</v>
+      </c>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="42"/>
+      <c r="B219" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="36"/>
-      <c r="B220" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>380</v>
+      <c r="F219" s="6">
+        <v>14</v>
+      </c>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A220" s="42"/>
+      <c r="B220" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="36"/>
-      <c r="B221" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>382</v>
+      <c r="F220" s="6">
+        <v>14</v>
+      </c>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="42"/>
+      <c r="B221" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="36"/>
-      <c r="B222" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>384</v>
+      <c r="F221" s="6">
+        <v>14</v>
+      </c>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="42"/>
+      <c r="B222" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="36"/>
-      <c r="B223" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>386</v>
+      <c r="F222" s="6">
+        <v>14</v>
+      </c>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="42"/>
+      <c r="B223" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="36"/>
-      <c r="B224" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>388</v>
+      <c r="F223" s="6">
+        <v>14</v>
+      </c>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="36"/>
-      <c r="B225" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>390</v>
+      <c r="F224" s="6">
+        <v>14</v>
+      </c>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="42"/>
+      <c r="B225" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="36"/>
-      <c r="B226" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>391</v>
+      <c r="F225" s="6">
+        <v>14</v>
+      </c>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="42"/>
+      <c r="B226" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="36"/>
-      <c r="B227" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>393</v>
+      <c r="F226" s="6">
+        <v>14</v>
+      </c>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="42"/>
+      <c r="B227" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B228" s="1"/>
-      <c r="C228" s="4" t="s">
-        <v>418</v>
+      <c r="F227" s="6">
+        <v>14</v>
+      </c>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="42"/>
+      <c r="B228" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="36"/>
-      <c r="B229" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>394</v>
+      <c r="F228" s="6">
+        <v>14</v>
+      </c>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="42"/>
+      <c r="B229" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="36"/>
-      <c r="B230" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>395</v>
+      <c r="F229" s="6">
+        <v>14</v>
+      </c>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="42"/>
+      <c r="B230" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="36"/>
-      <c r="B231" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>396</v>
+      <c r="F230" s="6">
+        <v>14</v>
+      </c>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="42"/>
+      <c r="B231" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="36"/>
-      <c r="B232" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>397</v>
+      <c r="F231" s="6">
+        <v>14</v>
+      </c>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="42"/>
+      <c r="B232" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="36"/>
-      <c r="B233" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>399</v>
+      <c r="F232" s="6">
+        <v>14</v>
+      </c>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="42"/>
+      <c r="B233" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="36"/>
-      <c r="B234" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>401</v>
+      <c r="F233" s="6">
+        <v>14</v>
+      </c>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="42"/>
+      <c r="B234" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="36"/>
-      <c r="B235" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>403</v>
+      <c r="F234" s="6">
+        <v>14</v>
+      </c>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="42"/>
+      <c r="B235" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="36"/>
-      <c r="B236" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>404</v>
+      <c r="F235" s="6">
+        <v>14</v>
+      </c>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="42"/>
+      <c r="B236" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="36"/>
-      <c r="B237" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>405</v>
+      <c r="F236" s="6">
+        <v>14</v>
+      </c>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="42"/>
+      <c r="B237" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="36"/>
-      <c r="B238" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>407</v>
+      <c r="F237" s="6">
+        <v>14</v>
+      </c>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="42"/>
+      <c r="B238" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="36"/>
-      <c r="B239" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>408</v>
+      <c r="F238" s="6">
+        <v>14</v>
+      </c>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="42"/>
+      <c r="B239" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="36"/>
-      <c r="B240" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>409</v>
+      <c r="F239" s="6">
+        <v>14</v>
+      </c>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="42"/>
+      <c r="B240" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="36"/>
-      <c r="B241" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>411</v>
+      <c r="F240" s="6">
+        <v>14</v>
+      </c>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="42"/>
+      <c r="B241" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="36"/>
-      <c r="B242" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>413</v>
+      <c r="F241" s="6">
+        <v>14</v>
+      </c>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="42"/>
+      <c r="B242" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="36"/>
-      <c r="B243" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>415</v>
+      <c r="F242" s="6">
+        <v>14</v>
+      </c>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A243" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="36"/>
-      <c r="B244" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>390</v>
+      <c r="F243" s="6">
+        <v>14</v>
+      </c>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="43"/>
+      <c r="B244" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="36"/>
-      <c r="B245" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>416</v>
+      <c r="F244" s="6">
+        <v>14</v>
+      </c>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="43"/>
+      <c r="B245" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="36"/>
-      <c r="B246" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>417</v>
+      <c r="F245" s="6">
+        <v>14</v>
+      </c>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="43"/>
+      <c r="B246" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B247" s="1"/>
-      <c r="C247" s="4" t="s">
-        <v>419</v>
+      <c r="F246" s="6">
+        <v>14</v>
+      </c>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="43"/>
+      <c r="B247" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="39"/>
-      <c r="B248" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>420</v>
+      <c r="F247" s="6">
+        <v>14</v>
+      </c>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="43"/>
+      <c r="B248" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="39"/>
-      <c r="B249" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>421</v>
+      <c r="F248" s="6">
+        <v>14</v>
+      </c>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="43"/>
+      <c r="B249" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="39"/>
-      <c r="B250" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>422</v>
+      <c r="F249" s="6">
+        <v>14</v>
+      </c>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="43"/>
+      <c r="B250" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="39"/>
-      <c r="B251" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>423</v>
+      <c r="F250" s="6">
+        <v>14</v>
+      </c>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="43"/>
+      <c r="B251" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="39"/>
-      <c r="B252" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>424</v>
+      <c r="F251" s="6">
+        <v>14</v>
+      </c>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="43"/>
+      <c r="B252" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="39"/>
-      <c r="B253" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>426</v>
+      <c r="F252" s="6">
+        <v>14</v>
+      </c>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="43"/>
+      <c r="B253" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="39"/>
-      <c r="B254" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>428</v>
+      <c r="F253" s="6">
+        <v>14</v>
+      </c>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="39"/>
-      <c r="B255" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>429</v>
+      <c r="F254" s="6">
+        <v>14</v>
+      </c>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="42"/>
+      <c r="B255" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="39"/>
-      <c r="B256" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>431</v>
+      <c r="F255" s="6">
+        <v>14</v>
+      </c>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="42"/>
+      <c r="B256" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="39"/>
-      <c r="B257" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>433</v>
+      <c r="F256" s="6">
+        <v>14</v>
+      </c>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="42"/>
+      <c r="B257" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A258" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B258" s="1"/>
-      <c r="C258" s="4" t="s">
-        <v>434</v>
+      <c r="F257" s="6">
+        <v>14</v>
+      </c>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="42"/>
+      <c r="B258" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A259" s="36"/>
-      <c r="B259" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>435</v>
+      <c r="F258" s="6">
+        <v>14</v>
+      </c>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="42"/>
+      <c r="B259" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="36"/>
-      <c r="B260" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>436</v>
+      <c r="F259" s="6">
+        <v>14</v>
+      </c>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="42"/>
+      <c r="B260" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="36"/>
-      <c r="B261" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>437</v>
+      <c r="F260" s="6">
+        <v>14</v>
+      </c>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="42"/>
+      <c r="B261" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
-      <c r="F261" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="36"/>
-      <c r="B262" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>438</v>
+      <c r="F261" s="6">
+        <v>14</v>
+      </c>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="42"/>
+      <c r="B262" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
-      <c r="F262" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="36"/>
-      <c r="B263" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>439</v>
+      <c r="F262" s="6">
+        <v>14</v>
+      </c>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="42"/>
+      <c r="B263" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
-      <c r="F263" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="36"/>
-      <c r="B264" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>441</v>
+      <c r="F263" s="6">
+        <v>14</v>
+      </c>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A264" s="42"/>
+      <c r="B264" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
-      <c r="F264" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="36"/>
-      <c r="B265" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>443</v>
+      <c r="F264" s="6">
+        <v>14</v>
+      </c>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="42"/>
+      <c r="B265" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
-      <c r="F265" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="36"/>
-      <c r="B266" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>444</v>
+      <c r="F265" s="6">
+        <v>14</v>
+      </c>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="42"/>
+      <c r="B266" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
-      <c r="F266" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="36"/>
-      <c r="B267" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>445</v>
+      <c r="F266" s="6">
+        <v>14</v>
+      </c>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="42"/>
+      <c r="B267" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
-      <c r="F267" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A268" s="36"/>
-      <c r="B268" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>446</v>
+      <c r="F267" s="6">
+        <v>14</v>
+      </c>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="42"/>
+      <c r="B268" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
-      <c r="F268" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="36"/>
-      <c r="B269" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>448</v>
+      <c r="F268" s="6">
+        <v>14</v>
+      </c>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="42"/>
+      <c r="B269" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
-      <c r="F269" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="36"/>
-      <c r="B270" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>450</v>
+      <c r="F269" s="6">
+        <v>14</v>
+      </c>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="42"/>
+      <c r="B270" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
-      <c r="F270" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="36"/>
-      <c r="B271" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>452</v>
+      <c r="F270" s="6">
+        <v>14</v>
+      </c>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="42"/>
+      <c r="B271" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
-      <c r="F271" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="36"/>
-      <c r="B272" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>454</v>
+      <c r="F271" s="6">
+        <v>14</v>
+      </c>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="42"/>
+      <c r="B272" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
-      <c r="F272" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="36"/>
-      <c r="B273" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>390</v>
+      <c r="F272" s="6">
+        <v>14</v>
+      </c>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A273" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
-      <c r="F273" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="36"/>
-      <c r="B274" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>456</v>
+      <c r="F273" s="6">
+        <v>14</v>
+      </c>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="42"/>
+      <c r="B274" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
-      <c r="F274" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="36"/>
-      <c r="B275" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>457</v>
+      <c r="F274" s="6">
+        <v>14</v>
+      </c>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="42"/>
+      <c r="B275" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
-      <c r="F275" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="36"/>
-      <c r="B276" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>458</v>
+      <c r="F275" s="6">
+        <v>14</v>
+      </c>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A276" s="42"/>
+      <c r="B276" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
-      <c r="F276" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B277" s="1"/>
-      <c r="C277" s="4" t="s">
-        <v>459</v>
+      <c r="F276" s="6">
+        <v>14</v>
+      </c>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="42"/>
+      <c r="B277" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
-      <c r="F277" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="36"/>
-      <c r="B278" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>460</v>
+      <c r="F277" s="6">
+        <v>14</v>
+      </c>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="42"/>
+      <c r="B278" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
-      <c r="F278" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="36"/>
-      <c r="B279" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>461</v>
+      <c r="F278" s="6">
+        <v>14</v>
+      </c>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="42"/>
+      <c r="B279" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
-      <c r="F279" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A280" s="36"/>
-      <c r="B280" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>462</v>
+      <c r="F279" s="6">
+        <v>14</v>
+      </c>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A280" s="42"/>
+      <c r="B280" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
-      <c r="F280" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="36"/>
-      <c r="B281" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>463</v>
+      <c r="F280" s="6">
+        <v>14</v>
+      </c>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="42"/>
+      <c r="B281" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
-      <c r="F281" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="36"/>
-      <c r="B282" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>465</v>
+      <c r="F281" s="6">
+        <v>14</v>
+      </c>
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A282" s="42"/>
+      <c r="B282" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
-      <c r="F282" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="36"/>
-      <c r="B283" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>467</v>
+      <c r="F282" s="6">
+        <v>14</v>
+      </c>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A283" s="42"/>
+      <c r="B283" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
-      <c r="F283" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="36"/>
-      <c r="B284" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>468</v>
+      <c r="F283" s="6">
+        <v>14</v>
+      </c>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="42"/>
+      <c r="B284" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
-      <c r="F284" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="36"/>
-      <c r="B285" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>469</v>
+      <c r="F284" s="6">
+        <v>14</v>
+      </c>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="42"/>
+      <c r="B285" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
-      <c r="F285" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="36"/>
-      <c r="B286" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>470</v>
+      <c r="F285" s="6">
+        <v>14</v>
+      </c>
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="42"/>
+      <c r="B286" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
-      <c r="F286" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="36"/>
-      <c r="B287" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>472</v>
+      <c r="F286" s="6">
+        <v>14</v>
+      </c>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="42"/>
+      <c r="B287" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
-      <c r="F287" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="36"/>
-      <c r="B288" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>474</v>
+      <c r="F287" s="6">
+        <v>14</v>
+      </c>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="42"/>
+      <c r="B288" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
-      <c r="F288" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="36"/>
-      <c r="B289" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="36"/>
-      <c r="B290" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="36"/>
-      <c r="B291" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="36"/>
-      <c r="B292" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="7">
-        <v>14</v>
-      </c>
+      <c r="F288" s="6">
+        <v>14</v>
+      </c>
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B289" s="53"/>
+      <c r="C289" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D289" s="53"/>
+      <c r="E289" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="F289" s="53">
+        <v>11</v>
+      </c>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B290" s="53"/>
+      <c r="C290" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D290" s="53"/>
+      <c r="E290" s="45"/>
+      <c r="F290" s="53">
+        <v>11</v>
+      </c>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="52"/>
+      <c r="B291" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="C291" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D291" s="53"/>
+      <c r="E291" s="45"/>
+      <c r="F291" s="53">
+        <v>11</v>
+      </c>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A292" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="B292" s="53"/>
+      <c r="C292" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D292" s="53"/>
+      <c r="E292" s="41"/>
+      <c r="F292" s="53">
+        <v>11</v>
+      </c>
+      <c r="G292" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="E289:E292"/>
+    <mergeCell ref="A254:A272"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A203:A223"/>
+    <mergeCell ref="A224:A242"/>
+    <mergeCell ref="A243:A253"/>
+    <mergeCell ref="A181:A191"/>
+    <mergeCell ref="A192:A202"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A162:A167"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -7370,19 +7735,6 @@
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A115"/>
-    <mergeCell ref="A258:A276"/>
-    <mergeCell ref="A277:A292"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A207:A227"/>
-    <mergeCell ref="A228:A246"/>
-    <mergeCell ref="A247:A257"/>
-    <mergeCell ref="A185:A195"/>
-    <mergeCell ref="A196:A206"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>

--- a/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
+++ b/Vocabulary/BoreholeIE_consolidated_vocab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" tabRatio="587" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spreadsheet_Metadata" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="542">
   <si>
     <t>Concept</t>
   </si>
@@ -1597,9 +1597,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>light orange</t>
-  </si>
-  <si>
     <t xml:space="preserve">BhML rev:6 (EPOS) rationale on logs is the following so far:
 - GeologyLog / LogResult / LogResultElement for discrete logs (where we can identify intervals) building on GWML2 (logical model)
 - for continuous observations or 'outOfBand' situations (large, binary files) the idea is to have an 'OutOfBandResult' type of result </t>
@@ -1671,9 +1668,6 @@
     <t>20190401-1400</t>
   </si>
   <si>
-    <t>light green</t>
-  </si>
-  <si>
     <t>outerRim of BhML, more a reuse of standardized description of Borehole Logs -&gt; out of BhML scope https://github.com/opengeospatial/boreholeie/issues/32</t>
   </si>
   <si>
@@ -1687,6 +1681,18 @@
   </si>
   <si>
     <t>Encoding/Serialization issue not modelling</t>
+  </si>
+  <si>
+    <t>20190415-1400</t>
+  </si>
+  <si>
+    <t>color code removed</t>
+  </si>
+  <si>
+    <t>bold in light blue</t>
+  </si>
+  <si>
+    <t>bold in light green</t>
   </si>
 </sst>
 </file>
@@ -1751,13 +1757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,7 +1833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1867,18 +1873,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1890,43 +1886,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1935,42 +1898,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2254,19 +2266,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>507</v>
       </c>
@@ -2274,30 +2287,37 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>508</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="D2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>510</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>511</v>
+        <v>540</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2306,8 +2326,8 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2318,81 +2338,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="21">
         <v>2</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="21">
         <v>3</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="21">
         <v>4</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="21">
         <v>5</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="21">
         <v>6</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="21">
         <v>7</v>
       </c>
-      <c r="I1" s="25">
-        <v>8</v>
-      </c>
-      <c r="J1" s="25">
+      <c r="I1" s="21">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21">
         <v>11</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="21">
         <v>13</v>
       </c>
-      <c r="L1" s="25">
-        <v>14</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="21">
+        <v>14</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="24" t="s">
+      <c r="B2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -2416,8 +2436,8 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="55" t="s">
-        <v>539</v>
+      <c r="M3" s="48" t="s">
+        <v>537</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>8</v>
@@ -2440,7 +2460,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="37" t="s">
         <v>503</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -2464,7 +2484,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="37" t="s">
         <v>504</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -2488,7 +2508,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="37" t="s">
         <v>505</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -2516,8 +2536,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="21" t="s">
-        <v>517</v>
+      <c r="M7" s="38" t="s">
+        <v>516</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>8</v>
@@ -2540,7 +2560,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="37" t="s">
         <v>506</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -2570,8 +2590,8 @@
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="31" t="s">
-        <v>512</v>
+      <c r="M9" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>8</v>
@@ -2594,7 +2614,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2616,7 +2636,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="31"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2658,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="17"/>
-      <c r="M13" s="31"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="5" t="s">
         <v>8</v>
       </c>
@@ -2682,8 +2702,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="20" t="s">
-        <v>515</v>
+      <c r="M14" s="37" t="s">
+        <v>514</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>8</v>
@@ -2706,8 +2726,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="20" t="s">
-        <v>515</v>
+      <c r="M15" s="37" t="s">
+        <v>514</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>8</v>
@@ -2730,8 +2750,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="21" t="s">
-        <v>513</v>
+      <c r="M16" s="38" t="s">
+        <v>512</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>8</v>
@@ -2754,8 +2774,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="21" t="s">
-        <v>516</v>
+      <c r="M17" s="38" t="s">
+        <v>515</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>8</v>
@@ -2778,8 +2798,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="20" t="s">
-        <v>518</v>
+      <c r="M18" s="37" t="s">
+        <v>517</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>8</v>
@@ -2802,8 +2822,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="20" t="s">
-        <v>519</v>
+      <c r="M19" s="37" t="s">
+        <v>518</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>8</v>
@@ -2826,8 +2846,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="32" t="s">
-        <v>514</v>
+      <c r="M20" s="40" t="s">
+        <v>513</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>8</v>
@@ -2850,7 +2870,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="33"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="5" t="s">
         <v>8</v>
       </c>
@@ -2872,8 +2892,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="48" t="s">
-        <v>530</v>
+      <c r="M22" s="49" t="s">
+        <v>529</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>8</v>
@@ -2894,8 +2914,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="20" t="s">
-        <v>520</v>
+      <c r="M23" s="37" t="s">
+        <v>519</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>8</v>
@@ -2918,8 +2938,8 @@
         <v>8</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="48" t="s">
-        <v>520</v>
+      <c r="M24" s="49" t="s">
+        <v>519</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>8</v>
@@ -2942,8 +2962,8 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="20" t="s">
-        <v>522</v>
+      <c r="M25" s="37" t="s">
+        <v>521</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>8</v>
@@ -2966,8 +2986,8 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="29" t="s">
-        <v>521</v>
+      <c r="M26" s="42" t="s">
+        <v>520</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>8</v>
@@ -2990,7 +3010,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
-      <c r="M27" s="34"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="5" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3032,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
-      <c r="M28" s="34"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="5" t="s">
         <v>8</v>
       </c>
@@ -3034,7 +3054,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="30"/>
+      <c r="M29" s="44"/>
       <c r="N29" s="5" t="s">
         <v>8</v>
       </c>
@@ -3056,8 +3076,8 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="28" t="s">
-        <v>529</v>
+      <c r="M30" s="45" t="s">
+        <v>528</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>8</v>
@@ -3082,8 +3102,8 @@
       <c r="L31" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="29" t="s">
-        <v>523</v>
+      <c r="M31" s="42" t="s">
+        <v>522</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>8</v>
@@ -3106,7 +3126,7 @@
       <c r="L32" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="30"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="5" t="s">
         <v>8</v>
       </c>
@@ -3128,8 +3148,8 @@
       <c r="L33" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>524</v>
+      <c r="M33" s="37" t="s">
+        <v>523</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>8</v>
@@ -3152,8 +3172,8 @@
       <c r="L34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="20" t="s">
-        <v>525</v>
+      <c r="M34" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>8</v>
@@ -3176,8 +3196,8 @@
       <c r="L35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="29" t="s">
-        <v>528</v>
+      <c r="M35" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>8</v>
@@ -3200,7 +3220,7 @@
       <c r="L36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="30"/>
+      <c r="M36" s="44"/>
       <c r="N36" s="5" t="s">
         <v>8</v>
       </c>
@@ -3222,8 +3242,8 @@
       <c r="L37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="20" t="s">
-        <v>527</v>
+      <c r="M37" s="37" t="s">
+        <v>526</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>8</v>
@@ -3246,8 +3266,8 @@
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>524</v>
+      <c r="M38" s="37" t="s">
+        <v>523</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>8</v>
@@ -3292,8 +3312,8 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="49" t="s">
-        <v>536</v>
+      <c r="M40" s="50" t="s">
+        <v>534</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>8</v>
@@ -3316,7 +3336,7 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="50"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="5" t="s">
         <v>8</v>
       </c>
@@ -3338,19 +3358,19 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="51"/>
+      <c r="M42" s="52"/>
       <c r="N42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M40:M42"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="M9:M13"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="M26:M29"/>
     <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M40:M42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3362,8 +3382,8 @@
   <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3378,30 +3398,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>538</v>
+      <c r="G1" s="24" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
@@ -3418,7 +3438,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -3435,7 +3455,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3448,7 +3468,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3463,7 +3483,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -3480,7 +3500,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
@@ -3495,7 +3515,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,7 +3530,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,7 +3545,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3540,7 +3560,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3555,7 +3575,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
@@ -3570,7 +3590,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
@@ -3585,7 +3605,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3600,7 +3620,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -3615,7 +3635,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3630,7 +3650,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
@@ -3645,7 +3665,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -3658,7 +3678,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -3671,7 +3691,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
@@ -3684,7 +3704,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
@@ -3697,7 +3717,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
@@ -3710,7 +3730,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
@@ -3723,7 +3743,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
@@ -3736,7 +3756,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3769,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
@@ -3762,7 +3782,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
@@ -3775,7 +3795,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
@@ -3788,7 +3808,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1"/>
@@ -3801,7 +3821,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3816,7 +3836,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
@@ -3831,7 +3851,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
@@ -3846,7 +3866,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
@@ -3861,7 +3881,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -3876,7 +3896,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
@@ -3891,7 +3911,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
@@ -3906,7 +3926,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
@@ -3921,7 +3941,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="1" t="s">
         <v>129</v>
       </c>
@@ -3936,7 +3956,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="1" t="s">
         <v>131</v>
       </c>
@@ -3951,7 +3971,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="1" t="s">
         <v>133</v>
       </c>
@@ -3966,7 +3986,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
@@ -3981,7 +4001,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3996,7 +4016,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -4011,7 +4031,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -4026,7 +4046,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
@@ -4041,7 +4061,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
@@ -4056,7 +4076,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="1" t="s">
         <v>147</v>
       </c>
@@ -4071,7 +4091,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="1" t="s">
         <v>149</v>
       </c>
@@ -4086,7 +4106,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
@@ -4101,7 +4121,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="1" t="s">
         <v>153</v>
       </c>
@@ -4116,7 +4136,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
@@ -4131,7 +4151,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4146,7 +4166,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4161,7 +4181,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
@@ -4176,7 +4196,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="1"/>
@@ -4191,7 +4211,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
       </c>
@@ -4204,7 +4224,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="1" t="s">
         <v>164</v>
       </c>
@@ -4221,7 +4241,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="1" t="s">
         <v>165</v>
       </c>
@@ -4238,7 +4258,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
       </c>
@@ -4255,7 +4275,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="1" t="s">
         <v>167</v>
       </c>
@@ -4268,7 +4288,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="3"/>
@@ -4283,7 +4303,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="3" t="s">
         <v>169</v>
       </c>
@@ -4296,7 +4316,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="38"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="3" t="s">
         <v>170</v>
       </c>
@@ -4313,7 +4333,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="38"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="3" t="s">
         <v>171</v>
       </c>
@@ -4330,7 +4350,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="3" t="s">
         <v>172</v>
       </c>
@@ -4362,7 +4382,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="3"/>
@@ -4379,7 +4399,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
         <v>185</v>
@@ -4392,7 +4412,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="39"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="3" t="s">
         <v>180</v>
       </c>
@@ -4407,7 +4427,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="3" t="s">
         <v>181</v>
       </c>
@@ -4422,7 +4442,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="3" t="s">
         <v>182</v>
       </c>
@@ -4437,7 +4457,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="3" t="s">
         <v>186</v>
       </c>
@@ -4452,7 +4472,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="3" t="s">
         <v>188</v>
       </c>
@@ -4465,7 +4485,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="3" t="s">
         <v>189</v>
       </c>
@@ -4482,7 +4502,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="3" t="s">
         <v>192</v>
       </c>
@@ -4499,7 +4519,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="3" t="s">
         <v>195</v>
       </c>
@@ -4516,7 +4536,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="3" t="s">
         <v>198</v>
       </c>
@@ -4531,7 +4551,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="3" t="s">
         <v>200</v>
       </c>
@@ -4548,7 +4568,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="3" t="s">
         <v>202</v>
       </c>
@@ -4565,7 +4585,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="3" t="s">
         <v>205</v>
       </c>
@@ -4582,7 +4602,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="3" t="s">
         <v>208</v>
       </c>
@@ -4599,7 +4619,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="3"/>
@@ -4616,7 +4636,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="3" t="s">
         <v>288</v>
       </c>
@@ -4629,7 +4649,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="27" t="s">
         <v>282</v>
       </c>
       <c r="B84" s="1"/>
@@ -4644,7 +4664,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
         <v>219</v>
@@ -4659,7 +4679,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
+      <c r="A86" s="27"/>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
         <v>229</v>
@@ -4672,7 +4692,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
         <v>279</v>
@@ -4685,7 +4705,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>281</v>
@@ -4698,7 +4718,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="3" t="s">
         <v>180</v>
       </c>
@@ -4711,7 +4731,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="3" t="s">
         <v>181</v>
       </c>
@@ -4724,7 +4744,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="3" t="s">
         <v>230</v>
       </c>
@@ -4737,7 +4757,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="9" t="s">
         <v>218</v>
       </c>
@@ -4752,7 +4772,7 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="3" t="s">
         <v>9</v>
       </c>
@@ -4767,7 +4787,7 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
+      <c r="A94" s="27"/>
       <c r="B94" s="3" t="s">
         <v>215</v>
       </c>
@@ -4782,7 +4802,7 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
+      <c r="A95" s="27"/>
       <c r="B95" s="3" t="s">
         <v>216</v>
       </c>
@@ -4795,7 +4815,7 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
+      <c r="A96" s="27"/>
       <c r="B96" s="3" t="s">
         <v>221</v>
       </c>
@@ -4810,7 +4830,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="3" t="s">
         <v>223</v>
       </c>
@@ -4825,7 +4845,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
+      <c r="A98" s="27"/>
       <c r="B98" s="3" t="s">
         <v>225</v>
       </c>
@@ -4840,7 +4860,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="42"/>
+      <c r="A99" s="27"/>
       <c r="B99" s="3" t="s">
         <v>227</v>
       </c>
@@ -4870,7 +4890,7 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B101" s="3"/>
@@ -4885,7 +4905,7 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="36"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="3" t="s">
         <v>284</v>
       </c>
@@ -4896,7 +4916,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="3" t="s">
         <v>285</v>
       </c>
@@ -4907,7 +4927,7 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="37"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="3" t="s">
         <v>286</v>
       </c>
@@ -4918,7 +4938,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="1"/>
@@ -4935,7 +4955,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
+      <c r="A106" s="27"/>
       <c r="B106" s="3" t="s">
         <v>232</v>
       </c>
@@ -4950,7 +4970,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
+      <c r="A107" s="27"/>
       <c r="B107" s="3" t="s">
         <v>233</v>
       </c>
@@ -4967,7 +4987,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="1"/>
@@ -4982,7 +5002,7 @@
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
+      <c r="A109" s="27"/>
       <c r="B109" s="3" t="s">
         <v>234</v>
       </c>
@@ -4997,7 +5017,7 @@
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="27" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="1"/>
@@ -5016,7 +5036,7 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="42"/>
+      <c r="A111" s="27"/>
       <c r="B111" s="3" t="s">
         <v>240</v>
       </c>
@@ -5031,7 +5051,7 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="1" t="s">
         <v>242</v>
       </c>
@@ -5048,7 +5068,7 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="42"/>
+      <c r="A113" s="27"/>
       <c r="B113" s="3" t="s">
         <v>244</v>
       </c>
@@ -5065,7 +5085,7 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="42"/>
+      <c r="A114" s="27"/>
       <c r="B114" s="1" t="s">
         <v>245</v>
       </c>
@@ -5084,7 +5104,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="42"/>
+      <c r="A115" s="27"/>
       <c r="B115" s="3" t="s">
         <v>247</v>
       </c>
@@ -5099,7 +5119,7 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="1"/>
@@ -5114,7 +5134,7 @@
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="42"/>
+      <c r="A117" s="27"/>
       <c r="B117" s="3" t="s">
         <v>250</v>
       </c>
@@ -5127,7 +5147,7 @@
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B118" s="1"/>
@@ -5142,7 +5162,7 @@
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
+      <c r="A119" s="27"/>
       <c r="B119" s="3" t="s">
         <v>252</v>
       </c>
@@ -5155,7 +5175,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="42"/>
+      <c r="A120" s="27"/>
       <c r="B120" s="1" t="s">
         <v>253</v>
       </c>
@@ -5168,7 +5188,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="42"/>
+      <c r="A121" s="27"/>
       <c r="B121" s="3" t="s">
         <v>254</v>
       </c>
@@ -5183,7 +5203,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="42"/>
+      <c r="A122" s="27"/>
       <c r="B122" s="1" t="s">
         <v>256</v>
       </c>
@@ -5198,7 +5218,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="1"/>
@@ -5213,7 +5233,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
+      <c r="A124" s="27"/>
       <c r="B124" s="1" t="s">
         <v>259</v>
       </c>
@@ -5226,7 +5246,7 @@
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="42"/>
+      <c r="A125" s="27"/>
       <c r="B125" s="1" t="s">
         <v>253</v>
       </c>
@@ -5241,7 +5261,7 @@
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="42"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="1" t="s">
         <v>254</v>
       </c>
@@ -5256,7 +5276,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
+      <c r="A127" s="27"/>
       <c r="B127" s="1" t="s">
         <v>256</v>
       </c>
@@ -5271,7 +5291,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="42"/>
+      <c r="A128" s="27"/>
       <c r="B128" s="1" t="s">
         <v>263</v>
       </c>
@@ -5286,7 +5306,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="1"/>
@@ -5303,7 +5323,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="36"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="1" t="s">
         <v>267</v>
       </c>
@@ -5318,7 +5338,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="36"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="1" t="s">
         <v>269</v>
       </c>
@@ -5331,7 +5351,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="36"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="1" t="s">
         <v>125</v>
       </c>
@@ -5344,7 +5364,7 @@
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="36"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="1" t="s">
         <v>270</v>
       </c>
@@ -5357,7 +5377,7 @@
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="36"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="1" t="s">
         <v>271</v>
       </c>
@@ -5370,7 +5390,7 @@
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="36"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="1" t="s">
         <v>272</v>
       </c>
@@ -5383,7 +5403,7 @@
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="36"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="1" t="s">
         <v>273</v>
       </c>
@@ -5396,7 +5416,7 @@
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="36"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="1" t="s">
         <v>274</v>
       </c>
@@ -5409,7 +5429,7 @@
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="36"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="1" t="s">
         <v>275</v>
       </c>
@@ -5422,7 +5442,7 @@
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="1" t="s">
         <v>276</v>
       </c>
@@ -5435,7 +5455,7 @@
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="40" t="s">
+      <c r="A140" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="1"/>
@@ -5450,7 +5470,7 @@
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="41"/>
+      <c r="A141" s="26"/>
       <c r="B141" s="1" t="s">
         <v>278</v>
       </c>
@@ -5463,7 +5483,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="35" t="s">
+      <c r="A142" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="1"/>
@@ -5475,12 +5495,12 @@
       <c r="F142" s="1">
         <v>5</v>
       </c>
-      <c r="G142" s="55" t="s">
-        <v>531</v>
+      <c r="G142" s="48" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="36"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="3" t="s">
         <v>20</v>
       </c>
@@ -5493,7 +5513,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="36"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="1" t="s">
         <v>21</v>
       </c>
@@ -5506,7 +5526,7 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="36"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="1" t="s">
         <v>22</v>
       </c>
@@ -5519,7 +5539,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="36"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="1" t="s">
         <v>23</v>
       </c>
@@ -5532,7 +5552,7 @@
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="36"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="1" t="s">
         <v>24</v>
       </c>
@@ -5545,7 +5565,7 @@
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="36"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="1" t="s">
         <v>25</v>
       </c>
@@ -5558,7 +5578,7 @@
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="36"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="1" t="s">
         <v>26</v>
       </c>
@@ -5571,7 +5591,7 @@
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="36"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="1" t="s">
         <v>32</v>
       </c>
@@ -5584,7 +5604,7 @@
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="36"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="1" t="s">
         <v>33</v>
       </c>
@@ -5597,7 +5617,7 @@
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="36"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="1" t="s">
         <v>35</v>
       </c>
@@ -5610,7 +5630,7 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="36"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="1" t="s">
         <v>36</v>
       </c>
@@ -5623,7 +5643,7 @@
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="37"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5634,7 +5654,7 @@
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="35" t="s">
+      <c r="A155" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B155" s="1"/>
@@ -5646,12 +5666,12 @@
       <c r="F155" s="1">
         <v>5</v>
       </c>
-      <c r="G155" s="55" t="s">
-        <v>532</v>
+      <c r="G155" s="48" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="36"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="1" t="s">
         <v>30</v>
       </c>
@@ -5664,7 +5684,7 @@
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="36"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="1" t="s">
         <v>37</v>
       </c>
@@ -5677,7 +5697,7 @@
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="36"/>
+      <c r="A158" s="31"/>
       <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
@@ -5690,7 +5710,7 @@
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="36"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="1" t="s">
         <v>41</v>
       </c>
@@ -5705,7 +5725,7 @@
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="36"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="1" t="s">
         <v>39</v>
       </c>
@@ -5720,7 +5740,7 @@
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="37"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="1" t="s">
         <v>43</v>
       </c>
@@ -5733,7 +5753,7 @@
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="35" t="s">
+      <c r="A162" s="28" t="s">
         <v>312</v>
       </c>
       <c r="B162" s="1"/>
@@ -5745,12 +5765,12 @@
       <c r="F162" s="7">
         <v>13</v>
       </c>
-      <c r="G162" s="55" t="s">
-        <v>532</v>
+      <c r="G162" s="48" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="36"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="1" t="s">
         <v>284</v>
       </c>
@@ -5763,7 +5783,7 @@
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="1" t="s">
         <v>285</v>
       </c>
@@ -5776,7 +5796,7 @@
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="36"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="1" t="s">
         <v>253</v>
       </c>
@@ -5789,7 +5809,7 @@
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="36"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="1" t="s">
         <v>314</v>
       </c>
@@ -5802,7 +5822,7 @@
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="37"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="1" t="s">
         <v>315</v>
       </c>
@@ -5815,7 +5835,7 @@
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A168" s="35" t="s">
+      <c r="A168" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B168" s="1"/>
@@ -5834,7 +5854,7 @@
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="37"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="1" t="s">
         <v>346</v>
       </c>
@@ -5847,7 +5867,7 @@
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="44" t="s">
+      <c r="A170" s="33" t="s">
         <v>347</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -5868,7 +5888,7 @@
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="45"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="7" t="s">
         <v>47</v>
       </c>
@@ -5887,7 +5907,7 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="45"/>
+      <c r="A172" s="25"/>
       <c r="B172" s="7" t="s">
         <v>297</v>
       </c>
@@ -5906,7 +5926,7 @@
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="41"/>
+      <c r="A173" s="26"/>
       <c r="B173" s="7" t="s">
         <v>49</v>
       </c>
@@ -5942,7 +5962,7 @@
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="39" t="s">
+      <c r="A175" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="3"/>
@@ -5957,7 +5977,7 @@
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
+      <c r="A176" s="32"/>
       <c r="B176" s="3" t="s">
         <v>69</v>
       </c>
@@ -5970,7 +5990,7 @@
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="39"/>
+      <c r="A177" s="32"/>
       <c r="B177" s="3" t="s">
         <v>72</v>
       </c>
@@ -5983,7 +6003,7 @@
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
+      <c r="A178" s="32"/>
       <c r="B178" s="3" t="s">
         <v>176</v>
       </c>
@@ -5996,7 +6016,7 @@
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
+      <c r="A179" s="32"/>
       <c r="B179" s="3" t="s">
         <v>177</v>
       </c>
@@ -6009,7 +6029,7 @@
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
+      <c r="A180" s="32"/>
       <c r="B180" s="3" t="s">
         <v>178</v>
       </c>
@@ -6022,7 +6042,7 @@
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A181" s="35" t="s">
+      <c r="A181" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B181" s="1"/>
@@ -6037,7 +6057,7 @@
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="36"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="6" t="s">
         <v>60</v>
       </c>
@@ -6052,7 +6072,7 @@
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="36"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="6" t="s">
         <v>319</v>
       </c>
@@ -6067,7 +6087,7 @@
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="36"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="6" t="s">
         <v>285</v>
       </c>
@@ -6082,7 +6102,7 @@
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="36"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="6" t="s">
         <v>322</v>
       </c>
@@ -6097,7 +6117,7 @@
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="36"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="6" t="s">
         <v>324</v>
       </c>
@@ -6112,7 +6132,7 @@
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="36"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="6" t="s">
         <v>326</v>
       </c>
@@ -6127,7 +6147,7 @@
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="36"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="6" t="s">
         <v>328</v>
       </c>
@@ -6142,7 +6162,7 @@
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="36"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="6" t="s">
         <v>330</v>
       </c>
@@ -6157,7 +6177,7 @@
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="36"/>
+      <c r="A190" s="31"/>
       <c r="B190" s="6" t="s">
         <v>332</v>
       </c>
@@ -6172,7 +6192,7 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="37"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="6" t="s">
         <v>334</v>
       </c>
@@ -6187,7 +6207,7 @@
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A192" s="35" t="s">
+      <c r="A192" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B192" s="1"/>
@@ -6202,7 +6222,7 @@
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="36"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="6" t="s">
         <v>60</v>
       </c>
@@ -6217,7 +6237,7 @@
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="36"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="6" t="s">
         <v>61</v>
       </c>
@@ -6232,7 +6252,7 @@
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="36"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="6" t="s">
         <v>285</v>
       </c>
@@ -6247,7 +6267,7 @@
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="36"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="6" t="s">
         <v>328</v>
       </c>
@@ -6262,7 +6282,7 @@
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="36"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="6" t="s">
         <v>341</v>
       </c>
@@ -6277,7 +6297,7 @@
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="36"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="6" t="s">
         <v>343</v>
       </c>
@@ -6292,7 +6312,7 @@
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="36"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="6" t="s">
         <v>348</v>
       </c>
@@ -6307,7 +6327,7 @@
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="36"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="6" t="s">
         <v>350</v>
       </c>
@@ -6322,7 +6342,7 @@
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="36"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="6" t="s">
         <v>352</v>
       </c>
@@ -6337,7 +6357,7 @@
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="37"/>
+      <c r="A202" s="29"/>
       <c r="B202" s="6" t="s">
         <v>111</v>
       </c>
@@ -6352,7 +6372,7 @@
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A203" s="42" t="s">
+      <c r="A203" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B203" s="1"/>
@@ -6367,7 +6387,7 @@
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="42"/>
+      <c r="A204" s="27"/>
       <c r="B204" s="6" t="s">
         <v>60</v>
       </c>
@@ -6382,7 +6402,7 @@
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="42"/>
+      <c r="A205" s="27"/>
       <c r="B205" s="6" t="s">
         <v>61</v>
       </c>
@@ -6397,7 +6417,7 @@
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="42"/>
+      <c r="A206" s="27"/>
       <c r="B206" s="6" t="s">
         <v>359</v>
       </c>
@@ -6412,7 +6432,7 @@
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="42"/>
+      <c r="A207" s="27"/>
       <c r="B207" s="6" t="s">
         <v>361</v>
       </c>
@@ -6427,7 +6447,7 @@
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="42"/>
+      <c r="A208" s="27"/>
       <c r="B208" s="6" t="s">
         <v>363</v>
       </c>
@@ -6442,7 +6462,7 @@
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="42"/>
+      <c r="A209" s="27"/>
       <c r="B209" s="6" t="s">
         <v>365</v>
       </c>
@@ -6457,7 +6477,7 @@
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="42"/>
+      <c r="A210" s="27"/>
       <c r="B210" s="6" t="s">
         <v>367</v>
       </c>
@@ -6472,7 +6492,7 @@
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="42"/>
+      <c r="A211" s="27"/>
       <c r="B211" s="6" t="s">
         <v>369</v>
       </c>
@@ -6487,7 +6507,7 @@
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="42"/>
+      <c r="A212" s="27"/>
       <c r="B212" s="6" t="s">
         <v>371</v>
       </c>
@@ -6502,7 +6522,7 @@
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="42"/>
+      <c r="A213" s="27"/>
       <c r="B213" s="6" t="s">
         <v>373</v>
       </c>
@@ -6517,7 +6537,7 @@
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="42"/>
+      <c r="A214" s="27"/>
       <c r="B214" s="6" t="s">
         <v>375</v>
       </c>
@@ -6532,7 +6552,7 @@
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="42"/>
+      <c r="A215" s="27"/>
       <c r="B215" s="6" t="s">
         <v>377</v>
       </c>
@@ -6547,7 +6567,7 @@
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="42"/>
+      <c r="A216" s="27"/>
       <c r="B216" s="6" t="s">
         <v>379</v>
       </c>
@@ -6562,7 +6582,7 @@
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="42"/>
+      <c r="A217" s="27"/>
       <c r="B217" s="6" t="s">
         <v>381</v>
       </c>
@@ -6577,7 +6597,7 @@
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="42"/>
+      <c r="A218" s="27"/>
       <c r="B218" s="6" t="s">
         <v>383</v>
       </c>
@@ -6592,7 +6612,7 @@
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="42"/>
+      <c r="A219" s="27"/>
       <c r="B219" s="6" t="s">
         <v>385</v>
       </c>
@@ -6607,7 +6627,7 @@
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A220" s="42"/>
+      <c r="A220" s="27"/>
       <c r="B220" s="6" t="s">
         <v>387</v>
       </c>
@@ -6622,7 +6642,7 @@
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="42"/>
+      <c r="A221" s="27"/>
       <c r="B221" s="6" t="s">
         <v>389</v>
       </c>
@@ -6637,7 +6657,7 @@
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="42"/>
+      <c r="A222" s="27"/>
       <c r="B222" s="6" t="s">
         <v>111</v>
       </c>
@@ -6652,7 +6672,7 @@
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="42"/>
+      <c r="A223" s="27"/>
       <c r="B223" s="6" t="s">
         <v>392</v>
       </c>
@@ -6667,7 +6687,7 @@
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="42" t="s">
+      <c r="A224" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B224" s="1"/>
@@ -6682,7 +6702,7 @@
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="42"/>
+      <c r="A225" s="27"/>
       <c r="B225" s="6" t="s">
         <v>60</v>
       </c>
@@ -6697,7 +6717,7 @@
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="42"/>
+      <c r="A226" s="27"/>
       <c r="B226" s="6" t="s">
         <v>61</v>
       </c>
@@ -6712,7 +6732,7 @@
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="42"/>
+      <c r="A227" s="27"/>
       <c r="B227" s="6" t="s">
         <v>359</v>
       </c>
@@ -6727,7 +6747,7 @@
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="42"/>
+      <c r="A228" s="27"/>
       <c r="B228" s="6" t="s">
         <v>361</v>
       </c>
@@ -6742,7 +6762,7 @@
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="42"/>
+      <c r="A229" s="27"/>
       <c r="B229" s="6" t="s">
         <v>398</v>
       </c>
@@ -6757,7 +6777,7 @@
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="42"/>
+      <c r="A230" s="27"/>
       <c r="B230" s="6" t="s">
         <v>400</v>
       </c>
@@ -6772,7 +6792,7 @@
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="42"/>
+      <c r="A231" s="27"/>
       <c r="B231" s="6" t="s">
         <v>402</v>
       </c>
@@ -6787,7 +6807,7 @@
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="42"/>
+      <c r="A232" s="27"/>
       <c r="B232" s="6" t="s">
         <v>365</v>
       </c>
@@ -6802,7 +6822,7 @@
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="42"/>
+      <c r="A233" s="27"/>
       <c r="B233" s="6" t="s">
         <v>367</v>
       </c>
@@ -6817,7 +6837,7 @@
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="42"/>
+      <c r="A234" s="27"/>
       <c r="B234" s="6" t="s">
         <v>406</v>
       </c>
@@ -6832,7 +6852,7 @@
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="42"/>
+      <c r="A235" s="27"/>
       <c r="B235" s="6" t="s">
         <v>373</v>
       </c>
@@ -6847,7 +6867,7 @@
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="42"/>
+      <c r="A236" s="27"/>
       <c r="B236" s="6" t="s">
         <v>375</v>
       </c>
@@ -6862,7 +6882,7 @@
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="42"/>
+      <c r="A237" s="27"/>
       <c r="B237" s="6" t="s">
         <v>410</v>
       </c>
@@ -6877,7 +6897,7 @@
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A238" s="42"/>
+      <c r="A238" s="27"/>
       <c r="B238" s="6" t="s">
         <v>412</v>
       </c>
@@ -6892,7 +6912,7 @@
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A239" s="42"/>
+      <c r="A239" s="27"/>
       <c r="B239" s="6" t="s">
         <v>414</v>
       </c>
@@ -6907,7 +6927,7 @@
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="42"/>
+      <c r="A240" s="27"/>
       <c r="B240" s="6" t="s">
         <v>389</v>
       </c>
@@ -6922,7 +6942,7 @@
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="42"/>
+      <c r="A241" s="27"/>
       <c r="B241" s="6" t="s">
         <v>111</v>
       </c>
@@ -6937,7 +6957,7 @@
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="42"/>
+      <c r="A242" s="27"/>
       <c r="B242" s="6" t="s">
         <v>392</v>
       </c>
@@ -6952,7 +6972,7 @@
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A243" s="43" t="s">
+      <c r="A243" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B243" s="1"/>
@@ -6967,7 +6987,7 @@
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="43"/>
+      <c r="A244" s="30"/>
       <c r="B244" s="6" t="s">
         <v>60</v>
       </c>
@@ -6982,7 +7002,7 @@
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="43"/>
+      <c r="A245" s="30"/>
       <c r="B245" s="6" t="s">
         <v>61</v>
       </c>
@@ -6997,7 +7017,7 @@
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="43"/>
+      <c r="A246" s="30"/>
       <c r="B246" s="6" t="s">
         <v>359</v>
       </c>
@@ -7012,7 +7032,7 @@
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="43"/>
+      <c r="A247" s="30"/>
       <c r="B247" s="6" t="s">
         <v>361</v>
       </c>
@@ -7027,7 +7047,7 @@
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="43"/>
+      <c r="A248" s="30"/>
       <c r="B248" s="6" t="s">
         <v>398</v>
       </c>
@@ -7042,7 +7062,7 @@
       <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="43"/>
+      <c r="A249" s="30"/>
       <c r="B249" s="6" t="s">
         <v>425</v>
       </c>
@@ -7057,7 +7077,7 @@
       <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="43"/>
+      <c r="A250" s="30"/>
       <c r="B250" s="6" t="s">
         <v>427</v>
       </c>
@@ -7072,7 +7092,7 @@
       <c r="G250" s="1"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="43"/>
+      <c r="A251" s="30"/>
       <c r="B251" s="6" t="s">
         <v>365</v>
       </c>
@@ -7087,7 +7107,7 @@
       <c r="G251" s="1"/>
     </row>
     <row r="252" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="43"/>
+      <c r="A252" s="30"/>
       <c r="B252" s="6" t="s">
         <v>430</v>
       </c>
@@ -7102,7 +7122,7 @@
       <c r="G252" s="1"/>
     </row>
     <row r="253" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="43"/>
+      <c r="A253" s="30"/>
       <c r="B253" s="6" t="s">
         <v>432</v>
       </c>
@@ -7117,7 +7137,7 @@
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A254" s="42" t="s">
+      <c r="A254" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B254" s="1"/>
@@ -7132,7 +7152,7 @@
       <c r="G254" s="1"/>
     </row>
     <row r="255" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="42"/>
+      <c r="A255" s="27"/>
       <c r="B255" s="6" t="s">
         <v>60</v>
       </c>
@@ -7147,7 +7167,7 @@
       <c r="G255" s="1"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="42"/>
+      <c r="A256" s="27"/>
       <c r="B256" s="6" t="s">
         <v>61</v>
       </c>
@@ -7162,7 +7182,7 @@
       <c r="G256" s="1"/>
     </row>
     <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="42"/>
+      <c r="A257" s="27"/>
       <c r="B257" s="6" t="s">
         <v>359</v>
       </c>
@@ -7177,7 +7197,7 @@
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A258" s="42"/>
+      <c r="A258" s="27"/>
       <c r="B258" s="6" t="s">
         <v>361</v>
       </c>
@@ -7192,7 +7212,7 @@
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="42"/>
+      <c r="A259" s="27"/>
       <c r="B259" s="6" t="s">
         <v>398</v>
       </c>
@@ -7207,7 +7227,7 @@
       <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A260" s="42"/>
+      <c r="A260" s="27"/>
       <c r="B260" s="6" t="s">
         <v>440</v>
       </c>
@@ -7222,7 +7242,7 @@
       <c r="G260" s="1"/>
     </row>
     <row r="261" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="42"/>
+      <c r="A261" s="27"/>
       <c r="B261" s="6" t="s">
         <v>442</v>
       </c>
@@ -7237,7 +7257,7 @@
       <c r="G261" s="1"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="42"/>
+      <c r="A262" s="27"/>
       <c r="B262" s="6" t="s">
         <v>365</v>
       </c>
@@ -7252,7 +7272,7 @@
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="42"/>
+      <c r="A263" s="27"/>
       <c r="B263" s="6" t="s">
         <v>367</v>
       </c>
@@ -7267,7 +7287,7 @@
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="42"/>
+      <c r="A264" s="27"/>
       <c r="B264" s="6" t="s">
         <v>373</v>
       </c>
@@ -7282,7 +7302,7 @@
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="42"/>
+      <c r="A265" s="27"/>
       <c r="B265" s="6" t="s">
         <v>447</v>
       </c>
@@ -7297,7 +7317,7 @@
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="42"/>
+      <c r="A266" s="27"/>
       <c r="B266" s="6" t="s">
         <v>449</v>
       </c>
@@ -7312,7 +7332,7 @@
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="42"/>
+      <c r="A267" s="27"/>
       <c r="B267" s="6" t="s">
         <v>451</v>
       </c>
@@ -7327,7 +7347,7 @@
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="42"/>
+      <c r="A268" s="27"/>
       <c r="B268" s="6" t="s">
         <v>453</v>
       </c>
@@ -7342,7 +7362,7 @@
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="42"/>
+      <c r="A269" s="27"/>
       <c r="B269" s="6" t="s">
         <v>389</v>
       </c>
@@ -7357,7 +7377,7 @@
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="42"/>
+      <c r="A270" s="27"/>
       <c r="B270" s="6" t="s">
         <v>455</v>
       </c>
@@ -7372,7 +7392,7 @@
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="42"/>
+      <c r="A271" s="27"/>
       <c r="B271" s="6" t="s">
         <v>111</v>
       </c>
@@ -7387,7 +7407,7 @@
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="42"/>
+      <c r="A272" s="27"/>
       <c r="B272" s="6" t="s">
         <v>392</v>
       </c>
@@ -7402,7 +7422,7 @@
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A273" s="42" t="s">
+      <c r="A273" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B273" s="1"/>
@@ -7417,7 +7437,7 @@
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="42"/>
+      <c r="A274" s="27"/>
       <c r="B274" s="6" t="s">
         <v>60</v>
       </c>
@@ -7432,7 +7452,7 @@
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="42"/>
+      <c r="A275" s="27"/>
       <c r="B275" s="6" t="s">
         <v>61</v>
       </c>
@@ -7447,7 +7467,7 @@
       <c r="G275" s="1"/>
     </row>
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="42"/>
+      <c r="A276" s="27"/>
       <c r="B276" s="6" t="s">
         <v>359</v>
       </c>
@@ -7462,7 +7482,7 @@
       <c r="G276" s="1"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="42"/>
+      <c r="A277" s="27"/>
       <c r="B277" s="6" t="s">
         <v>410</v>
       </c>
@@ -7477,7 +7497,7 @@
       <c r="G277" s="1"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="42"/>
+      <c r="A278" s="27"/>
       <c r="B278" s="6" t="s">
         <v>464</v>
       </c>
@@ -7492,7 +7512,7 @@
       <c r="G278" s="1"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="42"/>
+      <c r="A279" s="27"/>
       <c r="B279" s="6" t="s">
         <v>466</v>
       </c>
@@ -7507,7 +7527,7 @@
       <c r="G279" s="1"/>
     </row>
     <row r="280" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A280" s="42"/>
+      <c r="A280" s="27"/>
       <c r="B280" s="6" t="s">
         <v>365</v>
       </c>
@@ -7522,7 +7542,7 @@
       <c r="G280" s="1"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="42"/>
+      <c r="A281" s="27"/>
       <c r="B281" s="6" t="s">
         <v>367</v>
       </c>
@@ -7537,7 +7557,7 @@
       <c r="G281" s="1"/>
     </row>
     <row r="282" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A282" s="42"/>
+      <c r="A282" s="27"/>
       <c r="B282" s="6" t="s">
         <v>373</v>
       </c>
@@ -7552,7 +7572,7 @@
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="42"/>
+      <c r="A283" s="27"/>
       <c r="B283" s="6" t="s">
         <v>471</v>
       </c>
@@ -7567,7 +7587,7 @@
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="42"/>
+      <c r="A284" s="27"/>
       <c r="B284" s="6" t="s">
         <v>473</v>
       </c>
@@ -7582,7 +7602,7 @@
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="42"/>
+      <c r="A285" s="27"/>
       <c r="B285" s="6" t="s">
         <v>475</v>
       </c>
@@ -7597,7 +7617,7 @@
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="42"/>
+      <c r="A286" s="27"/>
       <c r="B286" s="6" t="s">
         <v>477</v>
       </c>
@@ -7612,7 +7632,7 @@
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="42"/>
+      <c r="A287" s="27"/>
       <c r="B287" s="6" t="s">
         <v>479</v>
       </c>
@@ -7627,7 +7647,7 @@
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="42"/>
+      <c r="A288" s="27"/>
       <c r="B288" s="6" t="s">
         <v>481</v>
       </c>
@@ -7642,83 +7662,69 @@
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A289" s="52" t="s">
+      <c r="A289" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B289" s="53"/>
-      <c r="C289" s="54" t="s">
+      <c r="B289" s="54"/>
+      <c r="C289" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="D289" s="53"/>
+      <c r="D289" s="54"/>
       <c r="E289" s="56" t="s">
-        <v>535</v>
-      </c>
-      <c r="F289" s="53">
+        <v>533</v>
+      </c>
+      <c r="F289" s="54">
         <v>11</v>
       </c>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A290" s="52" t="s">
+    <row r="290" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A290" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="53"/>
-      <c r="C290" s="54" t="s">
+      <c r="B290" s="54"/>
+      <c r="C290" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="D290" s="53"/>
-      <c r="E290" s="45"/>
-      <c r="F290" s="53">
+      <c r="D290" s="54"/>
+      <c r="E290" s="57"/>
+      <c r="F290" s="54">
         <v>11</v>
       </c>
       <c r="G290" s="1"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="52"/>
-      <c r="B291" s="53" t="s">
+      <c r="A291" s="53"/>
+      <c r="B291" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C291" s="54" t="s">
+      <c r="C291" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="D291" s="53"/>
-      <c r="E291" s="45"/>
-      <c r="F291" s="53">
+      <c r="D291" s="54"/>
+      <c r="E291" s="57"/>
+      <c r="F291" s="54">
         <v>11</v>
       </c>
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A292" s="52" t="s">
+      <c r="A292" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="B292" s="53"/>
-      <c r="C292" s="54" t="s">
+      <c r="B292" s="54"/>
+      <c r="C292" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="D292" s="53"/>
-      <c r="E292" s="41"/>
-      <c r="F292" s="53">
+      <c r="D292" s="54"/>
+      <c r="E292" s="58"/>
+      <c r="F292" s="54">
         <v>11</v>
       </c>
       <c r="G292" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E289:E292"/>
-    <mergeCell ref="A254:A272"/>
-    <mergeCell ref="A273:A288"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A203:A223"/>
-    <mergeCell ref="A224:A242"/>
-    <mergeCell ref="A243:A253"/>
-    <mergeCell ref="A181:A191"/>
-    <mergeCell ref="A192:A202"/>
-    <mergeCell ref="A175:A180"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A162:A167"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -7735,6 +7741,20 @@
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A115"/>
+    <mergeCell ref="E289:E292"/>
+    <mergeCell ref="A254:A272"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A203:A223"/>
+    <mergeCell ref="A224:A242"/>
+    <mergeCell ref="A243:A253"/>
+    <mergeCell ref="A181:A191"/>
+    <mergeCell ref="A192:A202"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A162:A167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>
